--- a/Data/Antechinus_data.xlsx
+++ b/Data/Antechinus_data.xlsx
@@ -1847,7 +1847,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Antechinus_data" displayName="Antechinus_data" ref="A1:Q188" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:Q188"/>
+  <autoFilter ref="A1:Q188">
+    <filterColumn colId="13">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="17">
     <tableColumn id="35" uniqueName="35" name="Species" queryTableFieldId="1"/>
     <tableColumn id="36" uniqueName="36" name="Collection" queryTableFieldId="2"/>
@@ -2149,7 +2155,7 @@
   <dimension ref="A1:Q188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2278,7 +2284,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -2331,7 +2337,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -2384,7 +2390,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -2437,7 +2443,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -2490,7 +2496,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -2543,7 +2549,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -2590,7 +2596,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -2643,7 +2649,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -2696,7 +2702,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -2793,7 +2799,7 @@
         <v>25</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>69</v>
@@ -2802,7 +2808,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -2855,7 +2861,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -2908,7 +2914,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -2961,7 +2967,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -3014,7 +3020,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -3067,7 +3073,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -3120,7 +3126,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -3173,7 +3179,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -3226,7 +3232,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -3332,7 +3338,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -3385,7 +3391,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -3438,7 +3444,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
@@ -3491,7 +3497,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -3544,7 +3550,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -3597,7 +3603,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -3650,7 +3656,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -3703,7 +3709,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -3756,7 +3762,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -3853,7 +3859,7 @@
         <v>25</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>69</v>
@@ -3862,7 +3868,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
@@ -3915,7 +3921,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3968,7 +3974,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
@@ -4021,7 +4027,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>29</v>
       </c>
@@ -4074,7 +4080,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -4121,7 +4127,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
@@ -4174,7 +4180,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>29</v>
       </c>
@@ -4227,7 +4233,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>29</v>
       </c>
@@ -4280,7 +4286,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
@@ -4377,7 +4383,7 @@
         <v>25</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>69</v>
@@ -4386,7 +4392,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>29</v>
       </c>
@@ -4439,7 +4445,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>29</v>
       </c>
@@ -4492,7 +4498,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>29</v>
       </c>
@@ -4545,7 +4551,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>29</v>
       </c>
@@ -4598,7 +4604,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>29</v>
       </c>
@@ -4651,7 +4657,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>29</v>
       </c>
@@ -4704,7 +4710,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>29</v>
       </c>
@@ -4757,7 +4763,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>29</v>
       </c>
@@ -4810,7 +4816,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>29</v>
       </c>
@@ -4863,7 +4869,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
@@ -4916,7 +4922,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>29</v>
       </c>
@@ -4969,7 +4975,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>29</v>
       </c>
@@ -5022,7 +5028,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>29</v>
       </c>
@@ -5075,7 +5081,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>29</v>
       </c>
@@ -5128,7 +5134,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>29</v>
       </c>
@@ -5181,7 +5187,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>29</v>
       </c>
@@ -5234,7 +5240,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>17</v>
       </c>
@@ -5287,7 +5293,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>17</v>
       </c>
@@ -5340,7 +5346,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>17</v>
       </c>
@@ -5446,7 +5452,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>17</v>
       </c>
@@ -5499,7 +5505,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>17</v>
       </c>
@@ -5552,7 +5558,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>17</v>
       </c>
@@ -5605,7 +5611,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>17</v>
       </c>
@@ -5658,7 +5664,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>17</v>
       </c>
@@ -5711,7 +5717,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>17</v>
       </c>
@@ -5764,7 +5770,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>17</v>
       </c>
@@ -5817,7 +5823,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>17</v>
       </c>
@@ -5870,7 +5876,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>17</v>
       </c>
@@ -5967,7 +5973,7 @@
         <v>25</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P72" s="1" t="s">
         <v>248</v>
@@ -5976,7 +5982,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>17</v>
       </c>
@@ -6029,7 +6035,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>29</v>
       </c>
@@ -6123,7 +6129,7 @@
         <v>25</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O75" s="1" t="s">
         <v>69</v>
@@ -6135,7 +6141,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>17</v>
       </c>
@@ -6188,7 +6194,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>17</v>
       </c>
@@ -6241,7 +6247,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>29</v>
       </c>
@@ -6294,7 +6300,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>29</v>
       </c>
@@ -6347,7 +6353,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>29</v>
       </c>
@@ -6400,7 +6406,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>29</v>
       </c>
@@ -6506,7 +6512,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>17</v>
       </c>
@@ -6559,7 +6565,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>17</v>
       </c>
@@ -6612,7 +6618,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>17</v>
       </c>
@@ -6665,7 +6671,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>17</v>
       </c>
@@ -6718,7 +6724,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>17</v>
       </c>
@@ -6771,7 +6777,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>17</v>
       </c>
@@ -6824,7 +6830,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>17</v>
       </c>
@@ -6877,7 +6883,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>17</v>
       </c>
@@ -6930,7 +6936,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>17</v>
       </c>
@@ -7036,7 +7042,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>17</v>
       </c>
@@ -7089,7 +7095,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>17</v>
       </c>
@@ -7142,7 +7148,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>17</v>
       </c>
@@ -7195,7 +7201,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>17</v>
       </c>
@@ -7248,7 +7254,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>17</v>
       </c>
@@ -7301,7 +7307,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>29</v>
       </c>
@@ -7354,7 +7360,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>29</v>
       </c>
@@ -7407,7 +7413,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>17</v>
       </c>
@@ -7460,7 +7466,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>17</v>
       </c>
@@ -7566,7 +7572,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>17</v>
       </c>
@@ -7619,7 +7625,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>17</v>
       </c>
@@ -7672,7 +7678,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>17</v>
       </c>
@@ -7725,7 +7731,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>17</v>
       </c>
@@ -7778,7 +7784,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>17</v>
       </c>
@@ -7831,7 +7837,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>17</v>
       </c>
@@ -7884,7 +7890,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>17</v>
       </c>
@@ -7937,7 +7943,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>17</v>
       </c>
@@ -7990,7 +7996,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>17</v>
       </c>
@@ -8096,7 +8102,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>29</v>
       </c>
@@ -8149,7 +8155,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>17</v>
       </c>
@@ -8202,7 +8208,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>17</v>
       </c>
@@ -8255,7 +8261,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>17</v>
       </c>
@@ -8308,7 +8314,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>17</v>
       </c>
@@ -8361,7 +8367,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>17</v>
       </c>
@@ -8414,7 +8420,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>17</v>
       </c>
@@ -8467,7 +8473,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>29</v>
       </c>
@@ -8520,7 +8526,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>17</v>
       </c>
@@ -8617,7 +8623,7 @@
         <v>25</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P122" s="1" t="s">
         <v>69</v>
@@ -8626,7 +8632,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>17</v>
       </c>
@@ -8679,7 +8685,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>17</v>
       </c>
@@ -8732,7 +8738,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>17</v>
       </c>
@@ -8785,7 +8791,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>17</v>
       </c>
@@ -8838,7 +8844,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>17</v>
       </c>
@@ -8891,7 +8897,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>17</v>
       </c>
@@ -8944,7 +8950,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>29</v>
       </c>
@@ -8997,7 +9003,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>29</v>
       </c>
@@ -9050,7 +9056,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>17</v>
       </c>
@@ -9147,7 +9153,7 @@
         <v>25</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P132" s="1" t="s">
         <v>69</v>
@@ -9156,7 +9162,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>29</v>
       </c>
@@ -9209,7 +9215,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>17</v>
       </c>
@@ -9262,7 +9268,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>29</v>
       </c>
@@ -9315,7 +9321,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>29</v>
       </c>
@@ -9368,7 +9374,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>29</v>
       </c>
@@ -9474,7 +9480,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>29</v>
       </c>
@@ -9527,7 +9533,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>29</v>
       </c>
@@ -9580,7 +9586,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>29</v>
       </c>
@@ -9677,7 +9683,7 @@
         <v>25</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P142" s="1" t="s">
         <v>69</v>
@@ -9686,7 +9692,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>17</v>
       </c>
@@ -9739,7 +9745,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>17</v>
       </c>
@@ -9786,7 +9792,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>17</v>
       </c>
@@ -9839,7 +9845,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>29</v>
       </c>
@@ -9892,7 +9898,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>17</v>
       </c>
@@ -9945,7 +9951,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>17</v>
       </c>
@@ -9998,7 +10004,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>17</v>
       </c>
@@ -10051,7 +10057,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>17</v>
       </c>
@@ -10104,7 +10110,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>17</v>
       </c>
@@ -10201,7 +10207,7 @@
         <v>25</v>
       </c>
       <c r="O152" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P152" s="1" t="s">
         <v>69</v>
@@ -10210,7 +10216,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>17</v>
       </c>
@@ -10263,7 +10269,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>17</v>
       </c>
@@ -10316,7 +10322,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>17</v>
       </c>
@@ -10369,7 +10375,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>17</v>
       </c>
@@ -10422,7 +10428,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>17</v>
       </c>
@@ -10475,7 +10481,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>17</v>
       </c>
@@ -10528,7 +10534,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>29</v>
       </c>
@@ -10581,7 +10587,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>29</v>
       </c>
@@ -10634,7 +10640,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>29</v>
       </c>
@@ -10740,7 +10746,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>29</v>
       </c>
@@ -10793,7 +10799,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>29</v>
       </c>
@@ -10846,7 +10852,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>29</v>
       </c>
@@ -10899,7 +10905,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>17</v>
       </c>
@@ -10952,7 +10958,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>17</v>
       </c>
@@ -11005,7 +11011,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>17</v>
       </c>
@@ -11058,7 +11064,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>29</v>
       </c>
@@ -11111,7 +11117,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>29</v>
       </c>
@@ -11164,7 +11170,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>17</v>
       </c>
@@ -11270,7 +11276,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>29</v>
       </c>
@@ -11323,7 +11329,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>29</v>
       </c>
@@ -11376,7 +11382,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>29</v>
       </c>
@@ -11429,7 +11435,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>29</v>
       </c>
@@ -11482,7 +11488,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>29</v>
       </c>
@@ -11535,7 +11541,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>29</v>
       </c>
@@ -11588,7 +11594,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>29</v>
       </c>
@@ -11641,7 +11647,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>29</v>
       </c>
@@ -11694,7 +11700,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>29</v>
       </c>
@@ -11800,7 +11806,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>17</v>
       </c>
@@ -11853,7 +11859,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>29</v>
       </c>
@@ -11906,7 +11912,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>29</v>
       </c>
@@ -11959,7 +11965,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>29</v>
       </c>
@@ -12012,7 +12018,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>17</v>
       </c>
@@ -12065,7 +12071,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>29</v>
       </c>

--- a/Data/Antechinus_data.xlsx
+++ b/Data/Antechinus_data.xlsx
@@ -1847,13 +1847,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Antechinus_data" displayName="Antechinus_data" ref="A1:Q188" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:Q188">
-    <filterColumn colId="13">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q188"/>
   <tableColumns count="17">
     <tableColumn id="35" uniqueName="35" name="Species" queryTableFieldId="1"/>
     <tableColumn id="36" uniqueName="36" name="Collection" queryTableFieldId="2"/>
@@ -2155,7 +2149,7 @@
   <dimension ref="A1:Q188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2284,7 +2278,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -2325,7 +2319,7 @@
         <v>25</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>69</v>
@@ -2337,7 +2331,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -2378,7 +2372,7 @@
         <v>25</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>69</v>
@@ -2390,7 +2384,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -2431,7 +2425,7 @@
         <v>25</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>69</v>
@@ -2443,7 +2437,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -2484,7 +2478,7 @@
         <v>25</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>69</v>
@@ -2496,7 +2490,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -2537,7 +2531,7 @@
         <v>25</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>69</v>
@@ -2549,7 +2543,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -2584,7 +2578,7 @@
         <v>25</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>69</v>
@@ -2596,7 +2590,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -2637,7 +2631,7 @@
         <v>25</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>69</v>
@@ -2649,7 +2643,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -2690,7 +2684,7 @@
         <v>25</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>69</v>
@@ -2702,7 +2696,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -2743,7 +2737,7 @@
         <v>25</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>69</v>
@@ -2808,7 +2802,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -2849,7 +2843,7 @@
         <v>25</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>69</v>
@@ -2861,7 +2855,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -2902,7 +2896,7 @@
         <v>25</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>69</v>
@@ -2914,7 +2908,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -2955,7 +2949,7 @@
         <v>25</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>69</v>
@@ -2967,7 +2961,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -3020,7 +3014,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -3073,7 +3067,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -3126,7 +3120,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -3179,7 +3173,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -3232,7 +3226,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -3338,7 +3332,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -3391,7 +3385,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -3444,7 +3438,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
@@ -3497,7 +3491,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -3550,7 +3544,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -3603,7 +3597,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -3656,7 +3650,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -3709,7 +3703,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -3762,7 +3756,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -3868,7 +3862,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
@@ -3921,7 +3915,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3974,7 +3968,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
@@ -4027,7 +4021,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>29</v>
       </c>
@@ -4080,7 +4074,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -4127,7 +4121,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
@@ -4180,7 +4174,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>29</v>
       </c>
@@ -4233,7 +4227,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>29</v>
       </c>
@@ -4286,7 +4280,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
@@ -4392,7 +4386,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>29</v>
       </c>
@@ -4445,7 +4439,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>29</v>
       </c>
@@ -4498,7 +4492,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>29</v>
       </c>
@@ -4551,7 +4545,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>29</v>
       </c>
@@ -4604,7 +4598,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>29</v>
       </c>
@@ -4657,7 +4651,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>29</v>
       </c>
@@ -4710,7 +4704,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>29</v>
       </c>
@@ -4763,7 +4757,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>29</v>
       </c>
@@ -4816,7 +4810,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>29</v>
       </c>
@@ -4869,7 +4863,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
@@ -4922,7 +4916,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>29</v>
       </c>
@@ -4975,7 +4969,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>29</v>
       </c>
@@ -5028,7 +5022,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>29</v>
       </c>
@@ -5081,7 +5075,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>29</v>
       </c>
@@ -5134,7 +5128,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>29</v>
       </c>
@@ -5187,7 +5181,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>29</v>
       </c>
@@ -5240,7 +5234,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>17</v>
       </c>
@@ -5293,7 +5287,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>17</v>
       </c>
@@ -5346,7 +5340,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>17</v>
       </c>
@@ -5452,7 +5446,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>17</v>
       </c>
@@ -5505,7 +5499,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>17</v>
       </c>
@@ -5558,7 +5552,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>17</v>
       </c>
@@ -5611,7 +5605,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>17</v>
       </c>
@@ -5664,7 +5658,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>17</v>
       </c>
@@ -5717,7 +5711,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>17</v>
       </c>
@@ -5770,7 +5764,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>17</v>
       </c>
@@ -5823,7 +5817,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>17</v>
       </c>
@@ -5876,7 +5870,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>17</v>
       </c>
@@ -5982,7 +5976,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>17</v>
       </c>
@@ -6035,7 +6029,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>29</v>
       </c>
@@ -6141,7 +6135,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>17</v>
       </c>
@@ -6194,7 +6188,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>17</v>
       </c>
@@ -6247,7 +6241,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>29</v>
       </c>
@@ -6300,7 +6294,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>29</v>
       </c>
@@ -6353,7 +6347,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>29</v>
       </c>
@@ -6406,7 +6400,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>29</v>
       </c>
@@ -6512,7 +6506,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>17</v>
       </c>
@@ -6565,7 +6559,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>17</v>
       </c>
@@ -6618,7 +6612,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>17</v>
       </c>
@@ -6671,7 +6665,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>17</v>
       </c>
@@ -6724,7 +6718,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>17</v>
       </c>
@@ -6777,7 +6771,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>17</v>
       </c>
@@ -6830,7 +6824,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>17</v>
       </c>
@@ -6883,7 +6877,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>17</v>
       </c>
@@ -6936,7 +6930,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>17</v>
       </c>
@@ -7042,7 +7036,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>17</v>
       </c>
@@ -7095,7 +7089,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>17</v>
       </c>
@@ -7148,7 +7142,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>17</v>
       </c>
@@ -7201,7 +7195,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>17</v>
       </c>
@@ -7254,7 +7248,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>17</v>
       </c>
@@ -7307,7 +7301,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>29</v>
       </c>
@@ -7360,7 +7354,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>29</v>
       </c>
@@ -7413,7 +7407,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>17</v>
       </c>
@@ -7466,7 +7460,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>17</v>
       </c>
@@ -7572,7 +7566,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>17</v>
       </c>
@@ -7625,7 +7619,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>17</v>
       </c>
@@ -7678,7 +7672,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>17</v>
       </c>
@@ -7731,7 +7725,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>17</v>
       </c>
@@ -7784,7 +7778,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>17</v>
       </c>
@@ -7837,7 +7831,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>17</v>
       </c>
@@ -7890,7 +7884,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>17</v>
       </c>
@@ -7943,7 +7937,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>17</v>
       </c>
@@ -7996,7 +7990,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>17</v>
       </c>
@@ -8102,7 +8096,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>29</v>
       </c>
@@ -8155,7 +8149,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>17</v>
       </c>
@@ -8208,7 +8202,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>17</v>
       </c>
@@ -8261,7 +8255,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>17</v>
       </c>
@@ -8314,7 +8308,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>17</v>
       </c>
@@ -8367,7 +8361,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>17</v>
       </c>
@@ -8420,7 +8414,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>17</v>
       </c>
@@ -8473,7 +8467,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>29</v>
       </c>
@@ -8526,7 +8520,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>17</v>
       </c>
@@ -8632,7 +8626,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>17</v>
       </c>
@@ -8685,7 +8679,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>17</v>
       </c>
@@ -8738,7 +8732,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>17</v>
       </c>
@@ -8791,7 +8785,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>17</v>
       </c>
@@ -8844,7 +8838,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>17</v>
       </c>
@@ -8897,7 +8891,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>17</v>
       </c>
@@ -8950,7 +8944,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="129" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>29</v>
       </c>
@@ -9003,7 +8997,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="130" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>29</v>
       </c>
@@ -9056,7 +9050,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>17</v>
       </c>
@@ -9162,7 +9156,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>29</v>
       </c>
@@ -9215,7 +9209,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>17</v>
       </c>
@@ -9268,7 +9262,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>29</v>
       </c>
@@ -9321,7 +9315,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>29</v>
       </c>
@@ -9374,7 +9368,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="137" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>29</v>
       </c>
@@ -9480,7 +9474,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>29</v>
       </c>
@@ -9533,7 +9527,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="140" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>29</v>
       </c>
@@ -9586,7 +9580,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>29</v>
       </c>
@@ -9692,7 +9686,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="143" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>17</v>
       </c>
@@ -9745,7 +9739,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>17</v>
       </c>
@@ -9792,7 +9786,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="145" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>17</v>
       </c>
@@ -9845,7 +9839,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="146" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>29</v>
       </c>
@@ -9898,7 +9892,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>17</v>
       </c>
@@ -9951,7 +9945,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>17</v>
       </c>
@@ -10004,7 +9998,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="149" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>17</v>
       </c>
@@ -10057,7 +10051,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>17</v>
       </c>
@@ -10110,7 +10104,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="151" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>17</v>
       </c>
@@ -10216,7 +10210,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="153" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>17</v>
       </c>
@@ -10269,7 +10263,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>17</v>
       </c>
@@ -10322,7 +10316,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="155" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>17</v>
       </c>
@@ -10375,7 +10369,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>17</v>
       </c>
@@ -10428,7 +10422,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="157" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>17</v>
       </c>
@@ -10481,7 +10475,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>17</v>
       </c>
@@ -10534,7 +10528,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>29</v>
       </c>
@@ -10587,7 +10581,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="160" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>29</v>
       </c>
@@ -10640,7 +10634,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="161" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>29</v>
       </c>
@@ -10746,7 +10740,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="163" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>29</v>
       </c>
@@ -10799,7 +10793,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="164" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>29</v>
       </c>
@@ -10852,7 +10846,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="165" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>29</v>
       </c>
@@ -10905,7 +10899,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="166" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>17</v>
       </c>
@@ -10958,7 +10952,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="167" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>17</v>
       </c>
@@ -11011,7 +11005,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="168" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>17</v>
       </c>
@@ -11064,7 +11058,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="169" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>29</v>
       </c>
@@ -11117,7 +11111,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="170" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>29</v>
       </c>
@@ -11170,7 +11164,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="171" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>17</v>
       </c>
@@ -11276,7 +11270,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="173" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>29</v>
       </c>
@@ -11329,7 +11323,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>29</v>
       </c>
@@ -11382,7 +11376,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="175" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>29</v>
       </c>
@@ -11435,7 +11429,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>29</v>
       </c>
@@ -11488,7 +11482,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="177" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>29</v>
       </c>
@@ -11541,7 +11535,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>29</v>
       </c>
@@ -11594,7 +11588,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>29</v>
       </c>
@@ -11647,7 +11641,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>29</v>
       </c>
@@ -11700,7 +11694,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="181" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>29</v>
       </c>
@@ -11806,7 +11800,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>17</v>
       </c>
@@ -11859,7 +11853,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>29</v>
       </c>
@@ -11912,7 +11906,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="185" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>29</v>
       </c>
@@ -11965,7 +11959,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="186" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>29</v>
       </c>
@@ -12018,7 +12012,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>17</v>
       </c>
@@ -12071,7 +12065,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="188" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>29</v>
       </c>

--- a/Data/Antechinus_data.xlsx
+++ b/Data/Antechinus_data.xlsx
@@ -2148,8 +2148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3002,7 +3002,7 @@
         <v>25</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>69</v>
@@ -3055,7 +3055,7 @@
         <v>25</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>69</v>
@@ -3108,7 +3108,7 @@
         <v>25</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>69</v>
@@ -3161,7 +3161,7 @@
         <v>25</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>69</v>
@@ -3214,7 +3214,7 @@
         <v>25</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>69</v>
@@ -3267,7 +3267,7 @@
         <v>25</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>69</v>
@@ -3373,7 +3373,7 @@
         <v>25</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>69</v>
@@ -3426,7 +3426,7 @@
         <v>25</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>69</v>
@@ -3479,7 +3479,7 @@
         <v>25</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>69</v>
@@ -3532,7 +3532,7 @@
         <v>25</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>69</v>
@@ -3585,7 +3585,7 @@
         <v>25</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>69</v>
@@ -3638,7 +3638,7 @@
         <v>25</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>69</v>
@@ -3691,7 +3691,7 @@
         <v>25</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>69</v>
@@ -3744,7 +3744,7 @@
         <v>25</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>69</v>
@@ -3797,7 +3797,7 @@
         <v>25</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>69</v>

--- a/Data/Antechinus_data.xlsx
+++ b/Data/Antechinus_data.xlsx
@@ -2148,8 +2148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2269,7 +2269,7 @@
         <v>25</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>69</v>
@@ -2322,7 +2322,7 @@
         <v>25</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>69</v>
@@ -2375,7 +2375,7 @@
         <v>25</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>69</v>
@@ -2428,7 +2428,7 @@
         <v>25</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>69</v>
@@ -2481,7 +2481,7 @@
         <v>25</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>69</v>
@@ -2534,7 +2534,7 @@
         <v>25</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>69</v>
@@ -2581,7 +2581,7 @@
         <v>25</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>69</v>
@@ -2634,7 +2634,7 @@
         <v>25</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>69</v>
@@ -2687,7 +2687,7 @@
         <v>25</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>69</v>

--- a/Data/Antechinus_data.xlsx
+++ b/Data/Antechinus_data.xlsx
@@ -2149,7 +2149,7 @@
   <dimension ref="A1:Q188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2740,7 +2740,7 @@
         <v>25</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>69</v>
@@ -2846,7 +2846,7 @@
         <v>25</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>69</v>
@@ -2899,7 +2899,7 @@
         <v>25</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>69</v>
@@ -2952,7 +2952,7 @@
         <v>25</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>69</v>

--- a/Data/Antechinus_data.xlsx
+++ b/Data/Antechinus_data.xlsx
@@ -1847,7 +1847,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Antechinus_data" displayName="Antechinus_data" ref="A1:Q188" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:Q188"/>
+  <autoFilter ref="A1:Q188">
+    <filterColumn colId="14">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="17">
     <tableColumn id="35" uniqueName="35" name="Species" queryTableFieldId="1"/>
     <tableColumn id="36" uniqueName="36" name="Collection" queryTableFieldId="2"/>
@@ -2148,8 +2154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3005,7 +3011,7 @@
         <v>25</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>69</v>
@@ -3058,7 +3064,7 @@
         <v>25</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>69</v>
@@ -3111,7 +3117,7 @@
         <v>25</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>69</v>
@@ -3164,7 +3170,7 @@
         <v>25</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>69</v>
@@ -3173,7 +3179,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -3226,7 +3232,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -3279,7 +3285,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -3332,7 +3338,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -3385,7 +3391,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -3438,7 +3444,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
@@ -3491,7 +3497,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -3544,7 +3550,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -3597,7 +3603,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -3650,7 +3656,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -3703,7 +3709,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -3756,7 +3762,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -3862,7 +3868,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
@@ -3915,7 +3921,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3968,7 +3974,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
@@ -4021,7 +4027,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>29</v>
       </c>
@@ -4074,7 +4080,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -4121,7 +4127,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
@@ -4174,7 +4180,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>29</v>
       </c>
@@ -4227,7 +4233,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>29</v>
       </c>
@@ -4280,7 +4286,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
@@ -4386,7 +4392,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>29</v>
       </c>
@@ -4439,7 +4445,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>29</v>
       </c>
@@ -4492,7 +4498,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>29</v>
       </c>
@@ -4545,7 +4551,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>29</v>
       </c>
@@ -4598,7 +4604,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>29</v>
       </c>
@@ -4651,7 +4657,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>29</v>
       </c>
@@ -4704,7 +4710,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>29</v>
       </c>
@@ -4757,7 +4763,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>29</v>
       </c>
@@ -4810,7 +4816,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>29</v>
       </c>
@@ -4863,7 +4869,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
@@ -4916,7 +4922,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>29</v>
       </c>
@@ -4969,7 +4975,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>29</v>
       </c>
@@ -5022,7 +5028,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>29</v>
       </c>
@@ -5075,7 +5081,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>29</v>
       </c>
@@ -5128,7 +5134,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>29</v>
       </c>
@@ -5181,7 +5187,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>29</v>
       </c>
@@ -5234,7 +5240,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>17</v>
       </c>
@@ -5287,7 +5293,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>17</v>
       </c>
@@ -5340,7 +5346,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>17</v>
       </c>
@@ -5393,7 +5399,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>17</v>
       </c>
@@ -5446,7 +5452,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>17</v>
       </c>
@@ -5499,7 +5505,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>17</v>
       </c>
@@ -5552,7 +5558,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>17</v>
       </c>
@@ -5605,7 +5611,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>17</v>
       </c>
@@ -5658,7 +5664,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>17</v>
       </c>
@@ -5711,7 +5717,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>17</v>
       </c>
@@ -5764,7 +5770,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>17</v>
       </c>
@@ -5817,7 +5823,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>17</v>
       </c>
@@ -5870,7 +5876,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>17</v>
       </c>
@@ -5976,7 +5982,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>17</v>
       </c>
@@ -6029,7 +6035,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>29</v>
       </c>
@@ -6082,7 +6088,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>17</v>
       </c>
@@ -6135,7 +6141,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>17</v>
       </c>
@@ -6188,7 +6194,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>17</v>
       </c>
@@ -6241,7 +6247,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>29</v>
       </c>
@@ -6294,7 +6300,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>29</v>
       </c>
@@ -6347,7 +6353,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>29</v>
       </c>
@@ -6400,7 +6406,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>29</v>
       </c>
@@ -6453,7 +6459,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>29</v>
       </c>
@@ -6506,7 +6512,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>17</v>
       </c>
@@ -6559,7 +6565,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>17</v>
       </c>
@@ -6612,7 +6618,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>17</v>
       </c>
@@ -6665,7 +6671,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>17</v>
       </c>
@@ -6718,7 +6724,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>17</v>
       </c>
@@ -6771,7 +6777,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>17</v>
       </c>
@@ -6824,7 +6830,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>17</v>
       </c>
@@ -6877,7 +6883,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>17</v>
       </c>
@@ -6930,7 +6936,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>17</v>
       </c>
@@ -6983,7 +6989,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>17</v>
       </c>
@@ -7036,7 +7042,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>17</v>
       </c>
@@ -7089,7 +7095,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>17</v>
       </c>
@@ -7142,7 +7148,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>17</v>
       </c>
@@ -7195,7 +7201,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>17</v>
       </c>
@@ -7248,7 +7254,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>17</v>
       </c>
@@ -7301,7 +7307,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>29</v>
       </c>
@@ -7354,7 +7360,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>29</v>
       </c>
@@ -7407,7 +7413,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>17</v>
       </c>
@@ -7460,7 +7466,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>17</v>
       </c>
@@ -7513,7 +7519,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>17</v>
       </c>
@@ -7566,7 +7572,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>17</v>
       </c>
@@ -7619,7 +7625,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>17</v>
       </c>
@@ -7672,7 +7678,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>17</v>
       </c>
@@ -7725,7 +7731,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>17</v>
       </c>
@@ -7778,7 +7784,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>17</v>
       </c>
@@ -7831,7 +7837,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>17</v>
       </c>
@@ -7884,7 +7890,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>17</v>
       </c>
@@ -7937,7 +7943,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>17</v>
       </c>
@@ -7990,7 +7996,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>17</v>
       </c>
@@ -8043,7 +8049,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>17</v>
       </c>
@@ -8096,7 +8102,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>29</v>
       </c>
@@ -8149,7 +8155,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>17</v>
       </c>
@@ -8202,7 +8208,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>17</v>
       </c>
@@ -8255,7 +8261,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>17</v>
       </c>
@@ -8308,7 +8314,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>17</v>
       </c>
@@ -8361,7 +8367,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>17</v>
       </c>
@@ -8414,7 +8420,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>17</v>
       </c>
@@ -8467,7 +8473,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>29</v>
       </c>
@@ -8520,7 +8526,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>17</v>
       </c>
@@ -8626,7 +8632,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>17</v>
       </c>
@@ -8679,7 +8685,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>17</v>
       </c>
@@ -8732,7 +8738,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>17</v>
       </c>
@@ -8785,7 +8791,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>17</v>
       </c>
@@ -8838,7 +8844,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>17</v>
       </c>
@@ -8891,7 +8897,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>17</v>
       </c>
@@ -8944,7 +8950,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>29</v>
       </c>
@@ -8997,7 +9003,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>29</v>
       </c>
@@ -9050,7 +9056,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>17</v>
       </c>
@@ -9156,7 +9162,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>29</v>
       </c>
@@ -9209,7 +9215,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>17</v>
       </c>
@@ -9262,7 +9268,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>29</v>
       </c>
@@ -9315,7 +9321,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>29</v>
       </c>
@@ -9368,7 +9374,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>29</v>
       </c>
@@ -9474,7 +9480,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>29</v>
       </c>
@@ -9527,7 +9533,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>29</v>
       </c>
@@ -9580,7 +9586,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>29</v>
       </c>
@@ -9686,7 +9692,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>17</v>
       </c>
@@ -9739,7 +9745,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>17</v>
       </c>
@@ -9786,7 +9792,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>17</v>
       </c>
@@ -9839,7 +9845,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>29</v>
       </c>
@@ -9892,7 +9898,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>17</v>
       </c>
@@ -9945,7 +9951,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>17</v>
       </c>
@@ -9998,7 +10004,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>17</v>
       </c>
@@ -10051,7 +10057,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>17</v>
       </c>
@@ -10104,7 +10110,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>17</v>
       </c>
@@ -10210,7 +10216,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>17</v>
       </c>
@@ -10263,7 +10269,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>17</v>
       </c>
@@ -10316,7 +10322,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>17</v>
       </c>
@@ -10369,7 +10375,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>17</v>
       </c>
@@ -10422,7 +10428,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>17</v>
       </c>
@@ -10475,7 +10481,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>17</v>
       </c>
@@ -10528,7 +10534,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>29</v>
       </c>
@@ -10581,7 +10587,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>29</v>
       </c>
@@ -10634,7 +10640,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>29</v>
       </c>
@@ -10740,7 +10746,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>29</v>
       </c>
@@ -10793,7 +10799,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>29</v>
       </c>
@@ -10846,7 +10852,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>29</v>
       </c>
@@ -10899,7 +10905,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>17</v>
       </c>
@@ -10952,7 +10958,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>17</v>
       </c>
@@ -11005,7 +11011,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>17</v>
       </c>
@@ -11058,7 +11064,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>29</v>
       </c>
@@ -11111,7 +11117,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>29</v>
       </c>
@@ -11164,7 +11170,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>17</v>
       </c>
@@ -11270,7 +11276,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>29</v>
       </c>
@@ -11323,7 +11329,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>29</v>
       </c>
@@ -11376,7 +11382,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>29</v>
       </c>
@@ -11429,7 +11435,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>29</v>
       </c>
@@ -11482,7 +11488,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>29</v>
       </c>
@@ -11535,7 +11541,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>29</v>
       </c>
@@ -11588,7 +11594,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>29</v>
       </c>
@@ -11641,7 +11647,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>29</v>
       </c>
@@ -11694,7 +11700,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>29</v>
       </c>
@@ -11800,7 +11806,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>17</v>
       </c>
@@ -11853,7 +11859,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>29</v>
       </c>
@@ -11906,7 +11912,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>29</v>
       </c>
@@ -11959,7 +11965,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>29</v>
       </c>
@@ -12012,7 +12018,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>17</v>
       </c>
@@ -12065,7 +12071,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>29</v>
       </c>

--- a/Data/Antechinus_data.xlsx
+++ b/Data/Antechinus_data.xlsx
@@ -2154,8 +2154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3179,7 +3179,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>25</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>69</v>
@@ -3232,7 +3232,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>25</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>69</v>
@@ -3285,7 +3285,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>25</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>69</v>
@@ -3338,7 +3338,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>25</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>69</v>
@@ -3391,7 +3391,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>25</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>69</v>
@@ -3444,7 +3444,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>25</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>69</v>
@@ -3497,7 +3497,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>25</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>69</v>
@@ -3550,7 +3550,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>25</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>69</v>
@@ -3603,7 +3603,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>25</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>69</v>
@@ -3656,7 +3656,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>25</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>69</v>

--- a/Data/Antechinus_data.xlsx
+++ b/Data/Antechinus_data.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="577">
   <si>
     <t>Species</t>
   </si>
@@ -1764,6 +1764,9 @@
   </si>
   <si>
     <t>qm or bust - dunno about this one - but you could guestimate based on description</t>
+  </si>
+  <si>
+    <t>not suitable</t>
   </si>
 </sst>
 </file>
@@ -1847,13 +1850,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Antechinus_data" displayName="Antechinus_data" ref="A1:Q188" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:Q188">
-    <filterColumn colId="14">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q188"/>
   <tableColumns count="17">
     <tableColumn id="35" uniqueName="35" name="Species" queryTableFieldId="1"/>
     <tableColumn id="36" uniqueName="36" name="Collection" queryTableFieldId="2"/>
@@ -2154,8 +2151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3709,7 +3706,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -3753,7 +3750,7 @@
         <v>25</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>69</v>
@@ -3762,7 +3759,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -3806,7 +3803,7 @@
         <v>25</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>69</v>
@@ -3868,7 +3865,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
@@ -3921,7 +3918,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3974,7 +3971,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
@@ -4027,7 +4024,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>29</v>
       </c>
@@ -4080,7 +4077,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -4127,7 +4124,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
@@ -4180,7 +4177,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>29</v>
       </c>
@@ -4233,7 +4230,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>29</v>
       </c>
@@ -4286,7 +4283,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
@@ -4392,7 +4389,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>29</v>
       </c>
@@ -4445,7 +4442,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>29</v>
       </c>
@@ -4498,7 +4495,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>29</v>
       </c>
@@ -4551,7 +4548,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>29</v>
       </c>
@@ -4604,7 +4601,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>29</v>
       </c>
@@ -4657,7 +4654,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>29</v>
       </c>
@@ -4710,7 +4707,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>29</v>
       </c>
@@ -4763,7 +4760,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>29</v>
       </c>
@@ -4816,7 +4813,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>29</v>
       </c>
@@ -4869,7 +4866,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
@@ -4922,7 +4919,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>29</v>
       </c>
@@ -4975,7 +4972,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>29</v>
       </c>
@@ -5028,7 +5025,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>29</v>
       </c>
@@ -5081,7 +5078,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>29</v>
       </c>
@@ -5134,7 +5131,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>29</v>
       </c>
@@ -5187,7 +5184,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>29</v>
       </c>
@@ -5240,7 +5237,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>17</v>
       </c>
@@ -5293,7 +5290,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>17</v>
       </c>
@@ -5346,7 +5343,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>17</v>
       </c>
@@ -5399,7 +5396,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>17</v>
       </c>
@@ -5443,7 +5440,7 @@
         <v>25</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P62" s="1" t="s">
         <v>69</v>
@@ -5452,7 +5449,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>17</v>
       </c>
@@ -5505,7 +5502,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>17</v>
       </c>
@@ -5558,7 +5555,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>17</v>
       </c>
@@ -5611,7 +5608,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>17</v>
       </c>
@@ -5664,7 +5661,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>17</v>
       </c>
@@ -5717,7 +5714,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>17</v>
       </c>
@@ -5770,7 +5767,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>17</v>
       </c>
@@ -5823,7 +5820,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>17</v>
       </c>
@@ -5876,7 +5873,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>17</v>
       </c>
@@ -5982,7 +5979,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>17</v>
       </c>
@@ -6035,7 +6032,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>29</v>
       </c>
@@ -6088,7 +6085,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>17</v>
       </c>
@@ -6132,7 +6129,7 @@
         <v>25</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P75" s="1" t="s">
         <v>69</v>
@@ -6141,7 +6138,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>17</v>
       </c>
@@ -6194,7 +6191,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>17</v>
       </c>
@@ -6247,7 +6244,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>29</v>
       </c>
@@ -6300,7 +6297,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>29</v>
       </c>
@@ -6353,7 +6350,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>29</v>
       </c>
@@ -6406,7 +6403,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>29</v>
       </c>
@@ -6459,7 +6456,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>29</v>
       </c>
@@ -6503,7 +6500,7 @@
         <v>25</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>69</v>
+        <v>576</v>
       </c>
       <c r="P82" s="1" t="s">
         <v>248</v>
@@ -6512,7 +6509,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>17</v>
       </c>
@@ -6565,7 +6562,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>17</v>
       </c>
@@ -6618,7 +6615,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>17</v>
       </c>
@@ -6671,7 +6668,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>17</v>
       </c>
@@ -6724,7 +6721,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>17</v>
       </c>
@@ -6777,7 +6774,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>17</v>
       </c>
@@ -6830,7 +6827,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>17</v>
       </c>
@@ -6883,7 +6880,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>17</v>
       </c>
@@ -6936,7 +6933,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>17</v>
       </c>
@@ -6989,7 +6986,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>17</v>
       </c>
@@ -7033,7 +7030,7 @@
         <v>25</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P92" s="1" t="s">
         <v>69</v>
@@ -7042,7 +7039,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>17</v>
       </c>
@@ -7095,7 +7092,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>17</v>
       </c>
@@ -7148,7 +7145,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>17</v>
       </c>
@@ -7201,7 +7198,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>17</v>
       </c>
@@ -7254,7 +7251,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>17</v>
       </c>
@@ -7307,7 +7304,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>29</v>
       </c>
@@ -7360,7 +7357,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>29</v>
       </c>
@@ -7413,7 +7410,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>17</v>
       </c>
@@ -7466,7 +7463,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>17</v>
       </c>
@@ -7519,7 +7516,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>17</v>
       </c>
@@ -7563,7 +7560,7 @@
         <v>25</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P102" s="1" t="s">
         <v>69</v>
@@ -7572,7 +7569,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>17</v>
       </c>
@@ -7625,7 +7622,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>17</v>
       </c>
@@ -7678,7 +7675,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>17</v>
       </c>
@@ -7731,7 +7728,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>17</v>
       </c>
@@ -7784,7 +7781,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>17</v>
       </c>
@@ -7837,7 +7834,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>17</v>
       </c>
@@ -7890,7 +7887,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>17</v>
       </c>
@@ -7943,7 +7940,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>17</v>
       </c>
@@ -7996,7 +7993,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>17</v>
       </c>
@@ -8049,7 +8046,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>17</v>
       </c>
@@ -8102,7 +8099,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>29</v>
       </c>
@@ -8155,7 +8152,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>17</v>
       </c>
@@ -8208,7 +8205,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>17</v>
       </c>
@@ -8261,7 +8258,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>17</v>
       </c>
@@ -8314,7 +8311,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>17</v>
       </c>
@@ -8367,7 +8364,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>17</v>
       </c>
@@ -8420,7 +8417,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>17</v>
       </c>
@@ -8473,7 +8470,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>29</v>
       </c>
@@ -8526,7 +8523,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>17</v>
       </c>
@@ -8632,7 +8629,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>17</v>
       </c>
@@ -8685,7 +8682,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>17</v>
       </c>
@@ -8738,7 +8735,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>17</v>
       </c>
@@ -8791,7 +8788,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>17</v>
       </c>
@@ -8844,7 +8841,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>17</v>
       </c>
@@ -8897,7 +8894,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>17</v>
       </c>
@@ -8950,7 +8947,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="129" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>29</v>
       </c>
@@ -9003,7 +9000,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="130" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>29</v>
       </c>
@@ -9056,7 +9053,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>17</v>
       </c>
@@ -9162,7 +9159,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>29</v>
       </c>
@@ -9215,7 +9212,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>17</v>
       </c>
@@ -9268,7 +9265,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>29</v>
       </c>
@@ -9321,7 +9318,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>29</v>
       </c>
@@ -9374,7 +9371,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="137" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>29</v>
       </c>
@@ -9480,7 +9477,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>29</v>
       </c>
@@ -9533,7 +9530,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="140" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>29</v>
       </c>
@@ -9586,7 +9583,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>29</v>
       </c>
@@ -9692,7 +9689,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="143" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>17</v>
       </c>
@@ -9745,7 +9742,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>17</v>
       </c>
@@ -9792,7 +9789,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="145" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>17</v>
       </c>
@@ -9845,7 +9842,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="146" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>29</v>
       </c>
@@ -9898,7 +9895,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>17</v>
       </c>
@@ -9951,7 +9948,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>17</v>
       </c>
@@ -10004,7 +10001,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="149" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>17</v>
       </c>
@@ -10057,7 +10054,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>17</v>
       </c>
@@ -10110,7 +10107,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="151" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>17</v>
       </c>
@@ -10216,7 +10213,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="153" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>17</v>
       </c>
@@ -10269,7 +10266,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>17</v>
       </c>
@@ -10322,7 +10319,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="155" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>17</v>
       </c>
@@ -10375,7 +10372,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>17</v>
       </c>
@@ -10428,7 +10425,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="157" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>17</v>
       </c>
@@ -10481,7 +10478,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>17</v>
       </c>
@@ -10534,7 +10531,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>29</v>
       </c>
@@ -10587,7 +10584,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="160" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>29</v>
       </c>
@@ -10640,7 +10637,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="161" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>29</v>
       </c>
@@ -10746,7 +10743,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="163" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>29</v>
       </c>
@@ -10799,7 +10796,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="164" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>29</v>
       </c>
@@ -10852,7 +10849,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="165" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>29</v>
       </c>
@@ -10905,7 +10902,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="166" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>17</v>
       </c>
@@ -10958,7 +10955,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="167" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>17</v>
       </c>
@@ -11011,7 +11008,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="168" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>17</v>
       </c>
@@ -11064,7 +11061,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="169" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>29</v>
       </c>
@@ -11117,7 +11114,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="170" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>29</v>
       </c>
@@ -11170,7 +11167,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="171" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>17</v>
       </c>
@@ -11276,7 +11273,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="173" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>29</v>
       </c>
@@ -11329,7 +11326,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>29</v>
       </c>
@@ -11382,7 +11379,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="175" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>29</v>
       </c>
@@ -11435,7 +11432,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>29</v>
       </c>
@@ -11488,7 +11485,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="177" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>29</v>
       </c>
@@ -11541,7 +11538,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>29</v>
       </c>
@@ -11594,7 +11591,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>29</v>
       </c>
@@ -11647,7 +11644,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>29</v>
       </c>
@@ -11700,7 +11697,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="181" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>29</v>
       </c>
@@ -11806,7 +11803,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>17</v>
       </c>
@@ -11859,7 +11856,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>29</v>
       </c>
@@ -11912,7 +11909,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="185" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>29</v>
       </c>
@@ -11965,7 +11962,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="186" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>29</v>
       </c>
@@ -12018,7 +12015,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>17</v>
       </c>
@@ -12071,7 +12068,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="188" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>29</v>
       </c>

--- a/Data/Antechinus_data.xlsx
+++ b/Data/Antechinus_data.xlsx
@@ -2151,8 +2151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3906,7 +3906,7 @@
         <v>25</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>69</v>
@@ -3959,7 +3959,7 @@
         <v>25</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>69</v>
@@ -4012,7 +4012,7 @@
         <v>25</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>69</v>
@@ -4065,7 +4065,7 @@
         <v>25</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>69</v>
@@ -8090,7 +8090,7 @@
         <v>25</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="P112" s="1" t="s">
         <v>69</v>

--- a/Data/Antechinus_data.xlsx
+++ b/Data/Antechinus_data.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2673" uniqueCount="577">
   <si>
     <t>Species</t>
   </si>
@@ -2151,8 +2151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="N61" sqref="N61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2169,7 +2169,7 @@
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="107.21875" bestFit="1" customWidth="1"/>
@@ -4112,7 +4112,7 @@
         <v>25</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>69</v>
@@ -4165,10 +4165,10 @@
         <v>25</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>69</v>
+        <v>576</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>69</v>
+        <v>576</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>69</v>
@@ -4218,7 +4218,7 @@
         <v>25</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O39" s="1" t="s">
         <v>69</v>
@@ -4271,7 +4271,7 @@
         <v>25</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>69</v>
@@ -4324,7 +4324,7 @@
         <v>25</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O41" s="1" t="s">
         <v>69</v>
@@ -4430,7 +4430,7 @@
         <v>25</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>69</v>
@@ -4483,7 +4483,7 @@
         <v>25</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>69</v>
@@ -4536,7 +4536,7 @@
         <v>25</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>69</v>
@@ -4589,7 +4589,7 @@
         <v>25</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O46" s="1" t="s">
         <v>69</v>
@@ -4642,7 +4642,7 @@
         <v>25</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O47" s="1" t="s">
         <v>69</v>
@@ -4695,7 +4695,7 @@
         <v>25</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O48" s="1" t="s">
         <v>69</v>
@@ -4748,7 +4748,7 @@
         <v>25</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O49" s="1" t="s">
         <v>69</v>
@@ -4801,7 +4801,7 @@
         <v>25</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O50" s="1" t="s">
         <v>69</v>
@@ -4854,7 +4854,7 @@
         <v>25</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O51" s="1" t="s">
         <v>69</v>
@@ -4907,7 +4907,7 @@
         <v>25</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O52" s="1" t="s">
         <v>69</v>
@@ -4960,7 +4960,7 @@
         <v>25</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O53" s="1" t="s">
         <v>69</v>
@@ -5013,7 +5013,7 @@
         <v>25</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O54" s="1" t="s">
         <v>69</v>
@@ -5066,7 +5066,7 @@
         <v>25</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O55" s="1" t="s">
         <v>69</v>
@@ -5119,7 +5119,7 @@
         <v>25</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O56" s="1" t="s">
         <v>69</v>
@@ -5172,7 +5172,7 @@
         <v>25</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O57" s="1" t="s">
         <v>69</v>
@@ -5225,7 +5225,7 @@
         <v>25</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O58" s="1" t="s">
         <v>69</v>
@@ -5278,7 +5278,7 @@
         <v>25</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O59" s="1" t="s">
         <v>69</v>
@@ -5331,7 +5331,7 @@
         <v>25</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O60" s="1" t="s">
         <v>69</v>

--- a/Data/Antechinus_data.xlsx
+++ b/Data/Antechinus_data.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2673" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="577">
   <si>
     <t>Species</t>
   </si>
@@ -1850,7 +1850,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Antechinus_data" displayName="Antechinus_data" ref="A1:Q188" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:Q188"/>
+  <autoFilter ref="A1:Q188">
+    <filterColumn colId="13">
+      <filters>
+        <filter val="ok"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="17">
     <tableColumn id="35" uniqueName="35" name="Species" queryTableFieldId="1"/>
     <tableColumn id="36" uniqueName="36" name="Collection" queryTableFieldId="2"/>
@@ -2151,8 +2157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="N61" sqref="N61"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="N83" sqref="N83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2169,7 +2175,7 @@
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.21875" customWidth="1"/>
     <col min="15" max="15" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="107.21875" bestFit="1" customWidth="1"/>
@@ -4124,7 +4130,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
@@ -5384,7 +5390,7 @@
         <v>25</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O61" s="1" t="s">
         <v>69</v>
@@ -5490,7 +5496,7 @@
         <v>25</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O63" s="1" t="s">
         <v>69</v>
@@ -5543,7 +5549,7 @@
         <v>25</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O64" s="1" t="s">
         <v>69</v>
@@ -5596,7 +5602,7 @@
         <v>25</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O65" s="1" t="s">
         <v>69</v>
@@ -5649,7 +5655,7 @@
         <v>25</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O66" s="1" t="s">
         <v>69</v>
@@ -5702,7 +5708,7 @@
         <v>25</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O67" s="1" t="s">
         <v>69</v>
@@ -5755,7 +5761,7 @@
         <v>25</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O68" s="1" t="s">
         <v>69</v>
@@ -5808,7 +5814,7 @@
         <v>25</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O69" s="1" t="s">
         <v>69</v>
@@ -5861,7 +5867,7 @@
         <v>25</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O70" s="1" t="s">
         <v>69</v>
@@ -5914,7 +5920,7 @@
         <v>25</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O71" s="1" t="s">
         <v>69</v>
@@ -6020,7 +6026,7 @@
         <v>25</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O73" s="1" t="s">
         <v>69</v>
@@ -6073,7 +6079,7 @@
         <v>25</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O74" s="1" t="s">
         <v>69</v>
@@ -6179,7 +6185,7 @@
         <v>25</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O76" s="1" t="s">
         <v>69</v>
@@ -6232,7 +6238,7 @@
         <v>25</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O77" s="1" t="s">
         <v>69</v>
@@ -6285,7 +6291,7 @@
         <v>25</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O78" s="1" t="s">
         <v>69</v>
@@ -6338,7 +6344,7 @@
         <v>25</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O79" s="1" t="s">
         <v>69</v>
@@ -6391,7 +6397,7 @@
         <v>25</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O80" s="1" t="s">
         <v>69</v>
@@ -6444,7 +6450,7 @@
         <v>25</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O81" s="1" t="s">
         <v>69</v>
@@ -6456,7 +6462,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>29</v>
       </c>
@@ -6497,7 +6503,7 @@
         <v>25</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>25</v>
+        <v>576</v>
       </c>
       <c r="O82" s="1" t="s">
         <v>576</v>
@@ -6550,7 +6556,7 @@
         <v>25</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O83" s="1" t="s">
         <v>69</v>
@@ -6603,7 +6609,7 @@
         <v>25</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O84" s="1" t="s">
         <v>69</v>
@@ -6656,7 +6662,7 @@
         <v>25</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O85" s="1" t="s">
         <v>69</v>
@@ -6709,7 +6715,7 @@
         <v>25</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O86" s="1" t="s">
         <v>69</v>
@@ -6762,7 +6768,7 @@
         <v>25</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O87" s="1" t="s">
         <v>69</v>
@@ -6815,7 +6821,7 @@
         <v>25</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O88" s="1" t="s">
         <v>69</v>
@@ -6868,7 +6874,7 @@
         <v>25</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O89" s="1" t="s">
         <v>69</v>
@@ -6921,7 +6927,7 @@
         <v>25</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O90" s="1" t="s">
         <v>69</v>
@@ -6974,7 +6980,7 @@
         <v>25</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O91" s="1" t="s">
         <v>69</v>
@@ -7080,7 +7086,7 @@
         <v>25</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O93" s="1" t="s">
         <v>69</v>
@@ -7133,7 +7139,7 @@
         <v>25</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O94" s="1" t="s">
         <v>69</v>
@@ -7186,7 +7192,7 @@
         <v>25</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O95" s="1" t="s">
         <v>69</v>
@@ -7239,7 +7245,7 @@
         <v>25</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O96" s="1" t="s">
         <v>69</v>
@@ -7292,7 +7298,7 @@
         <v>25</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O97" s="1" t="s">
         <v>69</v>
@@ -7345,7 +7351,7 @@
         <v>25</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O98" s="1" t="s">
         <v>69</v>
@@ -7398,7 +7404,7 @@
         <v>25</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O99" s="1" t="s">
         <v>69</v>
@@ -7451,7 +7457,7 @@
         <v>25</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O100" s="1" t="s">
         <v>69</v>
@@ -7504,7 +7510,7 @@
         <v>25</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O101" s="1" t="s">
         <v>69</v>
@@ -7610,7 +7616,7 @@
         <v>25</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O103" s="1" t="s">
         <v>69</v>
@@ -7663,7 +7669,7 @@
         <v>25</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O104" s="1" t="s">
         <v>69</v>
@@ -7716,7 +7722,7 @@
         <v>25</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O105" s="1" t="s">
         <v>69</v>
@@ -7769,7 +7775,7 @@
         <v>25</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O106" s="1" t="s">
         <v>69</v>
@@ -7822,7 +7828,7 @@
         <v>25</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O107" s="1" t="s">
         <v>69</v>
@@ -7875,7 +7881,7 @@
         <v>25</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O108" s="1" t="s">
         <v>69</v>
@@ -7928,7 +7934,7 @@
         <v>25</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O109" s="1" t="s">
         <v>69</v>
@@ -7981,7 +7987,7 @@
         <v>25</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O110" s="1" t="s">
         <v>69</v>
@@ -8034,7 +8040,7 @@
         <v>25</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="O111" s="1" t="s">
         <v>69</v>
@@ -8099,7 +8105,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>29</v>
       </c>
@@ -8152,7 +8158,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>17</v>
       </c>
@@ -8205,7 +8211,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>17</v>
       </c>
@@ -8258,7 +8264,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>17</v>
       </c>
@@ -8311,7 +8317,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>17</v>
       </c>
@@ -8364,7 +8370,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>17</v>
       </c>
@@ -8417,7 +8423,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>17</v>
       </c>
@@ -8470,7 +8476,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>29</v>
       </c>
@@ -8523,7 +8529,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>17</v>
       </c>
@@ -8629,7 +8635,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>17</v>
       </c>
@@ -8682,7 +8688,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>17</v>
       </c>
@@ -8735,7 +8741,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>17</v>
       </c>
@@ -8788,7 +8794,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>17</v>
       </c>
@@ -8841,7 +8847,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>17</v>
       </c>
@@ -8894,7 +8900,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>17</v>
       </c>
@@ -8947,7 +8953,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>29</v>
       </c>
@@ -9000,7 +9006,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>29</v>
       </c>
@@ -9053,7 +9059,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>17</v>
       </c>
@@ -9159,7 +9165,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>29</v>
       </c>
@@ -9212,7 +9218,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>17</v>
       </c>
@@ -9265,7 +9271,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>29</v>
       </c>
@@ -9318,7 +9324,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>29</v>
       </c>
@@ -9371,7 +9377,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>29</v>
       </c>
@@ -9477,7 +9483,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>29</v>
       </c>
@@ -9530,7 +9536,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>29</v>
       </c>
@@ -9583,7 +9589,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>29</v>
       </c>
@@ -9689,7 +9695,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>17</v>
       </c>
@@ -9742,7 +9748,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>17</v>
       </c>
@@ -9789,7 +9795,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>17</v>
       </c>
@@ -9842,7 +9848,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>29</v>
       </c>
@@ -9895,7 +9901,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>17</v>
       </c>
@@ -9948,7 +9954,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>17</v>
       </c>
@@ -10001,7 +10007,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>17</v>
       </c>
@@ -10054,7 +10060,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>17</v>
       </c>
@@ -10107,7 +10113,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>17</v>
       </c>
@@ -10213,7 +10219,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>17</v>
       </c>
@@ -10266,7 +10272,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>17</v>
       </c>
@@ -10319,7 +10325,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>17</v>
       </c>
@@ -10372,7 +10378,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>17</v>
       </c>
@@ -10425,7 +10431,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>17</v>
       </c>
@@ -10478,7 +10484,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>17</v>
       </c>
@@ -10531,7 +10537,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>29</v>
       </c>
@@ -10584,7 +10590,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>29</v>
       </c>
@@ -10637,7 +10643,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>29</v>
       </c>
@@ -10743,7 +10749,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>29</v>
       </c>
@@ -10796,7 +10802,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>29</v>
       </c>
@@ -10849,7 +10855,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>29</v>
       </c>
@@ -10902,7 +10908,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>17</v>
       </c>
@@ -10955,7 +10961,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>17</v>
       </c>
@@ -11008,7 +11014,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>17</v>
       </c>
@@ -11061,7 +11067,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>29</v>
       </c>
@@ -11114,7 +11120,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>29</v>
       </c>
@@ -11167,7 +11173,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>17</v>
       </c>
@@ -11273,7 +11279,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>29</v>
       </c>
@@ -11326,7 +11332,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>29</v>
       </c>
@@ -11379,7 +11385,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>29</v>
       </c>
@@ -11432,7 +11438,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>29</v>
       </c>
@@ -11485,7 +11491,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>29</v>
       </c>
@@ -11538,7 +11544,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>29</v>
       </c>
@@ -11591,7 +11597,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>29</v>
       </c>
@@ -11644,7 +11650,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>29</v>
       </c>
@@ -11697,7 +11703,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>29</v>
       </c>
@@ -11803,7 +11809,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>17</v>
       </c>
@@ -11856,7 +11862,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>29</v>
       </c>
@@ -11909,7 +11915,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>29</v>
       </c>
@@ -11962,7 +11968,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>29</v>
       </c>
@@ -12015,7 +12021,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>17</v>
       </c>
@@ -12068,7 +12074,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>29</v>
       </c>

--- a/Data/Antechinus_data.xlsx
+++ b/Data/Antechinus_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="465">
   <si>
     <t>Species</t>
   </si>
@@ -2227,8 +2227,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4519,7 +4520,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -4562,11 +4563,14 @@
       <c r="N48" t="s">
         <v>24</v>
       </c>
+      <c r="O48" t="s">
+        <v>24</v>
+      </c>
       <c r="Q48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -4609,11 +4613,14 @@
       <c r="N49" t="s">
         <v>24</v>
       </c>
+      <c r="O49" t="s">
+        <v>24</v>
+      </c>
       <c r="Q49" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -4656,8 +4663,11 @@
       <c r="N50" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -4698,6 +4708,9 @@
         <v>24</v>
       </c>
       <c r="N51" t="s">
+        <v>24</v>
+      </c>
+      <c r="O51" t="s">
         <v>24</v>
       </c>
       <c r="Q51" t="s">

--- a/Data/Antechinus_data.xlsx
+++ b/Data/Antechinus_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="465">
   <si>
     <t>Species</t>
   </si>
@@ -2224,12 +2224,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O52" sqref="O52"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3938,7 +3937,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -4026,7 +4025,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -4717,7 +4716,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>27</v>
       </c>
@@ -4760,11 +4759,14 @@
       <c r="N52" t="s">
         <v>24</v>
       </c>
+      <c r="O52" t="s">
+        <v>24</v>
+      </c>
       <c r="Q52" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>27</v>
       </c>
@@ -4807,8 +4809,11 @@
       <c r="N53" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>27</v>
       </c>
@@ -4851,11 +4856,14 @@
       <c r="N54" t="s">
         <v>24</v>
       </c>
+      <c r="O54" t="s">
+        <v>24</v>
+      </c>
       <c r="Q54" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>27</v>
       </c>
@@ -4898,11 +4906,14 @@
       <c r="N55" t="s">
         <v>24</v>
       </c>
+      <c r="O55" t="s">
+        <v>24</v>
+      </c>
       <c r="Q55" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>27</v>
       </c>
@@ -4945,8 +4956,11 @@
       <c r="N56" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O56" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -4989,11 +5003,14 @@
       <c r="N57" t="s">
         <v>24</v>
       </c>
+      <c r="O57" t="s">
+        <v>24</v>
+      </c>
       <c r="Q57" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>27</v>
       </c>
@@ -5036,11 +5053,14 @@
       <c r="N58" t="s">
         <v>24</v>
       </c>
+      <c r="O58" t="s">
+        <v>24</v>
+      </c>
       <c r="Q58" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -5083,8 +5103,11 @@
       <c r="N59" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O59" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -5127,8 +5150,11 @@
       <c r="N60" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -5225,7 +5251,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -5272,7 +5298,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -5319,7 +5345,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -5366,7 +5392,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -5413,7 +5439,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -5460,7 +5486,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -5507,7 +5533,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -5554,7 +5580,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -5601,7 +5627,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -5701,7 +5727,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -5748,7 +5774,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>27</v>
       </c>
@@ -5848,7 +5874,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -5895,7 +5921,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>17</v>
       </c>
@@ -5942,7 +5968,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>27</v>
       </c>
@@ -5992,7 +6018,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>27</v>
       </c>
@@ -6042,7 +6068,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>27</v>
       </c>
@@ -6086,7 +6112,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>27</v>
       </c>
@@ -6133,7 +6159,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>27</v>
       </c>
@@ -6183,7 +6209,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -6227,7 +6253,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -6271,7 +6297,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -6315,7 +6341,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>17</v>
       </c>
@@ -6359,7 +6385,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -6403,7 +6429,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>17</v>
       </c>
@@ -6447,7 +6473,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>17</v>
       </c>
@@ -6494,7 +6520,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>17</v>
       </c>
@@ -6538,7 +6564,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>17</v>
       </c>
@@ -6629,7 +6655,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>17</v>
       </c>
@@ -6673,7 +6699,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>17</v>
       </c>
@@ -6717,7 +6743,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>17</v>
       </c>
@@ -6761,7 +6787,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>17</v>
       </c>
@@ -6805,7 +6831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>17</v>
       </c>
@@ -6849,7 +6875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>27</v>
       </c>
@@ -6896,7 +6922,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>27</v>
       </c>
@@ -6940,7 +6966,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>17</v>
       </c>
@@ -6984,7 +7010,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -7078,7 +7104,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>17</v>
       </c>
@@ -7122,7 +7148,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -7166,7 +7192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>17</v>
       </c>
@@ -7210,7 +7236,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>17</v>
       </c>
@@ -7254,7 +7280,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -7298,7 +7324,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -7342,7 +7368,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -7389,7 +7415,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -7436,7 +7462,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -7533,7 +7559,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>27</v>
       </c>
@@ -7580,7 +7606,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>17</v>
       </c>
@@ -7621,7 +7647,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>17</v>
       </c>
@@ -7662,7 +7688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>17</v>
       </c>
@@ -7706,7 +7732,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>17</v>
       </c>
@@ -7750,7 +7776,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -7794,7 +7820,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>17</v>
       </c>
@@ -7838,7 +7864,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>27</v>
       </c>
@@ -7882,7 +7908,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>17</v>
       </c>
@@ -7970,7 +7996,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>17</v>
       </c>
@@ -8014,7 +8040,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>17</v>
       </c>
@@ -8058,7 +8084,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>17</v>
       </c>
@@ -8099,7 +8125,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>17</v>
       </c>
@@ -8140,7 +8166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>17</v>
       </c>
@@ -8181,7 +8207,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>17</v>
       </c>
@@ -8222,7 +8248,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>27</v>
       </c>
@@ -8266,7 +8292,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="130" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>27</v>
       </c>
@@ -8307,7 +8333,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>17</v>
       </c>
@@ -8395,7 +8421,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>27</v>
       </c>
@@ -8439,7 +8465,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>17</v>
       </c>
@@ -8480,7 +8506,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>27</v>
       </c>
@@ -8524,7 +8550,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>27</v>
       </c>
@@ -8568,7 +8594,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="137" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>27</v>
       </c>
@@ -8662,7 +8688,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>27</v>
       </c>
@@ -8706,7 +8732,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="140" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>27</v>
       </c>
@@ -8750,7 +8776,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>27</v>
       </c>
@@ -8844,7 +8870,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="143" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -8885,7 +8911,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -8920,7 +8946,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="145" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -8961,7 +8987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>27</v>
       </c>
@@ -9005,7 +9031,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>17</v>
       </c>
@@ -9049,7 +9075,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>17</v>
       </c>
@@ -9093,7 +9119,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="149" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>17</v>
       </c>
@@ -9134,7 +9160,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>17</v>
       </c>
@@ -9175,7 +9201,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>17</v>
       </c>
@@ -9263,7 +9289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>17</v>
       </c>
@@ -9304,7 +9330,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>17</v>
       </c>
@@ -9345,7 +9371,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>17</v>
       </c>
@@ -9386,7 +9412,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>17</v>
       </c>
@@ -9427,7 +9453,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>17</v>
       </c>
@@ -9468,7 +9494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>17</v>
       </c>
@@ -9509,7 +9535,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>27</v>
       </c>
@@ -9550,7 +9576,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>27</v>
       </c>
@@ -9591,7 +9617,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>27</v>
       </c>
@@ -9679,7 +9705,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>27</v>
       </c>
@@ -9723,7 +9749,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="164" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>27</v>
       </c>
@@ -9767,7 +9793,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="165" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>27</v>
       </c>
@@ -9808,7 +9834,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>17</v>
       </c>
@@ -9849,7 +9875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>17</v>
       </c>
@@ -9890,7 +9916,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>17</v>
       </c>
@@ -9934,7 +9960,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="169" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>27</v>
       </c>
@@ -9975,7 +10001,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>27</v>
       </c>
@@ -10016,7 +10042,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>17</v>
       </c>
@@ -10107,7 +10133,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="173" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>27</v>
       </c>
@@ -10148,7 +10174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>27</v>
       </c>
@@ -10189,7 +10215,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="175" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>27</v>
       </c>
@@ -10230,7 +10256,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>27</v>
       </c>
@@ -10274,7 +10300,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="177" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>27</v>
       </c>
@@ -10318,7 +10344,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>27</v>
       </c>
@@ -10359,7 +10385,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>27</v>
       </c>
@@ -10400,7 +10426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>27</v>
       </c>
@@ -10444,7 +10470,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="181" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>27</v>
       </c>
@@ -10538,7 +10564,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>17</v>
       </c>
@@ -10579,7 +10605,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>27</v>
       </c>
@@ -10620,7 +10646,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="185" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>27</v>
       </c>
@@ -10661,7 +10687,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="186" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>27</v>
       </c>
@@ -10702,7 +10728,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>17</v>
       </c>
@@ -10743,7 +10769,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="188" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>27</v>
       </c>
@@ -10779,13 +10805,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q188">
-    <filterColumn colId="14">
-      <filters>
-        <filter val="ok"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q188"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Antechinus_data.xlsx
+++ b/Data/Antechinus_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="465">
   <si>
     <t>Species</t>
   </si>
@@ -2227,8 +2227,8 @@
   <dimension ref="A1:Q188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O61" sqref="O61"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O66" sqref="O66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5197,6 +5197,9 @@
       <c r="N61" t="s">
         <v>24</v>
       </c>
+      <c r="O61" t="s">
+        <v>24</v>
+      </c>
       <c r="Q61" t="s">
         <v>169</v>
       </c>
@@ -5294,6 +5297,9 @@
       <c r="N63" t="s">
         <v>24</v>
       </c>
+      <c r="O63" t="s">
+        <v>24</v>
+      </c>
       <c r="Q63" t="s">
         <v>173</v>
       </c>
@@ -5341,6 +5347,9 @@
       <c r="N64" t="s">
         <v>24</v>
       </c>
+      <c r="O64" t="s">
+        <v>24</v>
+      </c>
       <c r="Q64" t="s">
         <v>177</v>
       </c>
@@ -5386,6 +5395,9 @@
         <v>24</v>
       </c>
       <c r="N65" t="s">
+        <v>24</v>
+      </c>
+      <c r="O65" t="s">
         <v>24</v>
       </c>
       <c r="Q65" t="s">

--- a/Data/Antechinus_data.xlsx
+++ b/Data/Antechinus_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="465">
   <si>
     <t>Species</t>
   </si>
@@ -2227,8 +2227,8 @@
   <dimension ref="A1:Q188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O66" sqref="O66"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P77" sqref="P77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5447,6 +5447,9 @@
       <c r="N66" t="s">
         <v>24</v>
       </c>
+      <c r="O66" t="s">
+        <v>24</v>
+      </c>
       <c r="Q66" t="s">
         <v>184</v>
       </c>
@@ -5494,6 +5497,9 @@
       <c r="N67" t="s">
         <v>24</v>
       </c>
+      <c r="O67" t="s">
+        <v>24</v>
+      </c>
       <c r="Q67" t="s">
         <v>188</v>
       </c>
@@ -5541,6 +5547,9 @@
       <c r="N68" t="s">
         <v>24</v>
       </c>
+      <c r="O68" t="s">
+        <v>24</v>
+      </c>
       <c r="Q68" t="s">
         <v>191</v>
       </c>
@@ -5588,6 +5597,9 @@
       <c r="N69" t="s">
         <v>24</v>
       </c>
+      <c r="O69" t="s">
+        <v>24</v>
+      </c>
       <c r="Q69" t="s">
         <v>193</v>
       </c>
@@ -5635,6 +5647,9 @@
       <c r="N70" t="s">
         <v>24</v>
       </c>
+      <c r="O70" t="s">
+        <v>24</v>
+      </c>
       <c r="Q70" t="s">
         <v>196</v>
       </c>
@@ -5682,6 +5697,9 @@
       <c r="N71" t="s">
         <v>24</v>
       </c>
+      <c r="O71" t="s">
+        <v>24</v>
+      </c>
       <c r="Q71" t="s">
         <v>198</v>
       </c>
@@ -5782,6 +5800,9 @@
       <c r="N73" t="s">
         <v>24</v>
       </c>
+      <c r="O73" t="s">
+        <v>24</v>
+      </c>
       <c r="Q73" t="s">
         <v>205</v>
       </c>
@@ -5829,6 +5850,9 @@
       <c r="N74" t="s">
         <v>24</v>
       </c>
+      <c r="O74" t="s">
+        <v>24</v>
+      </c>
       <c r="P74" t="s">
         <v>201</v>
       </c>
@@ -5929,6 +5953,9 @@
       <c r="N76" t="s">
         <v>24</v>
       </c>
+      <c r="O76" t="s">
+        <v>24</v>
+      </c>
       <c r="Q76" t="s">
         <v>211</v>
       </c>
@@ -5974,6 +6001,9 @@
         <v>24</v>
       </c>
       <c r="N77" t="s">
+        <v>24</v>
+      </c>
+      <c r="O77" t="s">
         <v>24</v>
       </c>
       <c r="Q77" t="s">

--- a/Data/Antechinus_data.xlsx
+++ b/Data/Antechinus_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="465">
   <si>
     <t>Species</t>
   </si>
@@ -2227,8 +2227,8 @@
   <dimension ref="A1:Q188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P77" sqref="P77"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J152" sqref="J152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6053,6 +6053,9 @@
       <c r="N78" t="s">
         <v>24</v>
       </c>
+      <c r="O78" t="s">
+        <v>24</v>
+      </c>
       <c r="P78" t="s">
         <v>201</v>
       </c>
@@ -6103,6 +6106,9 @@
       <c r="N79" t="s">
         <v>24</v>
       </c>
+      <c r="O79" t="s">
+        <v>24</v>
+      </c>
       <c r="P79" t="s">
         <v>201</v>
       </c>
@@ -6153,6 +6159,9 @@
       <c r="N80" t="s">
         <v>24</v>
       </c>
+      <c r="O80" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
@@ -6197,6 +6206,9 @@
       <c r="N81" t="s">
         <v>24</v>
       </c>
+      <c r="O81" t="s">
+        <v>24</v>
+      </c>
       <c r="P81" t="s">
         <v>201</v>
       </c>
@@ -6292,6 +6304,9 @@
         <v>24</v>
       </c>
       <c r="N83" t="s">
+        <v>24</v>
+      </c>
+      <c r="O83" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Data/Antechinus_data.xlsx
+++ b/Data/Antechinus_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="465">
   <si>
     <t>Species</t>
   </si>
@@ -2227,8 +2227,8 @@
   <dimension ref="A1:Q188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J152" sqref="J152"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O95" sqref="O95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6353,6 +6353,9 @@
       <c r="N84" t="s">
         <v>24</v>
       </c>
+      <c r="O84" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
@@ -6397,6 +6400,9 @@
       <c r="N85" t="s">
         <v>24</v>
       </c>
+      <c r="O85" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
@@ -6441,6 +6447,9 @@
       <c r="N86" t="s">
         <v>24</v>
       </c>
+      <c r="O86" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
@@ -6485,6 +6494,9 @@
       <c r="N87" t="s">
         <v>24</v>
       </c>
+      <c r="O87" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
@@ -6529,6 +6541,9 @@
       <c r="N88" t="s">
         <v>24</v>
       </c>
+      <c r="O88" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
@@ -6573,6 +6588,9 @@
       <c r="N89" t="s">
         <v>24</v>
       </c>
+      <c r="O89" t="s">
+        <v>24</v>
+      </c>
       <c r="Q89" t="s">
         <v>253</v>
       </c>
@@ -6620,6 +6638,9 @@
       <c r="N90" t="s">
         <v>24</v>
       </c>
+      <c r="O90" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
@@ -6664,6 +6685,9 @@
       <c r="N91" t="s">
         <v>24</v>
       </c>
+      <c r="O91" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
@@ -6755,6 +6779,9 @@
       <c r="N93" t="s">
         <v>24</v>
       </c>
+      <c r="O93" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
@@ -6797,6 +6824,9 @@
         <v>24</v>
       </c>
       <c r="N94" t="s">
+        <v>24</v>
+      </c>
+      <c r="O94" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Data/Antechinus_data.xlsx
+++ b/Data/Antechinus_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="465">
   <si>
     <t>Species</t>
   </si>
@@ -2227,8 +2227,8 @@
   <dimension ref="A1:Q188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O95" sqref="O95"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O105" sqref="O105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6873,6 +6873,9 @@
       <c r="N95" t="s">
         <v>24</v>
       </c>
+      <c r="O95" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
@@ -6917,6 +6920,9 @@
       <c r="N96" t="s">
         <v>24</v>
       </c>
+      <c r="O96" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
@@ -6961,6 +6967,9 @@
       <c r="N97" t="s">
         <v>24</v>
       </c>
+      <c r="O97" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
@@ -7005,6 +7014,9 @@
       <c r="N98" t="s">
         <v>24</v>
       </c>
+      <c r="O98" t="s">
+        <v>24</v>
+      </c>
       <c r="Q98" t="s">
         <v>275</v>
       </c>
@@ -7052,6 +7064,9 @@
       <c r="N99" t="s">
         <v>24</v>
       </c>
+      <c r="O99" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
@@ -7096,6 +7111,9 @@
       <c r="N100" t="s">
         <v>24</v>
       </c>
+      <c r="O100" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
@@ -7140,6 +7158,9 @@
       <c r="N101" t="s">
         <v>24</v>
       </c>
+      <c r="O101" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
@@ -7234,6 +7255,9 @@
       <c r="N103" t="s">
         <v>24</v>
       </c>
+      <c r="O103" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
@@ -7276,6 +7300,9 @@
         <v>24</v>
       </c>
       <c r="N104" t="s">
+        <v>24</v>
+      </c>
+      <c r="O104" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Data/Antechinus_data.xlsx
+++ b/Data/Antechinus_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pietro\Antechinus_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pietro\Desktop\Pietro\Projects\Viacavaetal_Antechinus\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2264" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2406" uniqueCount="478">
   <si>
     <t>Species</t>
   </si>
@@ -2267,32 +2267,32 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1:P1048576"/>
+      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="87.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38.42578125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="116.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="87.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.44140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="22.44140625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="116.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2348,8 +2348,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
@@ -2395,8 +2398,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="s">
@@ -2442,7 +2448,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2498,7 +2504,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2551,7 +2557,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2604,7 +2610,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2657,7 +2663,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -2698,7 +2704,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2748,7 +2754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2798,7 +2804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2851,7 +2857,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -2901,7 +2907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2954,7 +2960,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -3004,7 +3010,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -3054,7 +3060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -3104,7 +3110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -3154,7 +3160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3204,7 +3210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -3254,7 +3260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -3304,7 +3310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -3354,7 +3360,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -3404,7 +3410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -3457,7 +3463,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -3510,7 +3516,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -3563,7 +3569,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3616,7 +3622,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3666,7 +3672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3719,7 +3725,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3769,7 +3775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -3819,7 +3825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -3869,7 +3875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -3919,7 +3925,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -3972,7 +3978,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -4025,7 +4031,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -4078,7 +4084,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -4128,7 +4134,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -4169,7 +4175,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -4222,7 +4228,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -4275,7 +4281,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -4328,7 +4334,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -4381,7 +4387,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -4434,7 +4440,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -4487,7 +4493,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -4540,7 +4546,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -4593,7 +4599,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -4643,7 +4649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -4693,7 +4699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -4746,7 +4752,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -4799,7 +4805,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>26</v>
       </c>
@@ -4849,7 +4855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -4902,7 +4908,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>26</v>
       </c>
@@ -4955,7 +4961,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -5005,7 +5011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -5058,7 +5064,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -5111,7 +5117,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -5161,7 +5167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -5214,7 +5220,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -5267,8 +5273,11 @@
         <v>159</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
         <v>16</v>
       </c>
       <c r="C59" t="s">
@@ -5314,8 +5323,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
         <v>16</v>
       </c>
       <c r="C60" t="s">
@@ -5361,8 +5373,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
         <v>16</v>
       </c>
       <c r="C61" t="s">
@@ -5411,8 +5426,11 @@
         <v>168</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
         <v>16</v>
       </c>
       <c r="C62" t="s">
@@ -5461,8 +5479,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" t="s">
         <v>16</v>
       </c>
       <c r="C63" t="s">
@@ -5511,8 +5532,11 @@
         <v>172</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" t="s">
         <v>16</v>
       </c>
       <c r="C64" t="s">
@@ -5561,8 +5585,11 @@
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
         <v>16</v>
       </c>
       <c r="C65" t="s">
@@ -5614,8 +5641,11 @@
         <v>180</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" t="s">
         <v>16</v>
       </c>
       <c r="C66" t="s">
@@ -5664,8 +5694,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" t="s">
         <v>16</v>
       </c>
       <c r="C67" t="s">
@@ -5714,8 +5747,11 @@
         <v>187</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" t="s">
         <v>16</v>
       </c>
       <c r="C68" t="s">
@@ -5764,8 +5800,11 @@
         <v>190</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" t="s">
         <v>16</v>
       </c>
       <c r="C69" t="s">
@@ -5814,8 +5853,11 @@
         <v>192</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" t="s">
         <v>16</v>
       </c>
       <c r="C70" t="s">
@@ -5867,8 +5909,11 @@
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" t="s">
         <v>16</v>
       </c>
       <c r="C71" t="s">
@@ -5920,7 +5965,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>26</v>
       </c>
@@ -5973,8 +6018,11 @@
         <v>201</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" t="s">
         <v>16</v>
       </c>
       <c r="C73" t="s">
@@ -6026,7 +6074,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>26</v>
       </c>
@@ -6079,8 +6127,11 @@
         <v>206</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" t="s">
         <v>16</v>
       </c>
       <c r="C75" t="s">
@@ -6132,8 +6183,11 @@
         <v>208</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" t="s">
         <v>16</v>
       </c>
       <c r="C76" t="s">
@@ -6182,8 +6236,11 @@
         <v>210</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" t="s">
         <v>16</v>
       </c>
       <c r="C77" t="s">
@@ -6235,7 +6292,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>26</v>
       </c>
@@ -6288,7 +6345,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>26</v>
       </c>
@@ -6344,7 +6401,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -6394,7 +6451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -6447,7 +6504,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -6500,8 +6557,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" t="s">
         <v>16</v>
       </c>
       <c r="C83" t="s">
@@ -6547,8 +6607,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" t="s">
         <v>16</v>
       </c>
       <c r="C84" t="s">
@@ -6594,8 +6657,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" t="s">
         <v>16</v>
       </c>
       <c r="C85" t="s">
@@ -6641,8 +6707,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" t="s">
         <v>16</v>
       </c>
       <c r="C86" t="s">
@@ -6688,8 +6757,11 @@
         <v>106</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" t="s">
         <v>16</v>
       </c>
       <c r="C87" t="s">
@@ -6735,8 +6807,11 @@
         <v>106</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" t="s">
         <v>16</v>
       </c>
       <c r="C88" t="s">
@@ -6782,8 +6857,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" t="s">
         <v>16</v>
       </c>
       <c r="C89" t="s">
@@ -6835,8 +6913,11 @@
         <v>252</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" t="s">
         <v>16</v>
       </c>
       <c r="C90" t="s">
@@ -6885,8 +6966,11 @@
         <v>467</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" t="s">
         <v>16</v>
       </c>
       <c r="C91" t="s">
@@ -6935,8 +7019,11 @@
         <v>467</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" t="s">
         <v>16</v>
       </c>
       <c r="C92" t="s">
@@ -6982,8 +7069,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" t="s">
         <v>16</v>
       </c>
       <c r="C93" t="s">
@@ -7029,8 +7119,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" t="s">
         <v>16</v>
       </c>
       <c r="C94" t="s">
@@ -7079,8 +7172,11 @@
         <v>467</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" t="s">
         <v>16</v>
       </c>
       <c r="C95" t="s">
@@ -7126,8 +7222,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" t="s">
         <v>16</v>
       </c>
       <c r="C96" t="s">
@@ -7173,8 +7272,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" t="s">
         <v>16</v>
       </c>
       <c r="C97" t="s">
@@ -7220,7 +7322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>26</v>
       </c>
@@ -7273,7 +7375,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>26</v>
       </c>
@@ -7323,8 +7425,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" t="s">
         <v>16</v>
       </c>
       <c r="C100" t="s">
@@ -7370,8 +7475,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" t="s">
         <v>16</v>
       </c>
       <c r="C101" t="s">
@@ -7417,8 +7525,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" t="s">
         <v>16</v>
       </c>
       <c r="C102" t="s">
@@ -7467,8 +7578,11 @@
         <v>281</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103" t="s">
         <v>16</v>
       </c>
       <c r="C103" t="s">
@@ -7514,8 +7628,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>16</v>
+      </c>
+      <c r="B104" t="s">
         <v>16</v>
       </c>
       <c r="C104" t="s">
@@ -7561,8 +7678,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105" t="s">
         <v>16</v>
       </c>
       <c r="C105" t="s">
@@ -7608,8 +7728,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106" t="s">
         <v>16</v>
       </c>
       <c r="C106" t="s">
@@ -7655,8 +7778,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107" t="s">
         <v>16</v>
       </c>
       <c r="C107" t="s">
@@ -7702,8 +7828,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" t="s">
         <v>16</v>
       </c>
       <c r="C108" t="s">
@@ -7749,8 +7878,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
+        <v>16</v>
+      </c>
+      <c r="B109" t="s">
         <v>16</v>
       </c>
       <c r="C109" t="s">
@@ -7802,8 +7934,11 @@
         <v>293</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110" t="s">
         <v>16</v>
       </c>
       <c r="C110" t="s">
@@ -7852,8 +7987,11 @@
         <v>297</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
+        <v>16</v>
+      </c>
+      <c r="B111" t="s">
         <v>16</v>
       </c>
       <c r="C111" t="s">
@@ -7902,8 +8040,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112" t="s">
         <v>16</v>
       </c>
       <c r="C112" t="s">
@@ -7955,7 +8096,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>26</v>
       </c>
@@ -8008,8 +8149,11 @@
         <v>305</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>16</v>
+      </c>
+      <c r="B114" t="s">
         <v>16</v>
       </c>
       <c r="C114" t="s">
@@ -8055,8 +8199,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
+        <v>16</v>
+      </c>
+      <c r="B115" t="s">
         <v>16</v>
       </c>
       <c r="C115" t="s">
@@ -8102,8 +8249,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
+        <v>16</v>
+      </c>
+      <c r="B116" t="s">
         <v>16</v>
       </c>
       <c r="C116" t="s">
@@ -8152,8 +8302,11 @@
         <v>281</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
+        <v>16</v>
+      </c>
+      <c r="B117" t="s">
         <v>16</v>
       </c>
       <c r="C117" t="s">
@@ -8202,8 +8355,11 @@
         <v>281</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118" t="s">
         <v>16</v>
       </c>
       <c r="C118" t="s">
@@ -8252,8 +8408,11 @@
         <v>281</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
+        <v>16</v>
+      </c>
+      <c r="B119" t="s">
         <v>16</v>
       </c>
       <c r="C119" t="s">
@@ -8302,7 +8461,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>26</v>
       </c>
@@ -8355,8 +8514,11 @@
         <v>318</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
+        <v>16</v>
+      </c>
+      <c r="B121" t="s">
         <v>16</v>
       </c>
       <c r="C121" t="s">
@@ -8402,8 +8564,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
+        <v>16</v>
+      </c>
+      <c r="B122" t="s">
         <v>16</v>
       </c>
       <c r="C122" t="s">
@@ -8449,8 +8614,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
+        <v>16</v>
+      </c>
+      <c r="B123" t="s">
         <v>16</v>
       </c>
       <c r="C123" t="s">
@@ -8499,8 +8667,11 @@
         <v>325</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
+        <v>16</v>
+      </c>
+      <c r="B124" t="s">
         <v>16</v>
       </c>
       <c r="C124" t="s">
@@ -8549,8 +8720,11 @@
         <v>327</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
+        <v>16</v>
+      </c>
+      <c r="B125" t="s">
         <v>16</v>
       </c>
       <c r="C125" t="s">
@@ -8596,8 +8770,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
+        <v>16</v>
+      </c>
+      <c r="B126" t="s">
         <v>16</v>
       </c>
       <c r="C126" t="s">
@@ -8639,9 +8816,15 @@
       <c r="O126" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P126" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
+        <v>16</v>
+      </c>
+      <c r="B127" t="s">
         <v>16</v>
       </c>
       <c r="C127" t="s">
@@ -8683,9 +8866,15 @@
       <c r="O127" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P127" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
+        <v>16</v>
+      </c>
+      <c r="B128" t="s">
         <v>16</v>
       </c>
       <c r="C128" t="s">
@@ -8727,8 +8916,11 @@
       <c r="O128" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P128" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>26</v>
       </c>
@@ -8774,11 +8966,14 @@
       <c r="O129" t="s">
         <v>23</v>
       </c>
+      <c r="P129" t="s">
+        <v>23</v>
+      </c>
       <c r="R129" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>26</v>
       </c>
@@ -8824,9 +9019,15 @@
       <c r="O130" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P130" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
+        <v>16</v>
+      </c>
+      <c r="B131" t="s">
         <v>16</v>
       </c>
       <c r="C131" t="s">
@@ -8868,9 +9069,15 @@
       <c r="O131" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P131" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
+        <v>16</v>
+      </c>
+      <c r="B132" t="s">
         <v>16</v>
       </c>
       <c r="C132" t="s">
@@ -8916,7 +9123,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>26</v>
       </c>
@@ -8962,6 +9169,9 @@
       <c r="O133" t="s">
         <v>23</v>
       </c>
+      <c r="P133" t="s">
+        <v>23</v>
+      </c>
       <c r="Q133" t="s">
         <v>470</v>
       </c>
@@ -8969,8 +9179,11 @@
         <v>346</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
+        <v>16</v>
+      </c>
+      <c r="B134" t="s">
         <v>16</v>
       </c>
       <c r="C134" t="s">
@@ -9012,8 +9225,11 @@
       <c r="O134" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P134" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>26</v>
       </c>
@@ -9059,11 +9275,14 @@
       <c r="O135" t="s">
         <v>23</v>
       </c>
+      <c r="P135" t="s">
+        <v>23</v>
+      </c>
       <c r="R135" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>26</v>
       </c>
@@ -9109,11 +9328,14 @@
       <c r="O136" t="s">
         <v>23</v>
       </c>
+      <c r="P136" t="s">
+        <v>23</v>
+      </c>
       <c r="R136" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>26</v>
       </c>
@@ -9159,12 +9381,18 @@
       <c r="O137" t="s">
         <v>23</v>
       </c>
+      <c r="P137" t="s">
+        <v>23</v>
+      </c>
       <c r="R137" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
+        <v>16</v>
+      </c>
+      <c r="B138" t="s">
         <v>16</v>
       </c>
       <c r="C138" t="s">
@@ -9213,7 +9441,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>26</v>
       </c>
@@ -9259,6 +9487,9 @@
       <c r="O139" t="s">
         <v>23</v>
       </c>
+      <c r="P139" t="s">
+        <v>23</v>
+      </c>
       <c r="Q139" t="s">
         <v>470</v>
       </c>
@@ -9266,7 +9497,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>26</v>
       </c>
@@ -9312,11 +9543,14 @@
       <c r="O140" t="s">
         <v>23</v>
       </c>
+      <c r="P140" t="s">
+        <v>23</v>
+      </c>
       <c r="R140" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>26</v>
       </c>
@@ -9362,12 +9596,18 @@
       <c r="O141" t="s">
         <v>23</v>
       </c>
+      <c r="P141" t="s">
+        <v>23</v>
+      </c>
       <c r="R141" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
+        <v>16</v>
+      </c>
+      <c r="B142" t="s">
         <v>16</v>
       </c>
       <c r="C142" t="s">
@@ -9416,8 +9656,11 @@
         <v>374</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
+        <v>16</v>
+      </c>
+      <c r="B143" t="s">
         <v>16</v>
       </c>
       <c r="C143" t="s">
@@ -9459,9 +9702,15 @@
       <c r="O143" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P143" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
+        <v>16</v>
+      </c>
+      <c r="B144" t="s">
         <v>16</v>
       </c>
       <c r="C144" t="s">
@@ -9494,6 +9743,9 @@
       <c r="O144" t="s">
         <v>23</v>
       </c>
+      <c r="P144" t="s">
+        <v>23</v>
+      </c>
       <c r="Q144" t="s">
         <v>475</v>
       </c>
@@ -9501,8 +9753,11 @@
         <v>380</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
+        <v>16</v>
+      </c>
+      <c r="B145" t="s">
         <v>16</v>
       </c>
       <c r="C145" t="s">
@@ -9544,8 +9799,11 @@
       <c r="O145" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P145" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>26</v>
       </c>
@@ -9591,12 +9849,18 @@
       <c r="O146" t="s">
         <v>23</v>
       </c>
+      <c r="P146" t="s">
+        <v>23</v>
+      </c>
       <c r="Q146" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
+        <v>16</v>
+      </c>
+      <c r="B147" t="s">
         <v>16</v>
       </c>
       <c r="C147" t="s">
@@ -9638,6 +9902,9 @@
       <c r="O147" t="s">
         <v>23</v>
       </c>
+      <c r="P147" t="s">
+        <v>23</v>
+      </c>
       <c r="Q147" t="s">
         <v>467</v>
       </c>
@@ -9645,8 +9912,11 @@
         <v>387</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
+        <v>16</v>
+      </c>
+      <c r="B148" t="s">
         <v>16</v>
       </c>
       <c r="C148" t="s">
@@ -9688,12 +9958,18 @@
       <c r="O148" t="s">
         <v>23</v>
       </c>
+      <c r="P148" t="s">
+        <v>23</v>
+      </c>
       <c r="R148" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
+        <v>16</v>
+      </c>
+      <c r="B149" t="s">
         <v>16</v>
       </c>
       <c r="C149" t="s">
@@ -9735,9 +10011,15 @@
       <c r="O149" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P149" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
+        <v>16</v>
+      </c>
+      <c r="B150" t="s">
         <v>16</v>
       </c>
       <c r="C150" t="s">
@@ -9779,9 +10061,15 @@
       <c r="O150" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P150" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
+        <v>16</v>
+      </c>
+      <c r="B151" t="s">
         <v>16</v>
       </c>
       <c r="C151" t="s">
@@ -9823,9 +10111,15 @@
       <c r="O151" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P151" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
+        <v>16</v>
+      </c>
+      <c r="B152" t="s">
         <v>16</v>
       </c>
       <c r="C152" t="s">
@@ -9871,8 +10165,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
+        <v>16</v>
+      </c>
+      <c r="B153" t="s">
         <v>16</v>
       </c>
       <c r="C153" t="s">
@@ -9914,9 +10211,15 @@
       <c r="O153" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P153" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
+        <v>16</v>
+      </c>
+      <c r="B154" t="s">
         <v>16</v>
       </c>
       <c r="C154" t="s">
@@ -9958,9 +10261,15 @@
       <c r="O154" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P154" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
+        <v>16</v>
+      </c>
+      <c r="B155" t="s">
         <v>16</v>
       </c>
       <c r="C155" t="s">
@@ -10002,9 +10311,15 @@
       <c r="O155" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P155" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
+        <v>16</v>
+      </c>
+      <c r="B156" t="s">
         <v>16</v>
       </c>
       <c r="C156" t="s">
@@ -10046,9 +10361,15 @@
       <c r="O156" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P156" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
+        <v>16</v>
+      </c>
+      <c r="B157" t="s">
         <v>16</v>
       </c>
       <c r="C157" t="s">
@@ -10090,9 +10411,15 @@
       <c r="O157" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P157" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
+        <v>16</v>
+      </c>
+      <c r="B158" t="s">
         <v>16</v>
       </c>
       <c r="C158" t="s">
@@ -10134,8 +10461,11 @@
       <c r="O158" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P158" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>26</v>
       </c>
@@ -10181,8 +10511,11 @@
       <c r="O159" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P159" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>26</v>
       </c>
@@ -10232,7 +10565,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>26</v>
       </c>
@@ -10282,7 +10615,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>26</v>
       </c>
@@ -10332,7 +10665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>26</v>
       </c>
@@ -10378,11 +10711,14 @@
       <c r="O163" t="s">
         <v>23</v>
       </c>
+      <c r="P163" t="s">
+        <v>23</v>
+      </c>
       <c r="R163" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>26</v>
       </c>
@@ -10428,11 +10764,14 @@
       <c r="O164" t="s">
         <v>23</v>
       </c>
+      <c r="P164" t="s">
+        <v>23</v>
+      </c>
       <c r="R164" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>26</v>
       </c>
@@ -10478,9 +10817,15 @@
       <c r="O165" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P165" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
+        <v>16</v>
+      </c>
+      <c r="B166" t="s">
         <v>16</v>
       </c>
       <c r="C166" t="s">
@@ -10522,12 +10867,18 @@
       <c r="O166" t="s">
         <v>23</v>
       </c>
+      <c r="P166" t="s">
+        <v>23</v>
+      </c>
       <c r="Q166" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
+        <v>16</v>
+      </c>
+      <c r="B167" t="s">
         <v>16</v>
       </c>
       <c r="C167" t="s">
@@ -10569,12 +10920,18 @@
       <c r="O167" t="s">
         <v>23</v>
       </c>
+      <c r="P167" t="s">
+        <v>23</v>
+      </c>
       <c r="Q167" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
+        <v>16</v>
+      </c>
+      <c r="B168" t="s">
         <v>16</v>
       </c>
       <c r="C168" t="s">
@@ -10616,6 +10973,9 @@
       <c r="O168" t="s">
         <v>23</v>
       </c>
+      <c r="P168" t="s">
+        <v>23</v>
+      </c>
       <c r="Q168" t="s">
         <v>467</v>
       </c>
@@ -10623,7 +10983,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>26</v>
       </c>
@@ -10669,8 +11029,11 @@
       <c r="O169" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P169" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>26</v>
       </c>
@@ -10716,9 +11079,15 @@
       <c r="O170" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P170" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
+        <v>16</v>
+      </c>
+      <c r="B171" t="s">
         <v>16</v>
       </c>
       <c r="C171" t="s">
@@ -10760,6 +11129,9 @@
       <c r="O171" t="s">
         <v>23</v>
       </c>
+      <c r="P171" t="s">
+        <v>23</v>
+      </c>
       <c r="Q171" t="s">
         <v>467</v>
       </c>
@@ -10767,8 +11139,11 @@
         <v>427</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
+        <v>16</v>
+      </c>
+      <c r="B172" t="s">
         <v>16</v>
       </c>
       <c r="C172" t="s">
@@ -10817,7 +11192,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>26</v>
       </c>
@@ -10863,8 +11238,11 @@
       <c r="O173" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P173" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>26</v>
       </c>
@@ -10910,8 +11288,11 @@
       <c r="O174" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P174" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>26</v>
       </c>
@@ -10957,8 +11338,11 @@
       <c r="O175" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P175" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>26</v>
       </c>
@@ -11004,11 +11388,14 @@
       <c r="O176" t="s">
         <v>23</v>
       </c>
+      <c r="P176" t="s">
+        <v>23</v>
+      </c>
       <c r="R176" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>26</v>
       </c>
@@ -11054,11 +11441,14 @@
       <c r="O177" t="s">
         <v>23</v>
       </c>
+      <c r="P177" t="s">
+        <v>23</v>
+      </c>
       <c r="R177" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>26</v>
       </c>
@@ -11104,8 +11494,11 @@
       <c r="O178" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P178" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>26</v>
       </c>
@@ -11151,8 +11544,11 @@
       <c r="O179" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P179" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>26</v>
       </c>
@@ -11198,11 +11594,14 @@
       <c r="O180" t="s">
         <v>23</v>
       </c>
+      <c r="P180" t="s">
+        <v>23</v>
+      </c>
       <c r="R180" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>26</v>
       </c>
@@ -11248,6 +11647,9 @@
       <c r="O181" t="s">
         <v>23</v>
       </c>
+      <c r="P181" t="s">
+        <v>23</v>
+      </c>
       <c r="Q181" t="s">
         <v>471</v>
       </c>
@@ -11255,7 +11657,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>26</v>
       </c>
@@ -11311,8 +11713,11 @@
         <v>449</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
+        <v>16</v>
+      </c>
+      <c r="B183" t="s">
         <v>16</v>
       </c>
       <c r="C183" t="s">
@@ -11354,11 +11759,14 @@
       <c r="O183" t="s">
         <v>23</v>
       </c>
+      <c r="P183" t="s">
+        <v>23</v>
+      </c>
       <c r="Q183" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>26</v>
       </c>
@@ -11404,11 +11812,14 @@
       <c r="O184" t="s">
         <v>23</v>
       </c>
+      <c r="P184" t="s">
+        <v>23</v>
+      </c>
       <c r="Q184" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>26</v>
       </c>
@@ -11454,11 +11865,14 @@
       <c r="O185" t="s">
         <v>23</v>
       </c>
+      <c r="P185" t="s">
+        <v>23</v>
+      </c>
       <c r="Q185" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>26</v>
       </c>
@@ -11504,9 +11918,15 @@
       <c r="O186" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P186" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
+        <v>16</v>
+      </c>
+      <c r="B187" t="s">
         <v>16</v>
       </c>
       <c r="C187" t="s">
@@ -11548,8 +11968,11 @@
       <c r="O187" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P187" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>26</v>
       </c>
@@ -11581,6 +12004,9 @@
         <v>23</v>
       </c>
       <c r="O188" t="s">
+        <v>23</v>
+      </c>
+      <c r="P188" t="s">
         <v>23</v>
       </c>
       <c r="Q188" t="s">

--- a/Data/Antechinus_data.xlsx
+++ b/Data/Antechinus_data.xlsx
@@ -2217,8 +2217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="K173" sqref="K173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12017,6 +12017,12 @@
       <c r="G178" t="s">
         <v>49</v>
       </c>
+      <c r="H178">
+        <v>-35.19</v>
+      </c>
+      <c r="I178">
+        <v>149.90899999999999</v>
+      </c>
       <c r="K178" t="s">
         <v>50</v>
       </c>
@@ -12047,7 +12053,7 @@
         <v>30</v>
       </c>
       <c r="B179" t="s">
-        <v>31</v>
+        <v>376</v>
       </c>
       <c r="C179" t="s">
         <v>39</v>
@@ -12160,6 +12166,12 @@
       </c>
       <c r="G181" t="s">
         <v>458</v>
+      </c>
+      <c r="H181">
+        <v>-28.233000000000001</v>
+      </c>
+      <c r="I181">
+        <v>153.25</v>
       </c>
       <c r="K181" t="s">
         <v>459</v>

--- a/Data/Antechinus_data.xlsx
+++ b/Data/Antechinus_data.xlsx
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Antechinus_data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Antechinus_data!$H$1:$H$181</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2513" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2513" uniqueCount="464">
   <si>
     <t>Species</t>
   </si>
@@ -1408,6 +1411,9 @@
   </si>
   <si>
     <t>subtropicus holotype</t>
+  </si>
+  <si>
+    <t>stuartii neotype</t>
   </si>
 </sst>
 </file>
@@ -2217,8 +2223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="K173" sqref="K173"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2530,7 +2536,7 @@
         <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
         <v>46</v>
@@ -2539,22 +2545,19 @@
         <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="H6">
-        <v>-35.183300000000003</v>
+        <v>-35.19</v>
       </c>
       <c r="I6">
-        <v>150.30000000000001</v>
-      </c>
-      <c r="J6">
-        <v>643</v>
+        <v>149.90899999999999</v>
       </c>
       <c r="K6" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="L6" s="1">
-        <v>27228</v>
+        <v>27732</v>
       </c>
       <c r="M6" t="s">
         <v>26</v>
@@ -2572,7 +2575,7 @@
         <v>27</v>
       </c>
       <c r="S6" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -2586,16 +2589,16 @@
         <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H7">
         <v>-35.183300000000003</v>
@@ -2607,7 +2610,7 @@
         <v>643</v>
       </c>
       <c r="K7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="L7" s="1">
         <v>27228</v>
@@ -2628,7 +2631,7 @@
         <v>27</v>
       </c>
       <c r="S7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -2642,16 +2645,16 @@
         <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H8">
         <v>-35.183300000000003</v>
@@ -2663,10 +2666,10 @@
         <v>643</v>
       </c>
       <c r="K8" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="L8" s="1">
-        <v>27227</v>
+        <v>27228</v>
       </c>
       <c r="M8" t="s">
         <v>26</v>
@@ -2684,7 +2687,7 @@
         <v>27</v>
       </c>
       <c r="S8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -2698,31 +2701,31 @@
         <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="H9">
-        <v>-35.166699999999999</v>
+        <v>-35.183300000000003</v>
       </c>
       <c r="I9">
-        <v>150.66669999999999</v>
+        <v>150.30000000000001</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>643</v>
       </c>
       <c r="K9" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="L9" s="1">
-        <v>27474</v>
+        <v>27227</v>
       </c>
       <c r="M9" t="s">
         <v>26</v>
@@ -2740,7 +2743,7 @@
         <v>27</v>
       </c>
       <c r="S9" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -2754,31 +2757,31 @@
         <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="H10">
-        <v>-35.116700000000002</v>
+        <v>-35.166699999999999</v>
       </c>
       <c r="I10">
-        <v>150.33330000000001</v>
+        <v>150.66669999999999</v>
       </c>
       <c r="J10">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="L10" s="1">
-        <v>25606</v>
+        <v>27474</v>
       </c>
       <c r="M10" t="s">
         <v>26</v>
@@ -2796,7 +2799,7 @@
         <v>27</v>
       </c>
       <c r="S10" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -2810,13 +2813,13 @@
         <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
         <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s">
         <v>99</v>
@@ -2850,6 +2853,9 @@
       </c>
       <c r="R11" t="s">
         <v>27</v>
+      </c>
+      <c r="S11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -2863,13 +2869,13 @@
         <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
         <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
         <v>99</v>
@@ -2887,7 +2893,7 @@
         <v>100</v>
       </c>
       <c r="L12" s="1">
-        <v>25607</v>
+        <v>25606</v>
       </c>
       <c r="M12" t="s">
         <v>26</v>
@@ -2903,9 +2909,6 @@
       </c>
       <c r="R12" t="s">
         <v>27</v>
-      </c>
-      <c r="S12" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -2919,13 +2922,13 @@
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s">
         <v>99</v>
@@ -2959,6 +2962,9 @@
       </c>
       <c r="R13" t="s">
         <v>27</v>
+      </c>
+      <c r="S13" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -2972,10 +2978,10 @@
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
         <v>23</v>
@@ -3025,7 +3031,7 @@
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E15" t="s">
         <v>46</v>
@@ -3078,7 +3084,7 @@
         <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
         <v>46</v>
@@ -3087,22 +3093,22 @@
         <v>23</v>
       </c>
       <c r="G16" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="H16">
         <v>-35.116700000000002</v>
       </c>
       <c r="I16">
-        <v>150.35</v>
+        <v>150.33330000000001</v>
       </c>
       <c r="J16">
-        <v>482</v>
+        <v>552</v>
       </c>
       <c r="K16" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="L16" s="1">
-        <v>27185</v>
+        <v>25607</v>
       </c>
       <c r="M16" t="s">
         <v>26</v>
@@ -3118,9 +3124,6 @@
       </c>
       <c r="R16" t="s">
         <v>27</v>
-      </c>
-      <c r="S16" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -3134,31 +3137,31 @@
         <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="H17">
-        <v>-34.9833</v>
+        <v>-35.116700000000002</v>
       </c>
       <c r="I17">
-        <v>150.73330000000001</v>
+        <v>150.35</v>
       </c>
       <c r="J17">
-        <v>20</v>
+        <v>482</v>
       </c>
       <c r="K17" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="L17" s="1">
-        <v>32201</v>
+        <v>27185</v>
       </c>
       <c r="M17" t="s">
         <v>26</v>
@@ -3174,6 +3177,9 @@
       </c>
       <c r="R17" t="s">
         <v>27</v>
+      </c>
+      <c r="S17" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -3187,16 +3193,16 @@
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
         <v>23</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H18">
         <v>-34.9833</v>
@@ -3240,16 +3246,16 @@
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>403</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
         <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>404</v>
+        <v>89</v>
       </c>
       <c r="H19">
         <v>-34.9833</v>
@@ -3264,7 +3270,7 @@
         <v>87</v>
       </c>
       <c r="L19" s="1">
-        <v>32199</v>
+        <v>32201</v>
       </c>
       <c r="M19" t="s">
         <v>26</v>
@@ -3293,31 +3299,31 @@
         <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>403</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
         <v>23</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>404</v>
       </c>
       <c r="H20">
-        <v>-34.791699999999999</v>
+        <v>-34.9833</v>
       </c>
       <c r="I20">
-        <v>148.69999999999999</v>
+        <v>150.73330000000001</v>
       </c>
       <c r="J20">
-        <v>542</v>
+        <v>20</v>
       </c>
       <c r="K20" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="L20" s="1">
-        <v>33710</v>
+        <v>32199</v>
       </c>
       <c r="M20" t="s">
         <v>26</v>
@@ -3346,31 +3352,31 @@
         <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
         <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="G21" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="H21">
-        <v>-34.683300000000003</v>
+        <v>-34.791699999999999</v>
       </c>
       <c r="I21">
-        <v>150.73330000000001</v>
+        <v>148.69999999999999</v>
       </c>
       <c r="J21">
-        <v>595</v>
+        <v>542</v>
       </c>
       <c r="K21" t="s">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="L21" s="1">
-        <v>24153</v>
+        <v>33710</v>
       </c>
       <c r="M21" t="s">
         <v>26</v>
@@ -3386,9 +3392,6 @@
       </c>
       <c r="R21" t="s">
         <v>27</v>
-      </c>
-      <c r="S21" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
@@ -3402,31 +3405,31 @@
         <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E22" t="s">
         <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H22">
-        <v>-34.466700000000003</v>
+        <v>-34.683300000000003</v>
       </c>
       <c r="I22">
-        <v>150.7833</v>
+        <v>150.73330000000001</v>
       </c>
       <c r="J22">
-        <v>32</v>
+        <v>595</v>
       </c>
       <c r="K22" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="L22" s="1">
-        <v>24277</v>
+        <v>24153</v>
       </c>
       <c r="M22" t="s">
         <v>26</v>
@@ -3442,6 +3445,9 @@
       </c>
       <c r="R22" t="s">
         <v>27</v>
+      </c>
+      <c r="S22" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
@@ -3455,13 +3461,13 @@
         <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="G23" t="s">
         <v>148</v>
@@ -3479,7 +3485,7 @@
         <v>74</v>
       </c>
       <c r="L23" s="1">
-        <v>24127</v>
+        <v>24277</v>
       </c>
       <c r="M23" t="s">
         <v>26</v>
@@ -3495,9 +3501,6 @@
       </c>
       <c r="R23" t="s">
         <v>27</v>
-      </c>
-      <c r="S23" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
@@ -3511,31 +3514,31 @@
         <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="G24" t="s">
-        <v>55</v>
+        <v>148</v>
       </c>
       <c r="H24">
-        <v>-34.4</v>
+        <v>-34.466700000000003</v>
       </c>
       <c r="I24">
-        <v>150.48330000000001</v>
+        <v>150.7833</v>
       </c>
       <c r="J24">
-        <v>640</v>
+        <v>32</v>
       </c>
       <c r="K24" t="s">
-        <v>56</v>
-      </c>
-      <c r="L24" t="s">
-        <v>57</v>
+        <v>74</v>
+      </c>
+      <c r="L24" s="1">
+        <v>24127</v>
       </c>
       <c r="M24" t="s">
         <v>26</v>
@@ -3551,6 +3554,9 @@
       </c>
       <c r="R24" t="s">
         <v>27</v>
+      </c>
+      <c r="S24" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
@@ -3564,7 +3570,7 @@
         <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
         <v>54</v>
@@ -3617,10 +3623,10 @@
         <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="F26" t="s">
         <v>23</v>
@@ -3638,7 +3644,7 @@
         <v>640</v>
       </c>
       <c r="K26" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L26" t="s">
         <v>57</v>
@@ -3670,31 +3676,31 @@
         <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="E27" t="s">
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="G27" t="s">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="H27">
         <v>-34.4</v>
       </c>
       <c r="I27">
-        <v>150.8167</v>
+        <v>150.48330000000001</v>
       </c>
       <c r="J27">
-        <v>376</v>
+        <v>640</v>
       </c>
       <c r="K27" t="s">
-        <v>74</v>
-      </c>
-      <c r="L27" s="1">
-        <v>24127</v>
+        <v>71</v>
+      </c>
+      <c r="L27" t="s">
+        <v>57</v>
       </c>
       <c r="M27" t="s">
         <v>26</v>
@@ -3710,9 +3716,6 @@
       </c>
       <c r="R27" t="s">
         <v>27</v>
-      </c>
-      <c r="S27" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
@@ -3726,31 +3729,31 @@
         <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="E28" t="s">
         <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="G28" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="H28">
-        <v>-34.299999999999997</v>
+        <v>-34.4</v>
       </c>
       <c r="I28">
-        <v>149.6833</v>
+        <v>150.8167</v>
       </c>
       <c r="J28">
-        <v>888</v>
+        <v>376</v>
       </c>
       <c r="K28" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L28" s="1">
-        <v>33604</v>
+        <v>24127</v>
       </c>
       <c r="M28" t="s">
         <v>26</v>
@@ -3768,7 +3771,7 @@
         <v>27</v>
       </c>
       <c r="S28" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
@@ -3779,10 +3782,10 @@
         <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>405</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>433</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
         <v>22</v>
@@ -3791,22 +3794,22 @@
         <v>23</v>
       </c>
       <c r="G29" t="s">
-        <v>434</v>
+        <v>67</v>
       </c>
       <c r="H29">
-        <v>-34.133000000000003</v>
+        <v>-34.299999999999997</v>
       </c>
       <c r="I29">
-        <v>151</v>
+        <v>149.6833</v>
       </c>
       <c r="J29">
-        <v>149</v>
+        <v>888</v>
       </c>
       <c r="K29" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="L29" s="1">
-        <v>11908</v>
+        <v>33604</v>
       </c>
       <c r="M29" t="s">
         <v>26</v>
@@ -3824,7 +3827,7 @@
         <v>27</v>
       </c>
       <c r="S29" t="s">
-        <v>435</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
@@ -3832,37 +3835,37 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>463</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>405</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>433</v>
       </c>
       <c r="E30" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="G30" t="s">
-        <v>92</v>
+        <v>434</v>
       </c>
       <c r="H30">
-        <v>-34.1</v>
+        <v>-34.133000000000003</v>
       </c>
       <c r="I30">
-        <v>150.8167</v>
+        <v>151</v>
       </c>
       <c r="J30">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="K30" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="L30" s="1">
-        <v>25592</v>
+        <v>11908</v>
       </c>
       <c r="M30" t="s">
         <v>26</v>
@@ -3880,7 +3883,7 @@
         <v>27</v>
       </c>
       <c r="S30" t="s">
-        <v>93</v>
+        <v>435</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
@@ -3894,7 +3897,7 @@
         <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E31" t="s">
         <v>54</v>
@@ -3950,13 +3953,13 @@
         <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E32" t="s">
         <v>54</v>
       </c>
       <c r="F32" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G32" t="s">
         <v>92</v>
@@ -3992,7 +3995,7 @@
         <v>27</v>
       </c>
       <c r="S32" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
@@ -4003,34 +4006,34 @@
         <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>405</v>
+        <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>436</v>
+        <v>95</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F33" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G33" t="s">
-        <v>437</v>
+        <v>92</v>
       </c>
       <c r="H33">
-        <v>-33.482999999999997</v>
+        <v>-34.1</v>
       </c>
       <c r="I33">
-        <v>150.46700000000001</v>
+        <v>150.8167</v>
       </c>
       <c r="J33">
-        <v>639</v>
+        <v>139</v>
       </c>
       <c r="K33" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="L33" s="1">
-        <v>16246</v>
+        <v>25592</v>
       </c>
       <c r="M33" t="s">
         <v>26</v>
@@ -4048,7 +4051,7 @@
         <v>27</v>
       </c>
       <c r="S33" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
@@ -4062,13 +4065,13 @@
         <v>405</v>
       </c>
       <c r="D34" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E34" t="s">
         <v>46</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s">
         <v>437</v>
@@ -4086,7 +4089,7 @@
         <v>57</v>
       </c>
       <c r="L34" s="1">
-        <v>16249</v>
+        <v>16246</v>
       </c>
       <c r="M34" t="s">
         <v>26</v>
@@ -4102,6 +4105,9 @@
       </c>
       <c r="R34" t="s">
         <v>27</v>
+      </c>
+      <c r="S34" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
@@ -4115,7 +4121,7 @@
         <v>405</v>
       </c>
       <c r="D35" t="s">
-        <v>408</v>
+        <v>438</v>
       </c>
       <c r="E35" t="s">
         <v>46</v>
@@ -4124,22 +4130,22 @@
         <v>23</v>
       </c>
       <c r="G35" t="s">
-        <v>407</v>
+        <v>437</v>
       </c>
       <c r="H35">
-        <v>-33.283000000000001</v>
+        <v>-33.482999999999997</v>
       </c>
       <c r="I35">
-        <v>150.333</v>
+        <v>150.46700000000001</v>
       </c>
       <c r="J35">
-        <v>865</v>
+        <v>639</v>
       </c>
       <c r="K35" t="s">
         <v>57</v>
       </c>
       <c r="L35" s="1">
-        <v>28730</v>
+        <v>16249</v>
       </c>
       <c r="M35" t="s">
         <v>26</v>
@@ -4155,9 +4161,6 @@
       </c>
       <c r="R35" t="s">
         <v>27</v>
-      </c>
-      <c r="S35" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
@@ -4171,7 +4174,7 @@
         <v>405</v>
       </c>
       <c r="D36" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E36" t="s">
         <v>46</v>
@@ -4183,7 +4186,7 @@
         <v>407</v>
       </c>
       <c r="H36">
-        <v>-33.267000000000003</v>
+        <v>-33.283000000000001</v>
       </c>
       <c r="I36">
         <v>150.333</v>
@@ -4211,6 +4214,9 @@
       </c>
       <c r="R36" t="s">
         <v>27</v>
+      </c>
+      <c r="S36" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
@@ -4221,10 +4227,10 @@
         <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>405</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
+        <v>406</v>
       </c>
       <c r="E37" t="s">
         <v>46</v>
@@ -4233,22 +4239,22 @@
         <v>23</v>
       </c>
       <c r="G37" t="s">
-        <v>73</v>
+        <v>407</v>
       </c>
       <c r="H37">
-        <v>-32.7333</v>
+        <v>-33.267000000000003</v>
       </c>
       <c r="I37">
-        <v>152.08330000000001</v>
+        <v>150.333</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>865</v>
       </c>
       <c r="K37" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="L37" s="1">
-        <v>24876</v>
+        <v>28730</v>
       </c>
       <c r="M37" t="s">
         <v>26</v>
@@ -4277,16 +4283,16 @@
         <v>39</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E38" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F38" t="s">
         <v>23</v>
       </c>
       <c r="G38" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H38">
         <v>-32.7333</v>
@@ -4301,7 +4307,7 @@
         <v>74</v>
       </c>
       <c r="L38" s="1">
-        <v>24904</v>
+        <v>24876</v>
       </c>
       <c r="M38" t="s">
         <v>26</v>
@@ -4330,7 +4336,7 @@
         <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E39" t="s">
         <v>22</v>
@@ -4339,7 +4345,7 @@
         <v>23</v>
       </c>
       <c r="G39" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H39">
         <v>-32.7333</v>
@@ -4354,7 +4360,7 @@
         <v>74</v>
       </c>
       <c r="L39" s="1">
-        <v>25317</v>
+        <v>24904</v>
       </c>
       <c r="M39" t="s">
         <v>26</v>
@@ -4383,31 +4389,31 @@
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E40" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F40" t="s">
         <v>23</v>
       </c>
       <c r="G40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H40">
-        <v>-32.700000000000003</v>
+        <v>-32.7333</v>
       </c>
       <c r="I40">
         <v>152.08330000000001</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" t="s">
         <v>74</v>
       </c>
       <c r="L40" s="1">
-        <v>24880</v>
+        <v>25317</v>
       </c>
       <c r="M40" t="s">
         <v>26</v>
@@ -4433,34 +4439,34 @@
         <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>405</v>
+        <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>428</v>
+        <v>75</v>
       </c>
       <c r="E41" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F41" t="s">
         <v>23</v>
       </c>
       <c r="G41" t="s">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="H41">
-        <v>-32.5</v>
+        <v>-32.700000000000003</v>
       </c>
       <c r="I41">
-        <v>152.30000000000001</v>
+        <v>152.08330000000001</v>
       </c>
       <c r="J41">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>430</v>
+        <v>74</v>
       </c>
       <c r="L41" s="1">
-        <v>8282</v>
+        <v>24880</v>
       </c>
       <c r="M41" t="s">
         <v>26</v>
@@ -4489,7 +4495,7 @@
         <v>405</v>
       </c>
       <c r="D42" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E42" t="s">
         <v>22</v>
@@ -4510,7 +4516,7 @@
         <v>8</v>
       </c>
       <c r="K42" t="s">
-        <v>57</v>
+        <v>430</v>
       </c>
       <c r="L42" s="1">
         <v>8282</v>
@@ -4542,10 +4548,10 @@
         <v>405</v>
       </c>
       <c r="D43" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F43" t="s">
         <v>23</v>
@@ -4566,7 +4572,7 @@
         <v>57</v>
       </c>
       <c r="L43" s="1">
-        <v>8283</v>
+        <v>8282</v>
       </c>
       <c r="M43" t="s">
         <v>26</v>
@@ -4595,7 +4601,7 @@
         <v>405</v>
       </c>
       <c r="D44" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="E44" t="s">
         <v>46</v>
@@ -4604,22 +4610,22 @@
         <v>23</v>
       </c>
       <c r="G44" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="H44">
-        <v>-32.4</v>
+        <v>-32.5</v>
       </c>
       <c r="I44">
-        <v>152.43299999999999</v>
+        <v>152.30000000000001</v>
       </c>
       <c r="J44">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K44" t="s">
         <v>57</v>
       </c>
       <c r="L44" s="1">
-        <v>26574</v>
+        <v>8283</v>
       </c>
       <c r="M44" t="s">
         <v>26</v>
@@ -4642,13 +4648,13 @@
         <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>405</v>
       </c>
       <c r="D45" t="s">
-        <v>369</v>
+        <v>439</v>
       </c>
       <c r="E45" t="s">
         <v>46</v>
@@ -4657,22 +4663,22 @@
         <v>23</v>
       </c>
       <c r="G45" t="s">
-        <v>370</v>
+        <v>440</v>
       </c>
       <c r="H45">
-        <v>-30.632000000000001</v>
+        <v>-32.4</v>
       </c>
       <c r="I45">
-        <v>152.197</v>
+        <v>152.43299999999999</v>
       </c>
       <c r="J45">
-        <v>941</v>
+        <v>13</v>
       </c>
       <c r="K45" t="s">
-        <v>367</v>
+        <v>57</v>
       </c>
       <c r="L45" s="1">
-        <v>41774</v>
+        <v>26574</v>
       </c>
       <c r="M45" t="s">
         <v>26</v>
@@ -4688,9 +4694,6 @@
       </c>
       <c r="R45" t="s">
         <v>27</v>
-      </c>
-      <c r="S45" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
@@ -4698,31 +4701,31 @@
         <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E46" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F46" t="s">
         <v>23</v>
       </c>
       <c r="G46" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H46">
-        <v>-30.497</v>
+        <v>-30.632000000000001</v>
       </c>
       <c r="I46">
-        <v>152.399</v>
+        <v>152.197</v>
       </c>
       <c r="J46">
-        <v>1393</v>
+        <v>941</v>
       </c>
       <c r="K46" t="s">
         <v>367</v>
@@ -4746,7 +4749,7 @@
         <v>27</v>
       </c>
       <c r="S46" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
@@ -4754,37 +4757,37 @@
         <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>226</v>
+        <v>365</v>
       </c>
       <c r="E47" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="F47" t="s">
         <v>23</v>
       </c>
       <c r="G47" t="s">
-        <v>227</v>
+        <v>366</v>
       </c>
       <c r="H47">
-        <v>-30.4</v>
+        <v>-30.497</v>
       </c>
       <c r="I47">
-        <v>152.35</v>
+        <v>152.399</v>
       </c>
       <c r="J47">
-        <v>1301</v>
+        <v>1393</v>
       </c>
       <c r="K47" t="s">
-        <v>228</v>
+        <v>367</v>
       </c>
       <c r="L47" s="1">
-        <v>8153</v>
+        <v>41774</v>
       </c>
       <c r="M47" t="s">
         <v>26</v>
@@ -4798,14 +4801,11 @@
       <c r="P47" t="s">
         <v>26</v>
       </c>
-      <c r="Q47" t="s">
-        <v>185</v>
-      </c>
       <c r="R47" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="S47" t="s">
-        <v>225</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
@@ -4816,34 +4816,34 @@
         <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>226</v>
       </c>
       <c r="E48" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="G48" t="s">
-        <v>108</v>
+        <v>227</v>
       </c>
       <c r="H48">
-        <v>-30.366700000000002</v>
+        <v>-30.4</v>
       </c>
       <c r="I48">
-        <v>152.44999999999999</v>
+        <v>152.35</v>
       </c>
       <c r="J48">
-        <v>1275</v>
+        <v>1301</v>
       </c>
       <c r="K48" t="s">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="L48" s="1">
-        <v>25953</v>
+        <v>8153</v>
       </c>
       <c r="M48" t="s">
         <v>26</v>
@@ -4857,11 +4857,14 @@
       <c r="P48" t="s">
         <v>26</v>
       </c>
+      <c r="Q48" t="s">
+        <v>185</v>
+      </c>
       <c r="R48" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="S48" t="s">
-        <v>109</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
@@ -4875,16 +4878,16 @@
         <v>39</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E49" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F49" t="s">
         <v>96</v>
       </c>
       <c r="G49" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H49">
         <v>-30.366700000000002</v>
@@ -4931,16 +4934,16 @@
         <v>39</v>
       </c>
       <c r="D50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E50" t="s">
         <v>22</v>
       </c>
       <c r="F50" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G50" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H50">
         <v>-30.366700000000002</v>
@@ -4955,7 +4958,7 @@
         <v>74</v>
       </c>
       <c r="L50" s="1">
-        <v>25954</v>
+        <v>25953</v>
       </c>
       <c r="M50" t="s">
         <v>26</v>
@@ -4973,7 +4976,7 @@
         <v>27</v>
       </c>
       <c r="S50" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
@@ -4984,34 +4987,34 @@
         <v>31</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D51" t="s">
-        <v>229</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
         <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="G51" t="s">
-        <v>230</v>
+        <v>113</v>
       </c>
       <c r="H51">
-        <v>-30.332999999999998</v>
+        <v>-30.366700000000002</v>
       </c>
       <c r="I51">
-        <v>152.71700000000001</v>
+        <v>152.44999999999999</v>
       </c>
       <c r="J51">
-        <v>725</v>
+        <v>1275</v>
       </c>
       <c r="K51" t="s">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="L51" s="1">
-        <v>11027</v>
+        <v>25954</v>
       </c>
       <c r="M51" t="s">
         <v>26</v>
@@ -5027,6 +5030,9 @@
       </c>
       <c r="R51" t="s">
         <v>27</v>
+      </c>
+      <c r="S51" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
@@ -5037,34 +5043,34 @@
         <v>31</v>
       </c>
       <c r="C52" t="s">
-        <v>405</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>409</v>
+        <v>229</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F52" t="s">
         <v>23</v>
       </c>
       <c r="G52" t="s">
-        <v>410</v>
+        <v>230</v>
       </c>
       <c r="H52">
-        <v>-29.216999999999999</v>
+        <v>-30.332999999999998</v>
       </c>
       <c r="I52">
-        <v>152.417</v>
+        <v>152.71700000000001</v>
       </c>
       <c r="J52">
-        <v>844</v>
+        <v>725</v>
       </c>
       <c r="K52" t="s">
-        <v>57</v>
+        <v>231</v>
       </c>
       <c r="L52" s="1">
-        <v>29407</v>
+        <v>11027</v>
       </c>
       <c r="M52" t="s">
         <v>26</v>
@@ -5078,14 +5084,8 @@
       <c r="P52" t="s">
         <v>26</v>
       </c>
-      <c r="Q52" t="s">
-        <v>35</v>
-      </c>
       <c r="R52" t="s">
-        <v>36</v>
-      </c>
-      <c r="S52" t="s">
-        <v>411</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
@@ -5099,7 +5099,7 @@
         <v>405</v>
       </c>
       <c r="D53" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E53" t="s">
         <v>46</v>
@@ -5142,6 +5142,9 @@
       </c>
       <c r="R53" t="s">
         <v>36</v>
+      </c>
+      <c r="S53" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
@@ -5152,10 +5155,10 @@
         <v>31</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>405</v>
       </c>
       <c r="D54" t="s">
-        <v>232</v>
+        <v>412</v>
       </c>
       <c r="E54" t="s">
         <v>46</v>
@@ -5164,22 +5167,22 @@
         <v>23</v>
       </c>
       <c r="G54" t="s">
-        <v>233</v>
+        <v>410</v>
       </c>
       <c r="H54">
-        <v>-28.9</v>
+        <v>-29.216999999999999</v>
       </c>
       <c r="I54">
-        <v>151.983</v>
+        <v>152.417</v>
       </c>
       <c r="J54">
-        <v>1096</v>
+        <v>844</v>
       </c>
       <c r="K54" t="s">
-        <v>234</v>
+        <v>57</v>
       </c>
       <c r="L54" s="1">
-        <v>18407</v>
+        <v>29407</v>
       </c>
       <c r="M54" t="s">
         <v>26</v>
@@ -5194,7 +5197,7 @@
         <v>26</v>
       </c>
       <c r="Q54" t="s">
-        <v>235</v>
+        <v>35</v>
       </c>
       <c r="R54" t="s">
         <v>36</v>
@@ -5205,37 +5208,37 @@
         <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="C55" t="s">
         <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="E55" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F55" t="s">
         <v>23</v>
       </c>
       <c r="G55" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="H55">
-        <v>-28.891999999999999</v>
+        <v>-28.9</v>
       </c>
       <c r="I55">
-        <v>152.43299999999999</v>
+        <v>151.983</v>
       </c>
       <c r="J55">
-        <v>462</v>
+        <v>1096</v>
       </c>
       <c r="K55" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="L55" s="1">
-        <v>37363</v>
+        <v>18407</v>
       </c>
       <c r="M55" t="s">
         <v>26</v>
@@ -5249,8 +5252,11 @@
       <c r="P55" t="s">
         <v>26</v>
       </c>
+      <c r="Q55" t="s">
+        <v>235</v>
+      </c>
       <c r="R55" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
@@ -5264,7 +5270,7 @@
         <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E56" t="s">
         <v>54</v>
@@ -5276,19 +5282,19 @@
         <v>271</v>
       </c>
       <c r="H56">
-        <v>-28.861999999999998</v>
+        <v>-28.891999999999999</v>
       </c>
       <c r="I56">
-        <v>152.03200000000001</v>
+        <v>152.43299999999999</v>
       </c>
       <c r="J56">
-        <v>287</v>
+        <v>462</v>
       </c>
       <c r="K56" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L56" s="1">
-        <v>37362</v>
+        <v>37363</v>
       </c>
       <c r="M56" t="s">
         <v>26</v>
@@ -5304,47 +5310,44 @@
       </c>
       <c r="R56" t="s">
         <v>27</v>
-      </c>
-      <c r="S56" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C57" t="s">
-        <v>405</v>
+        <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>423</v>
+        <v>270</v>
       </c>
       <c r="E57" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F57" t="s">
         <v>23</v>
       </c>
       <c r="G57" t="s">
-        <v>424</v>
+        <v>271</v>
       </c>
       <c r="H57">
-        <v>-28.832999999999998</v>
+        <v>-28.861999999999998</v>
       </c>
       <c r="I57">
-        <v>153.43299999999999</v>
+        <v>152.03200000000001</v>
       </c>
       <c r="J57">
-        <v>114</v>
+        <v>287</v>
       </c>
       <c r="K57" t="s">
-        <v>57</v>
+        <v>272</v>
       </c>
       <c r="L57" s="1">
-        <v>33039</v>
+        <v>37362</v>
       </c>
       <c r="M57" t="s">
         <v>26</v>
@@ -5358,28 +5361,25 @@
       <c r="P57" t="s">
         <v>26</v>
       </c>
-      <c r="Q57" t="s">
-        <v>185</v>
-      </c>
       <c r="R57" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="S57" t="s">
-        <v>425</v>
+        <v>273</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>405</v>
       </c>
       <c r="D58" t="s">
-        <v>340</v>
+        <v>423</v>
       </c>
       <c r="E58" t="s">
         <v>46</v>
@@ -5388,22 +5388,22 @@
         <v>23</v>
       </c>
       <c r="G58" t="s">
-        <v>341</v>
+        <v>424</v>
       </c>
       <c r="H58">
-        <v>-28.667999999999999</v>
+        <v>-28.832999999999998</v>
       </c>
       <c r="I58">
-        <v>153.101</v>
+        <v>153.43299999999999</v>
       </c>
       <c r="J58">
-        <v>240</v>
+        <v>114</v>
       </c>
       <c r="K58" t="s">
-        <v>342</v>
+        <v>57</v>
       </c>
       <c r="L58" s="1">
-        <v>41028</v>
+        <v>33039</v>
       </c>
       <c r="M58" t="s">
         <v>26</v>
@@ -5417,22 +5417,28 @@
       <c r="P58" t="s">
         <v>26</v>
       </c>
+      <c r="Q58" t="s">
+        <v>185</v>
+      </c>
       <c r="R58" t="s">
-        <v>27</v>
+        <v>36</v>
+      </c>
+      <c r="S58" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C59" t="s">
         <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>448</v>
+        <v>340</v>
       </c>
       <c r="E59" t="s">
         <v>46</v>
@@ -5441,7 +5447,7 @@
         <v>23</v>
       </c>
       <c r="G59" t="s">
-        <v>449</v>
+        <v>341</v>
       </c>
       <c r="H59">
         <v>-28.667999999999999</v>
@@ -5456,7 +5462,7 @@
         <v>342</v>
       </c>
       <c r="L59" s="1">
-        <v>40817</v>
+        <v>41028</v>
       </c>
       <c r="M59" t="s">
         <v>26</v>
@@ -5470,11 +5476,8 @@
       <c r="P59" t="s">
         <v>26</v>
       </c>
-      <c r="Q59" t="s">
-        <v>185</v>
-      </c>
       <c r="R59" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
@@ -5485,34 +5488,34 @@
         <v>31</v>
       </c>
       <c r="C60" t="s">
-        <v>405</v>
+        <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="E60" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F60" t="s">
         <v>23</v>
       </c>
       <c r="G60" t="s">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="H60">
-        <v>-28.632999999999999</v>
+        <v>-28.667999999999999</v>
       </c>
       <c r="I60">
-        <v>153.31700000000001</v>
+        <v>153.101</v>
       </c>
       <c r="J60">
-        <v>172</v>
+        <v>240</v>
       </c>
       <c r="K60" t="s">
-        <v>57</v>
+        <v>342</v>
       </c>
       <c r="L60" s="1">
-        <v>33832</v>
+        <v>40817</v>
       </c>
       <c r="M60" t="s">
         <v>26</v>
@@ -5535,16 +5538,16 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>405</v>
       </c>
       <c r="D61" t="s">
-        <v>348</v>
+        <v>426</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
@@ -5553,22 +5556,22 @@
         <v>23</v>
       </c>
       <c r="G61" t="s">
-        <v>349</v>
+        <v>427</v>
       </c>
       <c r="H61">
-        <v>-28.606999999999999</v>
+        <v>-28.632999999999999</v>
       </c>
       <c r="I61">
-        <v>153.37700000000001</v>
+        <v>153.31700000000001</v>
       </c>
       <c r="J61">
-        <v>289</v>
+        <v>172</v>
       </c>
       <c r="K61" t="s">
-        <v>350</v>
+        <v>57</v>
       </c>
       <c r="L61" s="1">
-        <v>41147</v>
+        <v>33832</v>
       </c>
       <c r="M61" t="s">
         <v>26</v>
@@ -5582,11 +5585,11 @@
       <c r="P61" t="s">
         <v>26</v>
       </c>
+      <c r="Q61" t="s">
+        <v>185</v>
+      </c>
       <c r="R61" t="s">
-        <v>27</v>
-      </c>
-      <c r="S61" t="s">
-        <v>351</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
@@ -5597,10 +5600,10 @@
         <v>80</v>
       </c>
       <c r="C62" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>421</v>
+        <v>348</v>
       </c>
       <c r="E62" t="s">
         <v>22</v>
@@ -5609,22 +5612,22 @@
         <v>23</v>
       </c>
       <c r="G62" t="s">
-        <v>422</v>
+        <v>349</v>
       </c>
       <c r="H62">
-        <v>-28.566700000000001</v>
+        <v>-28.606999999999999</v>
       </c>
       <c r="I62">
-        <v>153.3356</v>
+        <v>153.37700000000001</v>
       </c>
       <c r="J62">
-        <v>524</v>
+        <v>289</v>
       </c>
       <c r="K62" t="s">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="L62" s="1">
-        <v>34824</v>
+        <v>41147</v>
       </c>
       <c r="M62" t="s">
         <v>26</v>
@@ -5640,6 +5643,9 @@
       </c>
       <c r="R62" t="s">
         <v>27</v>
+      </c>
+      <c r="S62" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
@@ -5653,22 +5659,22 @@
         <v>39</v>
       </c>
       <c r="D63" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E63" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F63" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="G63" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="H63">
-        <v>-28.565000000000001</v>
+        <v>-28.566700000000001</v>
       </c>
       <c r="I63">
-        <v>153.3364</v>
+        <v>153.3356</v>
       </c>
       <c r="J63">
         <v>524</v>
@@ -5677,7 +5683,7 @@
         <v>420</v>
       </c>
       <c r="L63" s="1">
-        <v>34822</v>
+        <v>34824</v>
       </c>
       <c r="M63" t="s">
         <v>26</v>
@@ -5697,40 +5703,40 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D64" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="E64" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F64" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="G64" t="s">
-        <v>387</v>
+        <v>419</v>
       </c>
       <c r="H64">
-        <v>-28.466999999999999</v>
+        <v>-28.565000000000001</v>
       </c>
       <c r="I64">
-        <v>153.233</v>
+        <v>153.3364</v>
       </c>
       <c r="J64">
-        <v>146</v>
+        <v>524</v>
       </c>
       <c r="K64" t="s">
-        <v>388</v>
+        <v>420</v>
       </c>
       <c r="L64" s="1">
-        <v>30762</v>
+        <v>34822</v>
       </c>
       <c r="M64" t="s">
         <v>26</v>
@@ -5744,52 +5750,46 @@
       <c r="P64" t="s">
         <v>26</v>
       </c>
-      <c r="Q64" t="s">
-        <v>185</v>
-      </c>
       <c r="R64" t="s">
-        <v>36</v>
-      </c>
-      <c r="S64" t="s">
-        <v>389</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="C65" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D65" t="s">
-        <v>81</v>
+        <v>386</v>
       </c>
       <c r="E65" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="F65" t="s">
         <v>23</v>
       </c>
       <c r="G65" t="s">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="H65">
-        <v>-28.466699999999999</v>
+        <v>-28.466999999999999</v>
       </c>
       <c r="I65">
-        <v>153.16669999999999</v>
+        <v>153.233</v>
       </c>
       <c r="J65">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="K65" t="s">
-        <v>74</v>
+        <v>388</v>
       </c>
       <c r="L65" s="1">
-        <v>25410</v>
+        <v>30762</v>
       </c>
       <c r="M65" t="s">
         <v>26</v>
@@ -5803,8 +5803,14 @@
       <c r="P65" t="s">
         <v>26</v>
       </c>
+      <c r="Q65" t="s">
+        <v>185</v>
+      </c>
       <c r="R65" t="s">
-        <v>27</v>
+        <v>36</v>
+      </c>
+      <c r="S65" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
@@ -5818,7 +5824,7 @@
         <v>39</v>
       </c>
       <c r="D66" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E66" t="s">
         <v>22</v>
@@ -5827,7 +5833,7 @@
         <v>23</v>
       </c>
       <c r="G66" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H66">
         <v>-28.466699999999999</v>
@@ -5842,7 +5848,7 @@
         <v>74</v>
       </c>
       <c r="L66" s="1">
-        <v>25411</v>
+        <v>25410</v>
       </c>
       <c r="M66" t="s">
         <v>26</v>
@@ -5871,7 +5877,7 @@
         <v>39</v>
       </c>
       <c r="D67" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="E67" t="s">
         <v>22</v>
@@ -5880,7 +5886,7 @@
         <v>23</v>
       </c>
       <c r="G67" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H67">
         <v>-28.466699999999999</v>
@@ -5895,7 +5901,7 @@
         <v>74</v>
       </c>
       <c r="L67" s="1">
-        <v>25635</v>
+        <v>25411</v>
       </c>
       <c r="M67" t="s">
         <v>26</v>
@@ -5918,13 +5924,13 @@
         <v>30</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D68" t="s">
-        <v>384</v>
+        <v>106</v>
       </c>
       <c r="E68" t="s">
         <v>22</v>
@@ -5933,22 +5939,22 @@
         <v>23</v>
       </c>
       <c r="G68" t="s">
-        <v>385</v>
+        <v>82</v>
       </c>
       <c r="H68">
-        <v>-28.417000000000002</v>
+        <v>-28.466699999999999</v>
       </c>
       <c r="I68">
-        <v>153.233</v>
+        <v>153.16669999999999</v>
       </c>
       <c r="J68">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="K68" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="L68" s="1">
-        <v>28327</v>
+        <v>25635</v>
       </c>
       <c r="M68" t="s">
         <v>26</v>
@@ -5962,25 +5968,22 @@
       <c r="P68" t="s">
         <v>26</v>
       </c>
-      <c r="Q68" t="s">
-        <v>235</v>
-      </c>
       <c r="R68" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B69" t="s">
         <v>31</v>
       </c>
       <c r="C69" t="s">
-        <v>405</v>
+        <v>20</v>
       </c>
       <c r="D69" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="E69" t="s">
         <v>22</v>
@@ -5989,22 +5992,22 @@
         <v>23</v>
       </c>
       <c r="G69" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="H69">
-        <v>-28.4</v>
+        <v>-28.417000000000002</v>
       </c>
       <c r="I69">
-        <v>153.017</v>
+        <v>153.233</v>
       </c>
       <c r="J69">
-        <v>537</v>
+        <v>203</v>
       </c>
       <c r="K69" t="s">
         <v>57</v>
       </c>
       <c r="L69" s="1">
-        <v>33096</v>
+        <v>28327</v>
       </c>
       <c r="M69" t="s">
         <v>26</v>
@@ -6019,7 +6022,7 @@
         <v>26</v>
       </c>
       <c r="Q69" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="R69" t="s">
         <v>36</v>
@@ -6036,10 +6039,10 @@
         <v>405</v>
       </c>
       <c r="D70" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E70" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F70" t="s">
         <v>23</v>
@@ -6092,7 +6095,7 @@
         <v>405</v>
       </c>
       <c r="D71" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E71" t="s">
         <v>46</v>
@@ -6136,46 +6139,43 @@
       <c r="R71" t="s">
         <v>36</v>
       </c>
-      <c r="S71" t="s">
-        <v>417</v>
-      </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>405</v>
       </c>
       <c r="D72" t="s">
-        <v>352</v>
+        <v>416</v>
       </c>
       <c r="E72" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F72" t="s">
         <v>23</v>
       </c>
       <c r="G72" t="s">
-        <v>353</v>
+        <v>414</v>
       </c>
       <c r="H72">
-        <v>-28.398</v>
+        <v>-28.4</v>
       </c>
       <c r="I72">
-        <v>153.285</v>
+        <v>153.017</v>
       </c>
       <c r="J72">
-        <v>491</v>
+        <v>537</v>
       </c>
       <c r="K72" t="s">
-        <v>350</v>
+        <v>57</v>
       </c>
       <c r="L72" s="1">
-        <v>41147</v>
+        <v>33096</v>
       </c>
       <c r="M72" t="s">
         <v>26</v>
@@ -6189,11 +6189,14 @@
       <c r="P72" t="s">
         <v>26</v>
       </c>
+      <c r="Q72" t="s">
+        <v>185</v>
+      </c>
       <c r="R72" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="S72" t="s">
-        <v>354</v>
+        <v>417</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
@@ -6207,7 +6210,7 @@
         <v>20</v>
       </c>
       <c r="D73" t="s">
-        <v>163</v>
+        <v>352</v>
       </c>
       <c r="E73" t="s">
         <v>22</v>
@@ -6216,22 +6219,22 @@
         <v>23</v>
       </c>
       <c r="G73" t="s">
-        <v>155</v>
+        <v>353</v>
       </c>
       <c r="H73">
-        <v>-28.245999999999999</v>
+        <v>-28.398</v>
       </c>
       <c r="I73">
-        <v>152.38399999999999</v>
+        <v>153.285</v>
       </c>
       <c r="J73">
-        <v>1002</v>
+        <v>491</v>
       </c>
       <c r="K73" t="s">
-        <v>156</v>
+        <v>350</v>
       </c>
       <c r="L73" s="1">
-        <v>41053</v>
+        <v>41147</v>
       </c>
       <c r="M73" t="s">
         <v>26</v>
@@ -6249,7 +6252,7 @@
         <v>27</v>
       </c>
       <c r="S73" t="s">
-        <v>164</v>
+        <v>354</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
@@ -6263,10 +6266,10 @@
         <v>20</v>
       </c>
       <c r="D74" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E74" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F74" t="s">
         <v>23</v>
@@ -6275,10 +6278,10 @@
         <v>155</v>
       </c>
       <c r="H74">
-        <v>-28.242000000000001</v>
+        <v>-28.245999999999999</v>
       </c>
       <c r="I74">
-        <v>152.386</v>
+        <v>152.38399999999999</v>
       </c>
       <c r="J74">
         <v>1002</v>
@@ -6305,7 +6308,7 @@
         <v>27</v>
       </c>
       <c r="S74" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
@@ -6319,7 +6322,7 @@
         <v>20</v>
       </c>
       <c r="D75" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E75" t="s">
         <v>46</v>
@@ -6328,22 +6331,22 @@
         <v>23</v>
       </c>
       <c r="G75" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H75">
-        <v>-28.241</v>
+        <v>-28.242000000000001</v>
       </c>
       <c r="I75">
-        <v>153.26499999999999</v>
+        <v>152.386</v>
       </c>
       <c r="J75">
-        <v>741</v>
+        <v>1002</v>
       </c>
       <c r="K75" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L75" s="1">
-        <v>41844</v>
+        <v>41053</v>
       </c>
       <c r="M75" t="s">
         <v>26</v>
@@ -6359,20 +6362,23 @@
       </c>
       <c r="R75" t="s">
         <v>27</v>
+      </c>
+      <c r="S75" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B76" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C76" t="s">
         <v>20</v>
       </c>
       <c r="D76" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="E76" t="s">
         <v>46</v>
@@ -6381,22 +6387,22 @@
         <v>23</v>
       </c>
       <c r="G76" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="H76">
-        <v>-28.233000000000001</v>
+        <v>-28.241</v>
       </c>
       <c r="I76">
-        <v>152.267</v>
+        <v>153.26499999999999</v>
       </c>
       <c r="J76">
-        <v>563</v>
+        <v>741</v>
       </c>
       <c r="K76" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="L76" s="1">
-        <v>24882</v>
+        <v>41844</v>
       </c>
       <c r="M76" t="s">
         <v>26</v>
@@ -6410,14 +6416,8 @@
       <c r="P76" t="s">
         <v>26</v>
       </c>
-      <c r="Q76" t="s">
-        <v>185</v>
-      </c>
       <c r="R76" t="s">
-        <v>36</v>
-      </c>
-      <c r="S76" t="s">
-        <v>186</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
@@ -6431,31 +6431,31 @@
         <v>20</v>
       </c>
       <c r="D77" t="s">
-        <v>254</v>
+        <v>182</v>
       </c>
       <c r="E77" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F77" t="s">
         <v>23</v>
       </c>
       <c r="G77" t="s">
-        <v>255</v>
+        <v>183</v>
       </c>
       <c r="H77">
         <v>-28.233000000000001</v>
       </c>
       <c r="I77">
-        <v>153.25</v>
+        <v>152.267</v>
       </c>
       <c r="J77">
-        <v>741</v>
+        <v>563</v>
       </c>
       <c r="K77" t="s">
-        <v>256</v>
+        <v>184</v>
       </c>
       <c r="L77" s="1">
-        <v>36668</v>
+        <v>24882</v>
       </c>
       <c r="M77" t="s">
         <v>26</v>
@@ -6475,28 +6475,31 @@
       <c r="R77" t="s">
         <v>36</v>
       </c>
+      <c r="S77" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="C78" t="s">
         <v>20</v>
       </c>
       <c r="D78" t="s">
-        <v>355</v>
+        <v>254</v>
       </c>
       <c r="E78" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F78" t="s">
         <v>23</v>
       </c>
       <c r="G78" t="s">
-        <v>356</v>
+        <v>255</v>
       </c>
       <c r="H78">
         <v>-28.233000000000001</v>
@@ -6508,10 +6511,10 @@
         <v>741</v>
       </c>
       <c r="K78" t="s">
-        <v>350</v>
+        <v>256</v>
       </c>
       <c r="L78" s="1">
-        <v>41146</v>
+        <v>36668</v>
       </c>
       <c r="M78" t="s">
         <v>26</v>
@@ -6525,11 +6528,11 @@
       <c r="P78" t="s">
         <v>26</v>
       </c>
+      <c r="Q78" t="s">
+        <v>185</v>
+      </c>
       <c r="R78" t="s">
-        <v>27</v>
-      </c>
-      <c r="S78" t="s">
-        <v>357</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
@@ -6543,31 +6546,31 @@
         <v>20</v>
       </c>
       <c r="D79" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="E79" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F79" t="s">
         <v>23</v>
       </c>
       <c r="G79" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="H79">
-        <v>-28.23</v>
+        <v>-28.233000000000001</v>
       </c>
       <c r="I79">
-        <v>153.13499999999999</v>
+        <v>153.25</v>
       </c>
       <c r="J79">
-        <v>828</v>
+        <v>741</v>
       </c>
       <c r="K79" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="L79" s="1">
-        <v>39183</v>
+        <v>41146</v>
       </c>
       <c r="M79" t="s">
         <v>26</v>
@@ -6585,7 +6588,7 @@
         <v>27</v>
       </c>
       <c r="S79" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
@@ -6593,37 +6596,34 @@
         <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="C80" t="s">
         <v>20</v>
       </c>
       <c r="D80" t="s">
-        <v>158</v>
+        <v>457</v>
       </c>
       <c r="E80" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F80" t="s">
         <v>23</v>
       </c>
       <c r="G80" t="s">
-        <v>155</v>
+        <v>458</v>
       </c>
       <c r="H80">
-        <v>-28.228000000000002</v>
+        <v>-28.233000000000001</v>
       </c>
       <c r="I80">
-        <v>152.38900000000001</v>
-      </c>
-      <c r="J80">
-        <v>1002</v>
+        <v>153.25</v>
       </c>
       <c r="K80" t="s">
-        <v>156</v>
+        <v>459</v>
       </c>
       <c r="L80" s="1">
-        <v>41053</v>
+        <v>41450</v>
       </c>
       <c r="M80" t="s">
         <v>26</v>
@@ -6637,11 +6637,14 @@
       <c r="P80" t="s">
         <v>26</v>
       </c>
+      <c r="Q80" t="s">
+        <v>460</v>
+      </c>
       <c r="R80" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="S80" t="s">
-        <v>159</v>
+        <v>461</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
@@ -6655,31 +6658,31 @@
         <v>20</v>
       </c>
       <c r="D81" t="s">
-        <v>160</v>
+        <v>315</v>
       </c>
       <c r="E81" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F81" t="s">
         <v>23</v>
       </c>
       <c r="G81" t="s">
-        <v>155</v>
+        <v>316</v>
       </c>
       <c r="H81">
-        <v>-28.228000000000002</v>
+        <v>-28.23</v>
       </c>
       <c r="I81">
-        <v>152.38900000000001</v>
+        <v>153.13499999999999</v>
       </c>
       <c r="J81">
-        <v>1002</v>
+        <v>828</v>
       </c>
       <c r="K81" t="s">
-        <v>156</v>
+        <v>317</v>
       </c>
       <c r="L81" s="1">
-        <v>41053</v>
+        <v>39183</v>
       </c>
       <c r="M81" t="s">
         <v>26</v>
@@ -6695,44 +6698,47 @@
       </c>
       <c r="R81" t="s">
         <v>27</v>
+      </c>
+      <c r="S81" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C82" t="s">
         <v>20</v>
       </c>
       <c r="D82" t="s">
-        <v>300</v>
+        <v>158</v>
       </c>
       <c r="E82" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F82" t="s">
         <v>23</v>
       </c>
       <c r="G82" t="s">
-        <v>290</v>
+        <v>155</v>
       </c>
       <c r="H82">
         <v>-28.228000000000002</v>
       </c>
       <c r="I82">
-        <v>153.27799999999999</v>
+        <v>152.38900000000001</v>
       </c>
       <c r="J82">
-        <v>741</v>
+        <v>1002</v>
       </c>
       <c r="K82" t="s">
-        <v>291</v>
+        <v>156</v>
       </c>
       <c r="L82" s="1">
-        <v>26056</v>
+        <v>41053</v>
       </c>
       <c r="M82" t="s">
         <v>26</v>
@@ -6746,14 +6752,11 @@
       <c r="P82" t="s">
         <v>26</v>
       </c>
-      <c r="Q82" t="s">
-        <v>185</v>
-      </c>
       <c r="R82" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="S82" t="s">
-        <v>301</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
@@ -6767,10 +6770,10 @@
         <v>20</v>
       </c>
       <c r="D83" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E83" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F83" t="s">
         <v>23</v>
@@ -6779,10 +6782,10 @@
         <v>155</v>
       </c>
       <c r="H83">
-        <v>-28.227</v>
+        <v>-28.228000000000002</v>
       </c>
       <c r="I83">
-        <v>152.40899999999999</v>
+        <v>152.38900000000001</v>
       </c>
       <c r="J83">
         <v>1002</v>
@@ -6808,22 +6811,19 @@
       <c r="R83" t="s">
         <v>27</v>
       </c>
-      <c r="S83" t="s">
-        <v>157</v>
-      </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B84" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="C84" t="s">
         <v>20</v>
       </c>
       <c r="D84" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="E84" t="s">
         <v>22</v>
@@ -6832,22 +6832,22 @@
         <v>23</v>
       </c>
       <c r="G84" t="s">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="H84">
-        <v>-28.227</v>
+        <v>-28.228000000000002</v>
       </c>
       <c r="I84">
-        <v>152.42599999999999</v>
+        <v>153.27799999999999</v>
       </c>
       <c r="J84">
-        <v>973</v>
+        <v>741</v>
       </c>
       <c r="K84" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="L84" s="1">
-        <v>39578</v>
+        <v>26056</v>
       </c>
       <c r="M84" t="s">
         <v>26</v>
@@ -6861,11 +6861,14 @@
       <c r="P84" t="s">
         <v>26</v>
       </c>
+      <c r="Q84" t="s">
+        <v>185</v>
+      </c>
       <c r="R84" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="S84" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
@@ -6879,7 +6882,7 @@
         <v>20</v>
       </c>
       <c r="D85" t="s">
-        <v>441</v>
+        <v>154</v>
       </c>
       <c r="E85" t="s">
         <v>22</v>
@@ -6888,22 +6891,22 @@
         <v>23</v>
       </c>
       <c r="G85" t="s">
-        <v>442</v>
+        <v>155</v>
       </c>
       <c r="H85">
-        <v>-28.225999999999999</v>
+        <v>-28.227</v>
       </c>
       <c r="I85">
-        <v>152.42699999999999</v>
+        <v>152.40899999999999</v>
       </c>
       <c r="J85">
-        <v>973</v>
+        <v>1002</v>
       </c>
       <c r="K85" t="s">
-        <v>275</v>
+        <v>156</v>
       </c>
       <c r="L85" s="1">
-        <v>39578</v>
+        <v>41053</v>
       </c>
       <c r="M85" t="s">
         <v>26</v>
@@ -6921,7 +6924,7 @@
         <v>27</v>
       </c>
       <c r="S85" t="s">
-        <v>443</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
@@ -6935,7 +6938,7 @@
         <v>20</v>
       </c>
       <c r="D86" t="s">
-        <v>454</v>
+        <v>337</v>
       </c>
       <c r="E86" t="s">
         <v>22</v>
@@ -6944,13 +6947,13 @@
         <v>23</v>
       </c>
       <c r="G86" t="s">
-        <v>155</v>
+        <v>338</v>
       </c>
       <c r="H86">
-        <v>-28.225999999999999</v>
+        <v>-28.227</v>
       </c>
       <c r="I86">
-        <v>152.42699999999999</v>
+        <v>152.42599999999999</v>
       </c>
       <c r="J86">
         <v>973</v>
@@ -6959,7 +6962,7 @@
         <v>275</v>
       </c>
       <c r="L86" s="1">
-        <v>41053</v>
+        <v>39578</v>
       </c>
       <c r="M86" t="s">
         <v>26</v>
@@ -6975,20 +6978,23 @@
       </c>
       <c r="R86" t="s">
         <v>27</v>
+      </c>
+      <c r="S86" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B87" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C87" t="s">
         <v>20</v>
       </c>
       <c r="D87" t="s">
-        <v>289</v>
+        <v>441</v>
       </c>
       <c r="E87" t="s">
         <v>22</v>
@@ -6997,22 +7003,22 @@
         <v>23</v>
       </c>
       <c r="G87" t="s">
-        <v>290</v>
+        <v>442</v>
       </c>
       <c r="H87">
-        <v>-28.218</v>
+        <v>-28.225999999999999</v>
       </c>
       <c r="I87">
-        <v>153.29599999999999</v>
+        <v>152.42699999999999</v>
       </c>
       <c r="J87">
-        <v>373</v>
+        <v>973</v>
       </c>
       <c r="K87" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="L87" s="1">
-        <v>26123</v>
+        <v>39578</v>
       </c>
       <c r="M87" t="s">
         <v>26</v>
@@ -7026,28 +7032,25 @@
       <c r="P87" t="s">
         <v>26</v>
       </c>
-      <c r="Q87" t="s">
-        <v>185</v>
-      </c>
       <c r="R87" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="S87" t="s">
-        <v>292</v>
+        <v>443</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B88" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C88" t="s">
         <v>20</v>
       </c>
       <c r="D88" t="s">
-        <v>199</v>
+        <v>454</v>
       </c>
       <c r="E88" t="s">
         <v>22</v>
@@ -7056,22 +7059,22 @@
         <v>23</v>
       </c>
       <c r="G88" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="H88">
-        <v>-28.216999999999999</v>
+        <v>-28.225999999999999</v>
       </c>
       <c r="I88">
-        <v>152.03299999999999</v>
+        <v>152.42699999999999</v>
       </c>
       <c r="J88">
-        <v>467</v>
+        <v>973</v>
       </c>
       <c r="K88" t="s">
-        <v>184</v>
+        <v>275</v>
       </c>
       <c r="L88" s="1">
-        <v>25386</v>
+        <v>41053</v>
       </c>
       <c r="M88" t="s">
         <v>26</v>
@@ -7085,14 +7088,8 @@
       <c r="P88" t="s">
         <v>26</v>
       </c>
-      <c r="Q88" t="s">
-        <v>185</v>
-      </c>
       <c r="R88" t="s">
-        <v>36</v>
-      </c>
-      <c r="S88" t="s">
-        <v>201</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.3">
@@ -7106,7 +7103,7 @@
         <v>20</v>
       </c>
       <c r="D89" t="s">
-        <v>202</v>
+        <v>289</v>
       </c>
       <c r="E89" t="s">
         <v>22</v>
@@ -7115,22 +7112,22 @@
         <v>23</v>
       </c>
       <c r="G89" t="s">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="H89">
-        <v>-28.216999999999999</v>
+        <v>-28.218</v>
       </c>
       <c r="I89">
-        <v>152.03299999999999</v>
+        <v>153.29599999999999</v>
       </c>
       <c r="J89">
-        <v>467</v>
+        <v>373</v>
       </c>
       <c r="K89" t="s">
-        <v>184</v>
+        <v>291</v>
       </c>
       <c r="L89" s="1">
-        <v>25386</v>
+        <v>26123</v>
       </c>
       <c r="M89" t="s">
         <v>26</v>
@@ -7151,12 +7148,12 @@
         <v>36</v>
       </c>
       <c r="S89" t="s">
-        <v>203</v>
+        <v>292</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B90" t="s">
         <v>31</v>
@@ -7165,10 +7162,10 @@
         <v>20</v>
       </c>
       <c r="D90" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E90" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F90" t="s">
         <v>23</v>
@@ -7186,7 +7183,7 @@
         <v>467</v>
       </c>
       <c r="K90" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="L90" s="1">
         <v>25386</v>
@@ -7210,7 +7207,7 @@
         <v>36</v>
       </c>
       <c r="S90" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.3">
@@ -7224,16 +7221,16 @@
         <v>20</v>
       </c>
       <c r="D91" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E91" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F91" t="s">
         <v>23</v>
       </c>
       <c r="G91" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="H91">
         <v>-28.216999999999999</v>
@@ -7269,7 +7266,7 @@
         <v>36</v>
       </c>
       <c r="S91" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.3">
@@ -7283,10 +7280,10 @@
         <v>20</v>
       </c>
       <c r="D92" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E92" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F92" t="s">
         <v>23</v>
@@ -7328,7 +7325,7 @@
         <v>36</v>
       </c>
       <c r="S92" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.3">
@@ -7336,22 +7333,22 @@
         <v>19</v>
       </c>
       <c r="B93" t="s">
-        <v>462</v>
+        <v>31</v>
       </c>
       <c r="C93" t="s">
         <v>20</v>
       </c>
       <c r="D93" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E93" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F93" t="s">
         <v>23</v>
       </c>
       <c r="G93" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="H93">
         <v>-28.216999999999999</v>
@@ -7363,7 +7360,7 @@
         <v>467</v>
       </c>
       <c r="K93" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="L93" s="1">
         <v>25386</v>
@@ -7384,15 +7381,15 @@
         <v>185</v>
       </c>
       <c r="R93" t="s">
-        <v>213</v>
+        <v>36</v>
       </c>
       <c r="S93" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B94" t="s">
         <v>31</v>
@@ -7401,7 +7398,7 @@
         <v>20</v>
       </c>
       <c r="D94" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="E94" t="s">
         <v>22</v>
@@ -7410,22 +7407,22 @@
         <v>23</v>
       </c>
       <c r="G94" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="H94">
         <v>-28.216999999999999</v>
       </c>
       <c r="I94">
-        <v>153.233</v>
+        <v>152.03299999999999</v>
       </c>
       <c r="J94">
         <v>467</v>
       </c>
       <c r="K94" t="s">
-        <v>249</v>
-      </c>
-      <c r="L94" t="s">
-        <v>250</v>
+        <v>205</v>
+      </c>
+      <c r="L94" s="1">
+        <v>25386</v>
       </c>
       <c r="M94" t="s">
         <v>26</v>
@@ -7446,7 +7443,7 @@
         <v>36</v>
       </c>
       <c r="S94" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.3">
@@ -7454,13 +7451,13 @@
         <v>19</v>
       </c>
       <c r="B95" t="s">
-        <v>31</v>
+        <v>462</v>
       </c>
       <c r="C95" t="s">
         <v>20</v>
       </c>
       <c r="D95" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="E95" t="s">
         <v>22</v>
@@ -7469,22 +7466,22 @@
         <v>23</v>
       </c>
       <c r="G95" t="s">
-        <v>253</v>
+        <v>200</v>
       </c>
       <c r="H95">
         <v>-28.216999999999999</v>
       </c>
       <c r="I95">
-        <v>153.233</v>
+        <v>152.03299999999999</v>
       </c>
       <c r="J95">
         <v>467</v>
       </c>
       <c r="K95" t="s">
-        <v>54</v>
+        <v>205</v>
       </c>
       <c r="L95" s="1">
-        <v>36712</v>
+        <v>25386</v>
       </c>
       <c r="M95" t="s">
         <v>26</v>
@@ -7502,7 +7499,10 @@
         <v>185</v>
       </c>
       <c r="R95" t="s">
-        <v>36</v>
+        <v>213</v>
+      </c>
+      <c r="S95" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.3">
@@ -7510,13 +7510,13 @@
         <v>19</v>
       </c>
       <c r="B96" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C96" t="s">
         <v>20</v>
       </c>
       <c r="D96" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="E96" t="s">
         <v>22</v>
@@ -7525,22 +7525,22 @@
         <v>23</v>
       </c>
       <c r="G96" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="H96">
-        <v>-28.1</v>
+        <v>-28.216999999999999</v>
       </c>
       <c r="I96">
-        <v>153.44999999999999</v>
+        <v>153.233</v>
       </c>
       <c r="J96">
-        <v>6</v>
+        <v>467</v>
       </c>
       <c r="K96" t="s">
-        <v>219</v>
-      </c>
-      <c r="L96" s="1">
-        <v>25755</v>
+        <v>249</v>
+      </c>
+      <c r="L96" t="s">
+        <v>250</v>
       </c>
       <c r="M96" t="s">
         <v>26</v>
@@ -7555,18 +7555,18 @@
         <v>26</v>
       </c>
       <c r="Q96" t="s">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="R96" t="s">
         <v>36</v>
       </c>
       <c r="S96" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B97" t="s">
         <v>31</v>
@@ -7575,7 +7575,7 @@
         <v>20</v>
       </c>
       <c r="D97" t="s">
-        <v>450</v>
+        <v>252</v>
       </c>
       <c r="E97" t="s">
         <v>22</v>
@@ -7584,22 +7584,22 @@
         <v>23</v>
       </c>
       <c r="G97" t="s">
-        <v>451</v>
+        <v>253</v>
       </c>
       <c r="H97">
-        <v>-28.082999999999998</v>
+        <v>-28.216999999999999</v>
       </c>
       <c r="I97">
-        <v>152.417</v>
+        <v>153.233</v>
       </c>
       <c r="J97">
-        <v>758</v>
+        <v>467</v>
       </c>
       <c r="K97" t="s">
-        <v>452</v>
-      </c>
-      <c r="L97" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="L97" s="1">
+        <v>36712</v>
       </c>
       <c r="M97" t="s">
         <v>26</v>
@@ -7614,7 +7614,7 @@
         <v>26</v>
       </c>
       <c r="Q97" t="s">
-        <v>35</v>
+        <v>185</v>
       </c>
       <c r="R97" t="s">
         <v>36</v>
@@ -7622,40 +7622,40 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B98" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C98" t="s">
         <v>20</v>
       </c>
       <c r="D98" t="s">
-        <v>453</v>
+        <v>217</v>
       </c>
       <c r="E98" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F98" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="G98" t="s">
-        <v>451</v>
+        <v>218</v>
       </c>
       <c r="H98">
-        <v>-28.082999999999998</v>
+        <v>-28.1</v>
       </c>
       <c r="I98">
-        <v>152.417</v>
+        <v>153.44999999999999</v>
       </c>
       <c r="J98">
-        <v>758</v>
+        <v>6</v>
       </c>
       <c r="K98" t="s">
-        <v>452</v>
-      </c>
-      <c r="L98" t="s">
-        <v>380</v>
+        <v>219</v>
+      </c>
+      <c r="L98" s="1">
+        <v>25755</v>
       </c>
       <c r="M98" t="s">
         <v>26</v>
@@ -7670,10 +7670,13 @@
         <v>26</v>
       </c>
       <c r="Q98" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="R98" t="s">
         <v>36</v>
+      </c>
+      <c r="S98" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.3">
@@ -7687,7 +7690,7 @@
         <v>20</v>
       </c>
       <c r="D99" t="s">
-        <v>32</v>
+        <v>450</v>
       </c>
       <c r="E99" t="s">
         <v>22</v>
@@ -7696,22 +7699,22 @@
         <v>23</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>451</v>
       </c>
       <c r="H99">
-        <v>-28.062000000000001</v>
+        <v>-28.082999999999998</v>
       </c>
       <c r="I99">
-        <v>152.36699999999999</v>
+        <v>152.417</v>
       </c>
       <c r="J99">
-        <v>674</v>
+        <v>758</v>
       </c>
       <c r="K99" t="s">
-        <v>34</v>
-      </c>
-      <c r="L99" s="1">
-        <v>41037</v>
+        <v>452</v>
+      </c>
+      <c r="L99" t="s">
+        <v>57</v>
       </c>
       <c r="M99" t="s">
         <v>26</v>
@@ -7730,9 +7733,6 @@
       </c>
       <c r="R99" t="s">
         <v>36</v>
-      </c>
-      <c r="S99" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.3">
@@ -7746,31 +7746,31 @@
         <v>20</v>
       </c>
       <c r="D100" t="s">
-        <v>345</v>
+        <v>453</v>
       </c>
       <c r="E100" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F100" t="s">
         <v>54</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>451</v>
       </c>
       <c r="H100">
-        <v>-28.062000000000001</v>
+        <v>-28.082999999999998</v>
       </c>
       <c r="I100">
-        <v>152.36699999999999</v>
+        <v>152.417</v>
       </c>
       <c r="J100">
-        <v>674</v>
+        <v>758</v>
       </c>
       <c r="K100" t="s">
-        <v>34</v>
-      </c>
-      <c r="L100" s="1">
-        <v>41037</v>
+        <v>452</v>
+      </c>
+      <c r="L100" t="s">
+        <v>380</v>
       </c>
       <c r="M100" t="s">
         <v>26</v>
@@ -7789,9 +7789,6 @@
       </c>
       <c r="R100" t="s">
         <v>36</v>
-      </c>
-      <c r="S100" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.3">
@@ -7805,7 +7802,7 @@
         <v>20</v>
       </c>
       <c r="D101" t="s">
-        <v>361</v>
+        <v>32</v>
       </c>
       <c r="E101" t="s">
         <v>22</v>
@@ -7814,22 +7811,22 @@
         <v>23</v>
       </c>
       <c r="G101" t="s">
-        <v>362</v>
+        <v>33</v>
       </c>
       <c r="H101">
-        <v>-27.988</v>
+        <v>-28.062000000000001</v>
       </c>
       <c r="I101">
-        <v>152.36000000000001</v>
+        <v>152.36699999999999</v>
       </c>
       <c r="J101">
-        <v>936</v>
+        <v>674</v>
       </c>
       <c r="K101" t="s">
-        <v>363</v>
+        <v>34</v>
       </c>
       <c r="L101" s="1">
-        <v>42881</v>
+        <v>41037</v>
       </c>
       <c r="M101" t="s">
         <v>26</v>
@@ -7850,7 +7847,7 @@
         <v>36</v>
       </c>
       <c r="S101" t="s">
-        <v>364</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.3">
@@ -7858,37 +7855,37 @@
         <v>30</v>
       </c>
       <c r="B102" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="C102" t="s">
         <v>20</v>
       </c>
       <c r="D102" t="s">
-        <v>444</v>
+        <v>345</v>
       </c>
       <c r="E102" t="s">
         <v>22</v>
       </c>
       <c r="F102" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="G102" t="s">
-        <v>445</v>
+        <v>33</v>
       </c>
       <c r="H102">
-        <v>-27.981000000000002</v>
+        <v>-28.062000000000001</v>
       </c>
       <c r="I102">
-        <v>152.34700000000001</v>
+        <v>152.36699999999999</v>
       </c>
       <c r="J102">
-        <v>710</v>
+        <v>674</v>
       </c>
       <c r="K102" t="s">
-        <v>350</v>
+        <v>34</v>
       </c>
       <c r="L102" s="1">
-        <v>41148</v>
+        <v>41037</v>
       </c>
       <c r="M102" t="s">
         <v>26</v>
@@ -7902,11 +7899,14 @@
       <c r="P102" t="s">
         <v>26</v>
       </c>
+      <c r="Q102" t="s">
+        <v>35</v>
+      </c>
       <c r="R102" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="S102" t="s">
-        <v>446</v>
+        <v>346</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.3">
@@ -7914,13 +7914,13 @@
         <v>30</v>
       </c>
       <c r="B103" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="C103" t="s">
         <v>20</v>
       </c>
       <c r="D103" t="s">
-        <v>447</v>
+        <v>361</v>
       </c>
       <c r="E103" t="s">
         <v>22</v>
@@ -7929,22 +7929,22 @@
         <v>23</v>
       </c>
       <c r="G103" t="s">
-        <v>445</v>
+        <v>362</v>
       </c>
       <c r="H103">
-        <v>-27.981000000000002</v>
+        <v>-27.988</v>
       </c>
       <c r="I103">
-        <v>152.34700000000001</v>
+        <v>152.36000000000001</v>
       </c>
       <c r="J103">
-        <v>710</v>
+        <v>936</v>
       </c>
       <c r="K103" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="L103" s="1">
-        <v>41148</v>
+        <v>42881</v>
       </c>
       <c r="M103" t="s">
         <v>26</v>
@@ -7958,49 +7958,52 @@
       <c r="P103" t="s">
         <v>26</v>
       </c>
+      <c r="Q103" t="s">
+        <v>35</v>
+      </c>
       <c r="R103" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="S103" t="s">
-        <v>446</v>
+        <v>364</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B104" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C104" t="s">
         <v>20</v>
       </c>
       <c r="D104" t="s">
-        <v>262</v>
+        <v>444</v>
       </c>
       <c r="E104" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="F104" t="s">
         <v>23</v>
       </c>
       <c r="G104" t="s">
-        <v>263</v>
+        <v>445</v>
       </c>
       <c r="H104">
-        <v>-27.966999999999999</v>
+        <v>-27.981000000000002</v>
       </c>
       <c r="I104">
-        <v>153.167</v>
+        <v>152.34700000000001</v>
       </c>
       <c r="J104">
-        <v>411</v>
+        <v>710</v>
       </c>
       <c r="K104" t="s">
-        <v>264</v>
+        <v>350</v>
       </c>
       <c r="L104" s="1">
-        <v>36596</v>
+        <v>41148</v>
       </c>
       <c r="M104" t="s">
         <v>26</v>
@@ -8014,11 +8017,11 @@
       <c r="P104" t="s">
         <v>26</v>
       </c>
-      <c r="Q104" t="s">
-        <v>185</v>
-      </c>
       <c r="R104" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="S104" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.3">
@@ -8026,13 +8029,13 @@
         <v>30</v>
       </c>
       <c r="B105" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C105" t="s">
         <v>20</v>
       </c>
       <c r="D105" t="s">
-        <v>221</v>
+        <v>447</v>
       </c>
       <c r="E105" t="s">
         <v>22</v>
@@ -8041,22 +8044,22 @@
         <v>23</v>
       </c>
       <c r="G105" t="s">
-        <v>222</v>
+        <v>445</v>
       </c>
       <c r="H105">
-        <v>-27.917000000000002</v>
+        <v>-27.981000000000002</v>
       </c>
       <c r="I105">
-        <v>153.167</v>
+        <v>152.34700000000001</v>
       </c>
       <c r="J105">
-        <v>517</v>
+        <v>710</v>
       </c>
       <c r="K105" t="s">
-        <v>223</v>
+        <v>350</v>
       </c>
       <c r="L105" s="1">
-        <v>8254</v>
+        <v>41148</v>
       </c>
       <c r="M105" t="s">
         <v>26</v>
@@ -8070,14 +8073,11 @@
       <c r="P105" t="s">
         <v>26</v>
       </c>
-      <c r="Q105" t="s">
-        <v>224</v>
-      </c>
       <c r="R105" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="S105" t="s">
-        <v>225</v>
+        <v>446</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.3">
@@ -8085,37 +8085,37 @@
         <v>19</v>
       </c>
       <c r="B106" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C106" t="s">
         <v>20</v>
       </c>
       <c r="D106" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E106" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="F106" t="s">
         <v>23</v>
       </c>
       <c r="G106" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H106">
-        <v>-27.382999999999999</v>
+        <v>-27.966999999999999</v>
       </c>
       <c r="I106">
-        <v>152.78299999999999</v>
+        <v>153.167</v>
       </c>
       <c r="J106">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="K106" t="s">
-        <v>259</v>
-      </c>
-      <c r="L106" t="s">
-        <v>260</v>
+        <v>264</v>
+      </c>
+      <c r="L106" s="1">
+        <v>36596</v>
       </c>
       <c r="M106" t="s">
         <v>26</v>
@@ -8129,22 +8129,25 @@
       <c r="P106" t="s">
         <v>26</v>
       </c>
+      <c r="Q106" t="s">
+        <v>185</v>
+      </c>
       <c r="R106" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B107" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C107" t="s">
         <v>20</v>
       </c>
       <c r="D107" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="E107" t="s">
         <v>22</v>
@@ -8153,22 +8156,22 @@
         <v>23</v>
       </c>
       <c r="G107" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="H107">
-        <v>-27.382999999999999</v>
+        <v>-27.917000000000002</v>
       </c>
       <c r="I107">
-        <v>152.78299999999999</v>
+        <v>153.167</v>
       </c>
       <c r="J107">
-        <v>457</v>
+        <v>517</v>
       </c>
       <c r="K107" t="s">
-        <v>259</v>
-      </c>
-      <c r="L107" t="s">
-        <v>260</v>
+        <v>223</v>
+      </c>
+      <c r="L107" s="1">
+        <v>8254</v>
       </c>
       <c r="M107" t="s">
         <v>26</v>
@@ -8182,8 +8185,14 @@
       <c r="P107" t="s">
         <v>26</v>
       </c>
+      <c r="Q107" t="s">
+        <v>224</v>
+      </c>
       <c r="R107" t="s">
-        <v>27</v>
+        <v>36</v>
+      </c>
+      <c r="S107" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.3">
@@ -8197,7 +8206,7 @@
         <v>20</v>
       </c>
       <c r="D108" t="s">
-        <v>328</v>
+        <v>257</v>
       </c>
       <c r="E108" t="s">
         <v>22</v>
@@ -8206,22 +8215,22 @@
         <v>23</v>
       </c>
       <c r="G108" t="s">
-        <v>329</v>
+        <v>258</v>
       </c>
       <c r="H108">
-        <v>-27.349</v>
+        <v>-27.382999999999999</v>
       </c>
       <c r="I108">
-        <v>152.779</v>
+        <v>152.78299999999999</v>
       </c>
       <c r="J108">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="K108" t="s">
-        <v>156</v>
-      </c>
-      <c r="L108" s="1">
-        <v>40787</v>
+        <v>259</v>
+      </c>
+      <c r="L108" t="s">
+        <v>260</v>
       </c>
       <c r="M108" t="s">
         <v>26</v>
@@ -8250,31 +8259,31 @@
         <v>20</v>
       </c>
       <c r="D109" t="s">
-        <v>332</v>
+        <v>261</v>
       </c>
       <c r="E109" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F109" t="s">
         <v>23</v>
       </c>
       <c r="G109" t="s">
-        <v>333</v>
+        <v>258</v>
       </c>
       <c r="H109">
-        <v>-27.346</v>
+        <v>-27.382999999999999</v>
       </c>
       <c r="I109">
-        <v>152.773</v>
+        <v>152.78299999999999</v>
       </c>
       <c r="J109">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="K109" t="s">
-        <v>156</v>
-      </c>
-      <c r="L109" s="1">
-        <v>40787</v>
+        <v>259</v>
+      </c>
+      <c r="L109" t="s">
+        <v>260</v>
       </c>
       <c r="M109" t="s">
         <v>26</v>
@@ -8294,40 +8303,40 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B110" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C110" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D110" t="s">
-        <v>135</v>
+        <v>328</v>
       </c>
       <c r="E110" t="s">
         <v>22</v>
       </c>
       <c r="F110" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="G110" t="s">
-        <v>136</v>
+        <v>329</v>
       </c>
       <c r="H110">
-        <v>-27.333300000000001</v>
+        <v>-27.349</v>
       </c>
       <c r="I110">
-        <v>152.76669999999999</v>
+        <v>152.779</v>
       </c>
       <c r="J110">
-        <v>572</v>
+        <v>423</v>
       </c>
       <c r="K110" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="L110" s="1">
-        <v>23437</v>
+        <v>40787</v>
       </c>
       <c r="M110" t="s">
         <v>26</v>
@@ -8341,52 +8350,46 @@
       <c r="P110" t="s">
         <v>26</v>
       </c>
-      <c r="Q110" t="s">
-        <v>138</v>
-      </c>
       <c r="R110" t="s">
-        <v>36</v>
-      </c>
-      <c r="S110" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B111" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C111" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D111" t="s">
-        <v>139</v>
+        <v>332</v>
       </c>
       <c r="E111" t="s">
         <v>46</v>
       </c>
       <c r="F111" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="G111" t="s">
-        <v>136</v>
+        <v>333</v>
       </c>
       <c r="H111">
-        <v>-27.333300000000001</v>
+        <v>-27.346</v>
       </c>
       <c r="I111">
-        <v>152.76669999999999</v>
+        <v>152.773</v>
       </c>
       <c r="J111">
-        <v>572</v>
+        <v>423</v>
       </c>
       <c r="K111" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="L111" s="1">
-        <v>23437</v>
+        <v>40787</v>
       </c>
       <c r="M111" t="s">
         <v>26</v>
@@ -8400,52 +8403,46 @@
       <c r="P111" t="s">
         <v>26</v>
       </c>
-      <c r="Q111" t="s">
-        <v>138</v>
-      </c>
       <c r="R111" t="s">
-        <v>36</v>
-      </c>
-      <c r="S111" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B112" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C112" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D112" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="E112" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F112" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="G112" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="H112">
-        <v>-27.332999999999998</v>
+        <v>-27.333300000000001</v>
       </c>
       <c r="I112">
-        <v>152.767</v>
+        <v>152.76669999999999</v>
       </c>
       <c r="J112">
         <v>572</v>
       </c>
       <c r="K112" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="L112" s="1">
-        <v>21988</v>
+        <v>23437</v>
       </c>
       <c r="M112" t="s">
         <v>26</v>
@@ -8459,46 +8456,52 @@
       <c r="P112" t="s">
         <v>26</v>
       </c>
+      <c r="Q112" t="s">
+        <v>138</v>
+      </c>
       <c r="R112" t="s">
-        <v>27</v>
+        <v>36</v>
+      </c>
+      <c r="S112" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B113" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C113" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D113" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="E113" t="s">
         <v>46</v>
       </c>
       <c r="F113" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="G113" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="H113">
-        <v>-27.332999999999998</v>
+        <v>-27.333300000000001</v>
       </c>
       <c r="I113">
-        <v>152.767</v>
+        <v>152.76669999999999</v>
       </c>
       <c r="J113">
         <v>572</v>
       </c>
       <c r="K113" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="L113" s="1">
-        <v>22599</v>
+        <v>23437</v>
       </c>
       <c r="M113" t="s">
         <v>26</v>
@@ -8512,8 +8515,14 @@
       <c r="P113" t="s">
         <v>26</v>
       </c>
+      <c r="Q113" t="s">
+        <v>138</v>
+      </c>
       <c r="R113" t="s">
-        <v>27</v>
+        <v>36</v>
+      </c>
+      <c r="S113" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.3">
@@ -8527,16 +8536,16 @@
         <v>20</v>
       </c>
       <c r="D114" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E114" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F114" t="s">
         <v>23</v>
       </c>
       <c r="G114" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H114">
         <v>-27.332999999999998</v>
@@ -8548,10 +8557,10 @@
         <v>572</v>
       </c>
       <c r="K114" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L114" s="1">
-        <v>22710</v>
+        <v>21988</v>
       </c>
       <c r="M114" t="s">
         <v>26</v>
@@ -8567,9 +8576,6 @@
       </c>
       <c r="R114" t="s">
         <v>27</v>
-      </c>
-      <c r="S114" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.3">
@@ -8583,7 +8589,7 @@
         <v>20</v>
       </c>
       <c r="D115" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E115" t="s">
         <v>46</v>
@@ -8604,10 +8610,10 @@
         <v>572</v>
       </c>
       <c r="K115" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="L115" s="1">
-        <v>23536</v>
+        <v>22599</v>
       </c>
       <c r="M115" t="s">
         <v>26</v>
@@ -8623,9 +8629,6 @@
       </c>
       <c r="R115" t="s">
         <v>27</v>
-      </c>
-      <c r="S115" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.3">
@@ -8639,16 +8642,16 @@
         <v>20</v>
       </c>
       <c r="D116" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E116" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F116" t="s">
         <v>23</v>
       </c>
       <c r="G116" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H116">
         <v>-27.332999999999998</v>
@@ -8660,10 +8663,10 @@
         <v>572</v>
       </c>
       <c r="K116" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="L116" s="1">
-        <v>23536</v>
+        <v>22710</v>
       </c>
       <c r="M116" t="s">
         <v>26</v>
@@ -8681,7 +8684,7 @@
         <v>27</v>
       </c>
       <c r="S116" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.3">
@@ -8695,10 +8698,10 @@
         <v>20</v>
       </c>
       <c r="D117" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E117" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F117" t="s">
         <v>23</v>
@@ -8716,10 +8719,10 @@
         <v>572</v>
       </c>
       <c r="K117" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="L117" s="1">
-        <v>23509</v>
+        <v>23536</v>
       </c>
       <c r="M117" t="s">
         <v>26</v>
@@ -8737,7 +8740,7 @@
         <v>27</v>
       </c>
       <c r="S117" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.3">
@@ -8751,16 +8754,16 @@
         <v>20</v>
       </c>
       <c r="D118" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="E118" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F118" t="s">
         <v>23</v>
       </c>
       <c r="G118" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="H118">
         <v>-27.332999999999998</v>
@@ -8772,10 +8775,10 @@
         <v>572</v>
       </c>
       <c r="K118" t="s">
-        <v>192</v>
+        <v>137</v>
       </c>
       <c r="L118" s="1">
-        <v>25003</v>
+        <v>23536</v>
       </c>
       <c r="M118" t="s">
         <v>26</v>
@@ -8793,7 +8796,7 @@
         <v>27</v>
       </c>
       <c r="S118" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.3">
@@ -8807,7 +8810,7 @@
         <v>20</v>
       </c>
       <c r="D119" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E119" t="s">
         <v>22</v>
@@ -8816,7 +8819,7 @@
         <v>23</v>
       </c>
       <c r="G119" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="H119">
         <v>-27.332999999999998</v>
@@ -8828,10 +8831,10 @@
         <v>572</v>
       </c>
       <c r="K119" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="L119" s="1">
-        <v>25003</v>
+        <v>23509</v>
       </c>
       <c r="M119" t="s">
         <v>26</v>
@@ -8849,7 +8852,7 @@
         <v>27</v>
       </c>
       <c r="S119" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.3">
@@ -8863,7 +8866,7 @@
         <v>20</v>
       </c>
       <c r="D120" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E120" t="s">
         <v>22</v>
@@ -8872,7 +8875,7 @@
         <v>23</v>
       </c>
       <c r="G120" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="H120">
         <v>-27.332999999999998</v>
@@ -8884,7 +8887,7 @@
         <v>572</v>
       </c>
       <c r="K120" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="L120" s="1">
         <v>25003</v>
@@ -8905,7 +8908,7 @@
         <v>27</v>
       </c>
       <c r="S120" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.3">
@@ -8919,7 +8922,7 @@
         <v>20</v>
       </c>
       <c r="D121" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="E121" t="s">
         <v>22</v>
@@ -8928,7 +8931,7 @@
         <v>23</v>
       </c>
       <c r="G121" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H121">
         <v>-27.332999999999998</v>
@@ -8940,10 +8943,10 @@
         <v>572</v>
       </c>
       <c r="K121" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="L121" s="1">
-        <v>25001</v>
+        <v>25003</v>
       </c>
       <c r="M121" t="s">
         <v>26</v>
@@ -8961,7 +8964,7 @@
         <v>27</v>
       </c>
       <c r="S121" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.3">
@@ -8975,7 +8978,7 @@
         <v>20</v>
       </c>
       <c r="D122" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="E122" t="s">
         <v>22</v>
@@ -8984,7 +8987,7 @@
         <v>23</v>
       </c>
       <c r="G122" t="s">
-        <v>237</v>
+        <v>169</v>
       </c>
       <c r="H122">
         <v>-27.332999999999998</v>
@@ -8996,10 +8999,10 @@
         <v>572</v>
       </c>
       <c r="K122" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="L122" s="1">
-        <v>26200</v>
+        <v>25003</v>
       </c>
       <c r="M122" t="s">
         <v>26</v>
@@ -9015,6 +9018,9 @@
       </c>
       <c r="R122" t="s">
         <v>27</v>
+      </c>
+      <c r="S122" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.3">
@@ -9028,16 +9034,16 @@
         <v>20</v>
       </c>
       <c r="D123" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="E123" t="s">
         <v>22</v>
       </c>
       <c r="F123" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="G123" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="H123">
         <v>-27.332999999999998</v>
@@ -9049,10 +9055,10 @@
         <v>572</v>
       </c>
       <c r="K123" t="s">
-        <v>241</v>
-      </c>
-      <c r="L123" t="s">
-        <v>242</v>
+        <v>192</v>
+      </c>
+      <c r="L123" s="1">
+        <v>25001</v>
       </c>
       <c r="M123" t="s">
         <v>26</v>
@@ -9068,6 +9074,9 @@
       </c>
       <c r="R123" t="s">
         <v>27</v>
+      </c>
+      <c r="S123" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.3">
@@ -9081,16 +9090,16 @@
         <v>20</v>
       </c>
       <c r="D124" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E124" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F124" t="s">
         <v>23</v>
       </c>
       <c r="G124" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="H124">
         <v>-27.332999999999998</v>
@@ -9102,10 +9111,10 @@
         <v>572</v>
       </c>
       <c r="K124" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="L124" s="1">
-        <v>35360</v>
+        <v>26200</v>
       </c>
       <c r="M124" t="s">
         <v>26</v>
@@ -9134,16 +9143,16 @@
         <v>20</v>
       </c>
       <c r="D125" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E125" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F125" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="G125" t="s">
-        <v>169</v>
+        <v>240</v>
       </c>
       <c r="H125">
         <v>-27.332999999999998</v>
@@ -9155,10 +9164,10 @@
         <v>572</v>
       </c>
       <c r="K125" t="s">
-        <v>238</v>
-      </c>
-      <c r="L125" s="1">
-        <v>26922</v>
+        <v>241</v>
+      </c>
+      <c r="L125" t="s">
+        <v>242</v>
       </c>
       <c r="M125" t="s">
         <v>26</v>
@@ -9187,7 +9196,7 @@
         <v>20</v>
       </c>
       <c r="D126" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="E126" t="s">
         <v>46</v>
@@ -9196,7 +9205,7 @@
         <v>23</v>
       </c>
       <c r="G126" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="H126">
         <v>-27.332999999999998</v>
@@ -9208,10 +9217,10 @@
         <v>572</v>
       </c>
       <c r="K126" t="s">
-        <v>238</v>
-      </c>
-      <c r="L126" t="s">
-        <v>266</v>
+        <v>245</v>
+      </c>
+      <c r="L126" s="1">
+        <v>35360</v>
       </c>
       <c r="M126" t="s">
         <v>26</v>
@@ -9240,16 +9249,16 @@
         <v>20</v>
       </c>
       <c r="D127" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="E127" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F127" t="s">
         <v>23</v>
       </c>
       <c r="G127" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H127">
         <v>-27.332999999999998</v>
@@ -9263,8 +9272,8 @@
       <c r="K127" t="s">
         <v>238</v>
       </c>
-      <c r="L127" t="s">
-        <v>266</v>
+      <c r="L127" s="1">
+        <v>26922</v>
       </c>
       <c r="M127" t="s">
         <v>26</v>
@@ -9293,16 +9302,16 @@
         <v>20</v>
       </c>
       <c r="D128" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E128" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F128" t="s">
         <v>23</v>
       </c>
       <c r="G128" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="H128">
         <v>-27.332999999999998</v>
@@ -9346,7 +9355,7 @@
         <v>20</v>
       </c>
       <c r="D129" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E129" t="s">
         <v>22</v>
@@ -9355,7 +9364,7 @@
         <v>23</v>
       </c>
       <c r="G129" t="s">
-        <v>237</v>
+        <v>166</v>
       </c>
       <c r="H129">
         <v>-27.332999999999998</v>
@@ -9370,7 +9379,7 @@
         <v>238</v>
       </c>
       <c r="L129" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="M129" t="s">
         <v>26</v>
@@ -9399,7 +9408,7 @@
         <v>20</v>
       </c>
       <c r="D130" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="E130" t="s">
         <v>22</v>
@@ -9408,7 +9417,7 @@
         <v>23</v>
       </c>
       <c r="G130" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="H130">
         <v>-27.332999999999998</v>
@@ -9423,7 +9432,7 @@
         <v>238</v>
       </c>
       <c r="L130" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="M130" t="s">
         <v>26</v>
@@ -9452,7 +9461,7 @@
         <v>20</v>
       </c>
       <c r="D131" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E131" t="s">
         <v>22</v>
@@ -9461,7 +9470,7 @@
         <v>23</v>
       </c>
       <c r="G131" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="H131">
         <v>-27.332999999999998</v>
@@ -9493,9 +9502,6 @@
       <c r="R131" t="s">
         <v>27</v>
       </c>
-      <c r="S131" t="s">
-        <v>280</v>
-      </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
@@ -9508,7 +9514,7 @@
         <v>20</v>
       </c>
       <c r="D132" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E132" t="s">
         <v>22</v>
@@ -9561,7 +9567,7 @@
         <v>20</v>
       </c>
       <c r="D133" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E133" t="s">
         <v>22</v>
@@ -9570,7 +9576,7 @@
         <v>23</v>
       </c>
       <c r="G133" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="H133">
         <v>-27.332999999999998</v>
@@ -9602,6 +9608,9 @@
       <c r="R133" t="s">
         <v>27</v>
       </c>
+      <c r="S133" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
@@ -9614,10 +9623,10 @@
         <v>20</v>
       </c>
       <c r="D134" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E134" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F134" t="s">
         <v>23</v>
@@ -9667,7 +9676,7 @@
         <v>20</v>
       </c>
       <c r="D135" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E135" t="s">
         <v>22</v>
@@ -9720,10 +9729,10 @@
         <v>20</v>
       </c>
       <c r="D136" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E136" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F136" t="s">
         <v>23</v>
@@ -9773,7 +9782,7 @@
         <v>20</v>
       </c>
       <c r="D137" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="E137" t="s">
         <v>22</v>
@@ -9794,10 +9803,10 @@
         <v>572</v>
       </c>
       <c r="K137" t="s">
-        <v>306</v>
+        <v>238</v>
       </c>
       <c r="L137" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="M137" t="s">
         <v>26</v>
@@ -9826,16 +9835,16 @@
         <v>20</v>
       </c>
       <c r="D138" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="E138" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="F138" t="s">
         <v>23</v>
       </c>
       <c r="G138" t="s">
-        <v>309</v>
+        <v>237</v>
       </c>
       <c r="H138">
         <v>-27.332999999999998</v>
@@ -9847,10 +9856,10 @@
         <v>572</v>
       </c>
       <c r="K138" t="s">
-        <v>306</v>
+        <v>238</v>
       </c>
       <c r="L138" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="M138" t="s">
         <v>26</v>
@@ -9879,7 +9888,7 @@
         <v>20</v>
       </c>
       <c r="D139" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E139" t="s">
         <v>22</v>
@@ -9900,10 +9909,10 @@
         <v>572</v>
       </c>
       <c r="K139" t="s">
-        <v>238</v>
-      </c>
-      <c r="L139" s="1">
-        <v>26205</v>
+        <v>306</v>
+      </c>
+      <c r="L139" t="s">
+        <v>307</v>
       </c>
       <c r="M139" t="s">
         <v>26</v>
@@ -9919,9 +9928,6 @@
       </c>
       <c r="R139" t="s">
         <v>27</v>
-      </c>
-      <c r="S139" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.3">
@@ -9935,16 +9941,16 @@
         <v>20</v>
       </c>
       <c r="D140" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E140" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="F140" t="s">
         <v>23</v>
       </c>
       <c r="G140" t="s">
-        <v>237</v>
+        <v>309</v>
       </c>
       <c r="H140">
         <v>-27.332999999999998</v>
@@ -9956,10 +9962,10 @@
         <v>572</v>
       </c>
       <c r="K140" t="s">
-        <v>238</v>
-      </c>
-      <c r="L140" s="1">
-        <v>26205</v>
+        <v>306</v>
+      </c>
+      <c r="L140" t="s">
+        <v>307</v>
       </c>
       <c r="M140" t="s">
         <v>26</v>
@@ -9975,9 +9981,6 @@
       </c>
       <c r="R140" t="s">
         <v>27</v>
-      </c>
-      <c r="S140" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.3">
@@ -9991,7 +9994,7 @@
         <v>20</v>
       </c>
       <c r="D141" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E141" t="s">
         <v>22</v>
@@ -10047,10 +10050,10 @@
         <v>20</v>
       </c>
       <c r="D142" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E142" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F142" t="s">
         <v>23</v>
@@ -10089,7 +10092,7 @@
         <v>27</v>
       </c>
       <c r="S142" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.3">
@@ -10103,16 +10106,16 @@
         <v>20</v>
       </c>
       <c r="D143" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E143" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F143" t="s">
         <v>23</v>
       </c>
       <c r="G143" t="s">
-        <v>320</v>
+        <v>237</v>
       </c>
       <c r="H143">
         <v>-27.332999999999998</v>
@@ -10127,7 +10130,7 @@
         <v>238</v>
       </c>
       <c r="L143" s="1">
-        <v>26384</v>
+        <v>26205</v>
       </c>
       <c r="M143" t="s">
         <v>26</v>
@@ -10143,6 +10146,9 @@
       </c>
       <c r="R143" t="s">
         <v>27</v>
+      </c>
+      <c r="S143" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.3">
@@ -10156,7 +10162,7 @@
         <v>20</v>
       </c>
       <c r="D144" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E144" t="s">
         <v>46</v>
@@ -10165,7 +10171,7 @@
         <v>23</v>
       </c>
       <c r="G144" t="s">
-        <v>169</v>
+        <v>237</v>
       </c>
       <c r="H144">
         <v>-27.332999999999998</v>
@@ -10180,7 +10186,7 @@
         <v>238</v>
       </c>
       <c r="L144" s="1">
-        <v>26384</v>
+        <v>26205</v>
       </c>
       <c r="M144" t="s">
         <v>26</v>
@@ -10196,6 +10202,9 @@
       </c>
       <c r="R144" t="s">
         <v>27</v>
+      </c>
+      <c r="S144" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.3">
@@ -10209,7 +10218,7 @@
         <v>20</v>
       </c>
       <c r="D145" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E145" t="s">
         <v>46</v>
@@ -10218,7 +10227,7 @@
         <v>23</v>
       </c>
       <c r="G145" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H145">
         <v>-27.332999999999998</v>
@@ -10230,10 +10239,10 @@
         <v>572</v>
       </c>
       <c r="K145" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="L145" s="1">
-        <v>27971</v>
+        <v>26384</v>
       </c>
       <c r="M145" t="s">
         <v>26</v>
@@ -10249,9 +10258,6 @@
       </c>
       <c r="R145" t="s">
         <v>27</v>
-      </c>
-      <c r="S145" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.3">
@@ -10265,7 +10271,7 @@
         <v>20</v>
       </c>
       <c r="D146" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E146" t="s">
         <v>46</v>
@@ -10286,10 +10292,10 @@
         <v>572</v>
       </c>
       <c r="K146" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="L146" s="1">
-        <v>27971</v>
+        <v>26384</v>
       </c>
       <c r="M146" t="s">
         <v>26</v>
@@ -10305,9 +10311,6 @@
       </c>
       <c r="R146" t="s">
         <v>27</v>
-      </c>
-      <c r="S146" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.3">
@@ -10321,7 +10324,7 @@
         <v>20</v>
       </c>
       <c r="D147" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="E147" t="s">
         <v>46</v>
@@ -10330,7 +10333,7 @@
         <v>23</v>
       </c>
       <c r="G147" t="s">
-        <v>237</v>
+        <v>323</v>
       </c>
       <c r="H147">
         <v>-27.332999999999998</v>
@@ -10342,10 +10345,10 @@
         <v>572</v>
       </c>
       <c r="K147" t="s">
-        <v>238</v>
+        <v>324</v>
       </c>
       <c r="L147" s="1">
-        <v>26209</v>
+        <v>27971</v>
       </c>
       <c r="M147" t="s">
         <v>26</v>
@@ -10361,6 +10364,9 @@
       </c>
       <c r="R147" t="s">
         <v>27</v>
+      </c>
+      <c r="S147" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.3">
@@ -10374,7 +10380,7 @@
         <v>20</v>
       </c>
       <c r="D148" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="E148" t="s">
         <v>46</v>
@@ -10395,10 +10401,10 @@
         <v>572</v>
       </c>
       <c r="K148" t="s">
-        <v>238</v>
+        <v>324</v>
       </c>
       <c r="L148" s="1">
-        <v>26234</v>
+        <v>27971</v>
       </c>
       <c r="M148" t="s">
         <v>26</v>
@@ -10414,6 +10420,9 @@
       </c>
       <c r="R148" t="s">
         <v>27</v>
+      </c>
+      <c r="S148" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.3">
@@ -10427,7 +10436,7 @@
         <v>20</v>
       </c>
       <c r="D149" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E149" t="s">
         <v>46</v>
@@ -10451,7 +10460,7 @@
         <v>238</v>
       </c>
       <c r="L149" s="1">
-        <v>26201</v>
+        <v>26209</v>
       </c>
       <c r="M149" t="s">
         <v>26</v>
@@ -10480,16 +10489,16 @@
         <v>20</v>
       </c>
       <c r="D150" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="E150" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F150" t="s">
         <v>23</v>
       </c>
       <c r="G150" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H150">
         <v>-27.332999999999998</v>
@@ -10501,10 +10510,10 @@
         <v>572</v>
       </c>
       <c r="K150" t="s">
-        <v>359</v>
+        <v>238</v>
       </c>
       <c r="L150" s="1">
-        <v>26082</v>
+        <v>26234</v>
       </c>
       <c r="M150" t="s">
         <v>26</v>
@@ -10520,9 +10529,6 @@
       </c>
       <c r="R150" t="s">
         <v>27</v>
-      </c>
-      <c r="S150" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.3">
@@ -10536,7 +10542,7 @@
         <v>20</v>
       </c>
       <c r="D151" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="E151" t="s">
         <v>46</v>
@@ -10545,7 +10551,7 @@
         <v>23</v>
       </c>
       <c r="G151" t="s">
-        <v>320</v>
+        <v>237</v>
       </c>
       <c r="H151">
         <v>-27.332999999999998</v>
@@ -10557,10 +10563,10 @@
         <v>572</v>
       </c>
       <c r="K151" t="s">
-        <v>373</v>
+        <v>238</v>
       </c>
       <c r="L151" s="1">
-        <v>28005</v>
+        <v>26201</v>
       </c>
       <c r="M151" t="s">
         <v>26</v>
@@ -10576,9 +10582,6 @@
       </c>
       <c r="R151" t="s">
         <v>27</v>
-      </c>
-      <c r="S151" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.3">
@@ -10592,7 +10595,7 @@
         <v>20</v>
       </c>
       <c r="D152" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="E152" t="s">
         <v>22</v>
@@ -10601,7 +10604,7 @@
         <v>23</v>
       </c>
       <c r="G152" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H152">
         <v>-27.332999999999998</v>
@@ -10613,10 +10616,10 @@
         <v>572</v>
       </c>
       <c r="K152" t="s">
-        <v>238</v>
+        <v>359</v>
       </c>
       <c r="L152" s="1">
-        <v>26475</v>
+        <v>26082</v>
       </c>
       <c r="M152" t="s">
         <v>26</v>
@@ -10632,6 +10635,9 @@
       </c>
       <c r="R152" t="s">
         <v>27</v>
+      </c>
+      <c r="S152" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.3">
@@ -10645,7 +10651,7 @@
         <v>20</v>
       </c>
       <c r="D153" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="E153" t="s">
         <v>46</v>
@@ -10654,7 +10660,7 @@
         <v>23</v>
       </c>
       <c r="G153" t="s">
-        <v>166</v>
+        <v>320</v>
       </c>
       <c r="H153">
         <v>-27.332999999999998</v>
@@ -10666,10 +10672,10 @@
         <v>572</v>
       </c>
       <c r="K153" t="s">
-        <v>238</v>
+        <v>373</v>
       </c>
       <c r="L153" s="1">
-        <v>26196</v>
+        <v>28005</v>
       </c>
       <c r="M153" t="s">
         <v>26</v>
@@ -10685,6 +10691,9 @@
       </c>
       <c r="R153" t="s">
         <v>27</v>
+      </c>
+      <c r="S153" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.3">
@@ -10698,16 +10707,16 @@
         <v>20</v>
       </c>
       <c r="D154" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="E154" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F154" t="s">
         <v>23</v>
       </c>
       <c r="G154" t="s">
-        <v>391</v>
+        <v>169</v>
       </c>
       <c r="H154">
         <v>-27.332999999999998</v>
@@ -10722,7 +10731,7 @@
         <v>238</v>
       </c>
       <c r="L154" s="1">
-        <v>26426</v>
+        <v>26475</v>
       </c>
       <c r="M154" t="s">
         <v>26</v>
@@ -10738,9 +10747,6 @@
       </c>
       <c r="R154" t="s">
         <v>27</v>
-      </c>
-      <c r="S154" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.3">
@@ -10754,7 +10760,7 @@
         <v>20</v>
       </c>
       <c r="D155" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="E155" t="s">
         <v>46</v>
@@ -10763,7 +10769,7 @@
         <v>23</v>
       </c>
       <c r="G155" t="s">
-        <v>237</v>
+        <v>166</v>
       </c>
       <c r="H155">
         <v>-27.332999999999998</v>
@@ -10777,8 +10783,8 @@
       <c r="K155" t="s">
         <v>238</v>
       </c>
-      <c r="L155" t="s">
-        <v>393</v>
+      <c r="L155" s="1">
+        <v>26196</v>
       </c>
       <c r="M155" t="s">
         <v>26</v>
@@ -10807,16 +10813,16 @@
         <v>20</v>
       </c>
       <c r="D156" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E156" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F156" t="s">
         <v>23</v>
       </c>
       <c r="G156" t="s">
-        <v>237</v>
+        <v>391</v>
       </c>
       <c r="H156">
         <v>-27.332999999999998</v>
@@ -10830,8 +10836,8 @@
       <c r="K156" t="s">
         <v>238</v>
       </c>
-      <c r="L156" t="s">
-        <v>393</v>
+      <c r="L156" s="1">
+        <v>26426</v>
       </c>
       <c r="M156" t="s">
         <v>26</v>
@@ -10847,6 +10853,9 @@
       </c>
       <c r="R156" t="s">
         <v>27</v>
+      </c>
+      <c r="S156" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.3">
@@ -10860,7 +10869,7 @@
         <v>20</v>
       </c>
       <c r="D157" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E157" t="s">
         <v>46</v>
@@ -10913,10 +10922,10 @@
         <v>20</v>
       </c>
       <c r="D158" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E158" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="F158" t="s">
         <v>23</v>
@@ -10936,8 +10945,8 @@
       <c r="K158" t="s">
         <v>238</v>
       </c>
-      <c r="L158" s="1">
-        <v>26201</v>
+      <c r="L158" t="s">
+        <v>393</v>
       </c>
       <c r="M158" t="s">
         <v>26</v>
@@ -10966,10 +10975,10 @@
         <v>20</v>
       </c>
       <c r="D159" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E159" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F159" t="s">
         <v>23</v>
@@ -10989,8 +10998,8 @@
       <c r="K159" t="s">
         <v>238</v>
       </c>
-      <c r="L159" s="1">
-        <v>26201</v>
+      <c r="L159" t="s">
+        <v>393</v>
       </c>
       <c r="M159" t="s">
         <v>26</v>
@@ -11019,13 +11028,13 @@
         <v>20</v>
       </c>
       <c r="D160" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E160" t="s">
         <v>22</v>
       </c>
       <c r="F160" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="G160" t="s">
         <v>237</v>
@@ -11072,7 +11081,7 @@
         <v>20</v>
       </c>
       <c r="D161" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E161" t="s">
         <v>22</v>
@@ -11125,13 +11134,13 @@
         <v>20</v>
       </c>
       <c r="D162" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E162" t="s">
         <v>22</v>
       </c>
       <c r="F162" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="G162" t="s">
         <v>237</v>
@@ -11178,7 +11187,7 @@
         <v>20</v>
       </c>
       <c r="D163" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E163" t="s">
         <v>22</v>
@@ -11231,7 +11240,7 @@
         <v>20</v>
       </c>
       <c r="D164" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E164" t="s">
         <v>22</v>
@@ -11284,7 +11293,7 @@
         <v>20</v>
       </c>
       <c r="D165" t="s">
-        <v>334</v>
+        <v>401</v>
       </c>
       <c r="E165" t="s">
         <v>22</v>
@@ -11293,22 +11302,22 @@
         <v>23</v>
       </c>
       <c r="G165" t="s">
-        <v>335</v>
+        <v>237</v>
       </c>
       <c r="H165">
-        <v>-27.329000000000001</v>
+        <v>-27.332999999999998</v>
       </c>
       <c r="I165">
-        <v>152.75800000000001</v>
+        <v>152.767</v>
       </c>
       <c r="J165">
         <v>572</v>
       </c>
       <c r="K165" t="s">
-        <v>336</v>
+        <v>238</v>
       </c>
       <c r="L165" s="1">
-        <v>39309</v>
+        <v>26201</v>
       </c>
       <c r="M165" t="s">
         <v>26</v>
@@ -11337,7 +11346,7 @@
         <v>20</v>
       </c>
       <c r="D166" t="s">
-        <v>330</v>
+        <v>402</v>
       </c>
       <c r="E166" t="s">
         <v>22</v>
@@ -11346,22 +11355,22 @@
         <v>23</v>
       </c>
       <c r="G166" t="s">
-        <v>331</v>
+        <v>237</v>
       </c>
       <c r="H166">
-        <v>-27.32</v>
+        <v>-27.332999999999998</v>
       </c>
       <c r="I166">
-        <v>152.78299999999999</v>
+        <v>152.767</v>
       </c>
       <c r="J166">
         <v>572</v>
       </c>
       <c r="K166" t="s">
-        <v>156</v>
+        <v>238</v>
       </c>
       <c r="L166" s="1">
-        <v>40787</v>
+        <v>26201</v>
       </c>
       <c r="M166" t="s">
         <v>26</v>
@@ -11381,40 +11390,40 @@
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B167" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C167" t="s">
         <v>20</v>
       </c>
       <c r="D167" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="E167" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F167" t="s">
         <v>23</v>
       </c>
       <c r="G167" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="H167">
-        <v>-26.733000000000001</v>
+        <v>-27.329000000000001</v>
       </c>
       <c r="I167">
-        <v>152.5</v>
+        <v>152.75800000000001</v>
       </c>
       <c r="J167">
-        <v>624</v>
+        <v>572</v>
       </c>
       <c r="K167" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="L167" s="1">
-        <v>26986</v>
+        <v>39309</v>
       </c>
       <c r="M167" t="s">
         <v>26</v>
@@ -11428,14 +11437,8 @@
       <c r="P167" t="s">
         <v>26</v>
       </c>
-      <c r="Q167" t="s">
-        <v>185</v>
-      </c>
       <c r="R167" t="s">
-        <v>36</v>
-      </c>
-      <c r="S167" t="s">
-        <v>304</v>
+        <v>27</v>
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.3">
@@ -11449,7 +11452,7 @@
         <v>20</v>
       </c>
       <c r="D168" t="s">
-        <v>28</v>
+        <v>330</v>
       </c>
       <c r="E168" t="s">
         <v>22</v>
@@ -11458,22 +11461,22 @@
         <v>23</v>
       </c>
       <c r="G168" t="s">
-        <v>29</v>
+        <v>331</v>
       </c>
       <c r="H168">
-        <v>-26.677</v>
+        <v>-27.32</v>
       </c>
       <c r="I168">
-        <v>152.57300000000001</v>
+        <v>152.78299999999999</v>
       </c>
       <c r="J168">
-        <v>706</v>
+        <v>572</v>
       </c>
       <c r="K168" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="L168" s="1">
-        <v>41780</v>
+        <v>40787</v>
       </c>
       <c r="M168" t="s">
         <v>26</v>
@@ -11493,40 +11496,40 @@
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B169" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C169" t="s">
         <v>20</v>
       </c>
       <c r="D169" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E169" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F169" t="s">
         <v>23</v>
       </c>
       <c r="G169" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="H169">
-        <v>-26.675000000000001</v>
+        <v>-26.733000000000001</v>
       </c>
       <c r="I169">
-        <v>152.875</v>
+        <v>152.5</v>
       </c>
       <c r="J169">
-        <v>244</v>
+        <v>624</v>
       </c>
       <c r="K169" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L169" s="1">
-        <v>27269</v>
+        <v>26986</v>
       </c>
       <c r="M169" t="s">
         <v>26</v>
@@ -11540,11 +11543,14 @@
       <c r="P169" t="s">
         <v>26</v>
       </c>
+      <c r="Q169" t="s">
+        <v>185</v>
+      </c>
       <c r="R169" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="S169" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.3">
@@ -11558,7 +11564,7 @@
         <v>20</v>
       </c>
       <c r="D170" t="s">
-        <v>293</v>
+        <v>28</v>
       </c>
       <c r="E170" t="s">
         <v>22</v>
@@ -11567,22 +11573,22 @@
         <v>23</v>
       </c>
       <c r="G170" t="s">
-        <v>294</v>
+        <v>29</v>
       </c>
       <c r="H170">
-        <v>-26.667000000000002</v>
+        <v>-26.677</v>
       </c>
       <c r="I170">
-        <v>152.86699999999999</v>
+        <v>152.57300000000001</v>
       </c>
       <c r="J170">
-        <v>295</v>
+        <v>706</v>
       </c>
       <c r="K170" t="s">
-        <v>295</v>
+        <v>25</v>
       </c>
       <c r="L170" s="1">
-        <v>27543</v>
+        <v>41780</v>
       </c>
       <c r="M170" t="s">
         <v>26</v>
@@ -11598,9 +11604,6 @@
       </c>
       <c r="R170" t="s">
         <v>27</v>
-      </c>
-      <c r="S170" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.3">
@@ -11614,31 +11617,31 @@
         <v>20</v>
       </c>
       <c r="D171" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="E171" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F171" t="s">
         <v>23</v>
       </c>
       <c r="G171" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H171">
-        <v>-26.606000000000002</v>
+        <v>-26.675000000000001</v>
       </c>
       <c r="I171">
-        <v>152.85499999999999</v>
+        <v>152.875</v>
       </c>
       <c r="J171">
-        <v>388</v>
+        <v>244</v>
       </c>
       <c r="K171" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="L171" s="1">
-        <v>37121</v>
+        <v>27269</v>
       </c>
       <c r="M171" t="s">
         <v>26</v>
@@ -11654,6 +11657,9 @@
       </c>
       <c r="R171" t="s">
         <v>27</v>
+      </c>
+      <c r="S171" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.3">
@@ -11667,7 +11673,7 @@
         <v>20</v>
       </c>
       <c r="D172" t="s">
-        <v>21</v>
+        <v>293</v>
       </c>
       <c r="E172" t="s">
         <v>22</v>
@@ -11676,22 +11682,22 @@
         <v>23</v>
       </c>
       <c r="G172" t="s">
-        <v>24</v>
+        <v>294</v>
       </c>
       <c r="H172">
-        <v>-26.292000000000002</v>
+        <v>-26.667000000000002</v>
       </c>
       <c r="I172">
-        <v>152.328</v>
+        <v>152.86699999999999</v>
       </c>
       <c r="J172">
-        <v>530</v>
+        <v>295</v>
       </c>
       <c r="K172" t="s">
-        <v>25</v>
+        <v>295</v>
       </c>
       <c r="L172" s="1">
-        <v>41855</v>
+        <v>27543</v>
       </c>
       <c r="M172" t="s">
         <v>26</v>
@@ -11707,6 +11713,9 @@
       </c>
       <c r="R172" t="s">
         <v>27</v>
+      </c>
+      <c r="S172" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.3">
@@ -11720,7 +11729,7 @@
         <v>20</v>
       </c>
       <c r="D173" t="s">
-        <v>455</v>
+        <v>282</v>
       </c>
       <c r="E173" t="s">
         <v>46</v>
@@ -11729,22 +11738,22 @@
         <v>23</v>
       </c>
       <c r="G173" t="s">
-        <v>456</v>
+        <v>283</v>
       </c>
       <c r="H173">
-        <v>-26.282</v>
+        <v>-26.606000000000002</v>
       </c>
       <c r="I173">
-        <v>152.83199999999999</v>
+        <v>152.85499999999999</v>
       </c>
       <c r="J173">
-        <v>315</v>
+        <v>388</v>
       </c>
       <c r="K173" t="s">
-        <v>25</v>
+        <v>284</v>
       </c>
       <c r="L173" s="1">
-        <v>41882</v>
+        <v>37121</v>
       </c>
       <c r="M173" t="s">
         <v>26</v>
@@ -11773,7 +11782,7 @@
         <v>20</v>
       </c>
       <c r="D174" t="s">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="E174" t="s">
         <v>22</v>
@@ -11782,22 +11791,22 @@
         <v>23</v>
       </c>
       <c r="G174" t="s">
-        <v>179</v>
+        <v>24</v>
       </c>
       <c r="H174">
-        <v>-26.25</v>
+        <v>-26.292000000000002</v>
       </c>
       <c r="I174">
-        <v>152.733</v>
+        <v>152.328</v>
       </c>
       <c r="J174">
-        <v>78</v>
+        <v>530</v>
       </c>
       <c r="K174" t="s">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="L174" s="1">
-        <v>25078</v>
+        <v>41855</v>
       </c>
       <c r="M174" t="s">
         <v>26</v>
@@ -11813,47 +11822,44 @@
       </c>
       <c r="R174" t="s">
         <v>27</v>
-      </c>
-      <c r="S174" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B175" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C175" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D175" t="s">
-        <v>40</v>
+        <v>455</v>
       </c>
       <c r="E175" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F175" t="s">
         <v>23</v>
       </c>
       <c r="G175" t="s">
-        <v>41</v>
+        <v>456</v>
       </c>
       <c r="H175">
-        <v>-17.2</v>
+        <v>-26.282</v>
       </c>
       <c r="I175">
-        <v>145.66669999999999</v>
+        <v>152.83199999999999</v>
       </c>
       <c r="J175">
-        <v>728</v>
+        <v>315</v>
       </c>
       <c r="K175" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="L175" s="1">
-        <v>29742</v>
+        <v>41882</v>
       </c>
       <c r="M175" t="s">
         <v>26</v>
@@ -11867,52 +11873,46 @@
       <c r="P175" t="s">
         <v>26</v>
       </c>
-      <c r="Q175" t="s">
-        <v>43</v>
-      </c>
       <c r="R175" t="s">
-        <v>36</v>
-      </c>
-      <c r="S175" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B176" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C176" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D176" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="E176" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F176" t="s">
         <v>23</v>
       </c>
       <c r="G176" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="H176">
-        <v>-17.2</v>
+        <v>-26.25</v>
       </c>
       <c r="I176">
-        <v>145.66669999999999</v>
+        <v>152.733</v>
       </c>
       <c r="J176">
-        <v>728</v>
+        <v>78</v>
       </c>
       <c r="K176" t="s">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="L176" s="1">
-        <v>29587</v>
+        <v>25078</v>
       </c>
       <c r="M176" t="s">
         <v>26</v>
@@ -11926,14 +11926,11 @@
       <c r="P176" t="s">
         <v>26</v>
       </c>
-      <c r="Q176" t="s">
-        <v>43</v>
-      </c>
       <c r="R176" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="S176" t="s">
-        <v>44</v>
+        <v>181</v>
       </c>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.3">
@@ -11947,7 +11944,7 @@
         <v>39</v>
       </c>
       <c r="D177" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E177" t="s">
         <v>22</v>
@@ -11971,7 +11968,7 @@
         <v>42</v>
       </c>
       <c r="L177" s="1">
-        <v>29743</v>
+        <v>29742</v>
       </c>
       <c r="M177" t="s">
         <v>26</v>
@@ -12000,13 +11997,13 @@
         <v>30</v>
       </c>
       <c r="B178" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C178" t="s">
         <v>39</v>
       </c>
       <c r="D178" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E178" t="s">
         <v>46</v>
@@ -12015,19 +12012,22 @@
         <v>23</v>
       </c>
       <c r="G178" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H178">
-        <v>-35.19</v>
+        <v>-17.2</v>
       </c>
       <c r="I178">
-        <v>149.90899999999999</v>
+        <v>145.66669999999999</v>
+      </c>
+      <c r="J178">
+        <v>728</v>
       </c>
       <c r="K178" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="L178" s="1">
-        <v>27732</v>
+        <v>29587</v>
       </c>
       <c r="M178" t="s">
         <v>26</v>
@@ -12041,11 +12041,14 @@
       <c r="P178" t="s">
         <v>26</v>
       </c>
+      <c r="Q178" t="s">
+        <v>43</v>
+      </c>
       <c r="R178" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="S178" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.3">
@@ -12053,28 +12056,37 @@
         <v>30</v>
       </c>
       <c r="B179" t="s">
-        <v>376</v>
+        <v>38</v>
       </c>
       <c r="C179" t="s">
         <v>39</v>
       </c>
       <c r="D179" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="E179" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F179" t="s">
         <v>23</v>
       </c>
       <c r="G179" t="s">
-        <v>116</v>
+        <v>41</v>
+      </c>
+      <c r="H179">
+        <v>-17.2</v>
+      </c>
+      <c r="I179">
+        <v>145.66669999999999</v>
+      </c>
+      <c r="J179">
+        <v>728</v>
       </c>
       <c r="K179" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="L179" s="1">
-        <v>26414</v>
+        <v>29743</v>
       </c>
       <c r="M179" t="s">
         <v>26</v>
@@ -12088,25 +12100,28 @@
       <c r="P179" t="s">
         <v>26</v>
       </c>
+      <c r="Q179" t="s">
+        <v>43</v>
+      </c>
       <c r="R179" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="S179" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B180" t="s">
         <v>376</v>
       </c>
       <c r="C180" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D180" t="s">
-        <v>377</v>
+        <v>115</v>
       </c>
       <c r="E180" t="s">
         <v>46</v>
@@ -12115,13 +12130,13 @@
         <v>23</v>
       </c>
       <c r="G180" t="s">
-        <v>378</v>
+        <v>116</v>
       </c>
       <c r="K180" t="s">
-        <v>379</v>
-      </c>
-      <c r="L180" t="s">
-        <v>380</v>
+        <v>74</v>
+      </c>
+      <c r="L180" s="1">
+        <v>26414</v>
       </c>
       <c r="M180" t="s">
         <v>26</v>
@@ -12135,49 +12150,40 @@
       <c r="P180" t="s">
         <v>26</v>
       </c>
-      <c r="Q180" t="s">
-        <v>381</v>
-      </c>
       <c r="R180" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="S180" t="s">
-        <v>382</v>
+        <v>117</v>
       </c>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B181" t="s">
-        <v>31</v>
+        <v>376</v>
       </c>
       <c r="C181" t="s">
         <v>20</v>
       </c>
       <c r="D181" t="s">
-        <v>457</v>
+        <v>377</v>
       </c>
       <c r="E181" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F181" t="s">
         <v>23</v>
       </c>
       <c r="G181" t="s">
-        <v>458</v>
-      </c>
-      <c r="H181">
-        <v>-28.233000000000001</v>
-      </c>
-      <c r="I181">
-        <v>153.25</v>
+        <v>378</v>
       </c>
       <c r="K181" t="s">
-        <v>459</v>
-      </c>
-      <c r="L181" s="1">
-        <v>41450</v>
+        <v>379</v>
+      </c>
+      <c r="L181" t="s">
+        <v>380</v>
       </c>
       <c r="M181" t="s">
         <v>26</v>
@@ -12192,18 +12198,19 @@
         <v>26</v>
       </c>
       <c r="Q181" t="s">
-        <v>460</v>
+        <v>381</v>
       </c>
       <c r="R181" t="s">
         <v>36</v>
       </c>
       <c r="S181" t="s">
-        <v>461</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="H1:H181"/>
   <sortState ref="A2:S181">
-    <sortCondition ref="H1"/>
+    <sortCondition ref="H157"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Antechinus_data.xlsx
+++ b/Data/Antechinus_data.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Antechinus_data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Antechinus_data!$H$1:$H$181</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Antechinus_data!$B$1:$B$181</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2513" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2513" uniqueCount="463">
   <si>
     <t>Species</t>
   </si>
@@ -1410,10 +1410,7 @@
     <t>qm or bust - dunno about this one - but you could guestimate based on description</t>
   </si>
   <si>
-    <t>subtropicus holotype</t>
-  </si>
-  <si>
-    <t>stuartii neotype</t>
+    <t>exclude? Sub?</t>
   </si>
 </sst>
 </file>
@@ -2223,8 +2220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2233,6 +2230,7 @@
     <col min="2" max="2" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="81.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
@@ -3564,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
@@ -3617,7 +3615,7 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
@@ -3835,7 +3833,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>463</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
         <v>405</v>
@@ -5093,7 +5091,7 @@
         <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C53" t="s">
         <v>405</v>
@@ -5152,7 +5150,7 @@
         <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C54" t="s">
         <v>405</v>
@@ -5208,7 +5206,7 @@
         <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C55" t="s">
         <v>20</v>
@@ -5373,7 +5371,7 @@
         <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C58" t="s">
         <v>405</v>
@@ -5485,7 +5483,7 @@
         <v>19</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C60" t="s">
         <v>20</v>
@@ -5541,7 +5539,7 @@
         <v>19</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C61" t="s">
         <v>405</v>
@@ -5586,7 +5584,7 @@
         <v>26</v>
       </c>
       <c r="Q61" t="s">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c r="R61" t="s">
         <v>36</v>
@@ -7451,7 +7449,7 @@
         <v>19</v>
       </c>
       <c r="B95" t="s">
-        <v>462</v>
+        <v>19</v>
       </c>
       <c r="C95" t="s">
         <v>20</v>
@@ -7625,7 +7623,7 @@
         <v>19</v>
       </c>
       <c r="B98" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C98" t="s">
         <v>20</v>
@@ -8141,7 +8139,7 @@
         <v>30</v>
       </c>
       <c r="B107" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C107" t="s">
         <v>20</v>
@@ -8516,7 +8514,7 @@
         <v>26</v>
       </c>
       <c r="Q113" t="s">
-        <v>138</v>
+        <v>462</v>
       </c>
       <c r="R113" t="s">
         <v>36</v>
@@ -11499,7 +11497,7 @@
         <v>30</v>
       </c>
       <c r="B169" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C169" t="s">
         <v>20</v>
@@ -12208,7 +12206,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H181"/>
+  <autoFilter ref="B1:B181"/>
   <sortState ref="A2:S181">
     <sortCondition ref="H157"/>
   </sortState>

--- a/Data/Antechinus_data.xlsx
+++ b/Data/Antechinus_data.xlsx
@@ -2284,8 +2284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99:XFD104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2300,13 +2300,13 @@
     <col min="8" max="8" width="81.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5546875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="11" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="107.21875" bestFit="1" customWidth="1"/>
